--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Code all" sheetId="3" r:id="rId3"/>
     <sheet name="New words" sheetId="4" r:id="rId4"/>
     <sheet name="Python" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -105,6 +106,9 @@
     <t>fast food&amp;drumstick</t>
   </si>
   <si>
+    <t>play</t>
+  </si>
+  <si>
     <t>Date
 （日期）</t>
   </si>
@@ -139,6 +143,14 @@
   <si>
     <t>Vocabulary
 (单词量)</t>
+  </si>
+  <si>
+    <t>Work list
+（代办工作）</t>
+  </si>
+  <si>
+    <t>Things list
+(待办事项)</t>
   </si>
 </sst>
 </file>
@@ -146,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -176,29 +188,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +247,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,27 +310,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +357,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,48 +483,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,60 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,16 +576,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,21 +601,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -614,6 +611,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,21 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -669,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,85 +693,85 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,47 +783,47 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,11 +833,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,102 +1233,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="12" customHeight="1" spans="8:17">
-      <c r="H12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="H12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
     </row>
     <row r="13" customHeight="1" spans="8:17">
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" customHeight="1" spans="8:17">
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
     </row>
     <row r="15" customHeight="1" spans="8:17">
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" customHeight="1" spans="8:17">
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
     </row>
     <row r="17" customHeight="1" spans="8:17">
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" customHeight="1" spans="8:17">
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
     </row>
     <row r="19" customHeight="1" spans="8:17">
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1333,373 +1348,498 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="12.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="12.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="13" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:8">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" ht="3" customHeight="1" spans="1:7">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>4.24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>12.2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <f>SUM(B4:D4)</f>
         <v>24.2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>157.65</v>
+        <v>1608.65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>4.25</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F35" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>10.85</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>18</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>31.85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>4.26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>14</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>19.7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>36.7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>4.27</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>16.7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>26</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>45.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>4.28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>16.2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
     </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6">
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7">
+        <v>291</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>21</v>
+      </c>
+      <c r="D20" s="7">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="6:6">
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="6:6">
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="6:6">
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="6">
+      <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="6">
+      <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="6:6">
-      <c r="F32" s="6">
+      <c r="F32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="6">
+      <c r="A67" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="6">
+      <c r="A72" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>$F9&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 A13:F40">
-    <cfRule type="expression" dxfId="0" priority="3">
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>$F13&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$F13&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>$F15&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$F15&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$F17&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$F17&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F19&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F19&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A21:F40">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B12:C12">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>$F11&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17 E17:F17 A18:F18">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$F17&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19 E19:F19 A20:F20">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,8 +1855,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1725,24 +1865,24 @@
     <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1755,168 +1895,176 @@
       <c r="C2" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <f>B2/915</f>
         <v>0.033879781420765</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4">
-        <v>4.27</v>
+        <v>4.28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30</v>
       </c>
       <c r="D3" s="4">
         <v>30</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E26" si="0">B3/915</f>
-        <v>0</v>
+      <c r="E3" s="6">
+        <f>B3/915</f>
+        <v>0.0655737704918033</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
-        <v>4.28</v>
+        <v>5.2</v>
       </c>
       <c r="B4" s="4">
-        <f>SUM(B2,D3)</f>
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4">
         <v>30</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.0666666666666667</v>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6">
+        <f>B4/915</f>
+        <v>0.0983606557377049</v>
       </c>
     </row>
     <row r="5" spans="5:5">
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E10" si="0">B5/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="5:5">
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E18" si="1">B11/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
+      <c r="E12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
+      <c r="E13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
+      <c r="E14" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
+      <c r="E15" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
+      <c r="E19" s="6">
+        <f>B19/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="5">
-        <f t="shared" si="0"/>
+      <c r="E20" s="6">
+        <f>B20/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
+      <c r="E21" s="6">
+        <f>B21/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="5">
-        <f t="shared" si="0"/>
+      <c r="E22" s="6">
+        <f>B22/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="5">
-        <f t="shared" si="0"/>
+      <c r="E23" s="6">
+        <f>B23/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="5">
-        <f t="shared" si="0"/>
+      <c r="E24" s="6">
+        <f>B24/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="5">
-        <f t="shared" si="0"/>
+      <c r="E25" s="6">
+        <f>B25/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="5">
-        <f t="shared" si="0"/>
+      <c r="E26" s="6">
+        <f>B26/915</f>
         <v>0</v>
       </c>
     </row>
@@ -1950,19 +2098,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1995,7 +2143,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2008,19 +2156,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2036,4 +2184,48 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.75" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="25020" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -158,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -193,6 +193,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,113 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,25 +357,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,145 +513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,25 +576,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -630,6 +626,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -647,32 +667,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -930,7 +930,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1348,10 +1348,10 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>1608.65</v>
+        <v>1634.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1676,16 +1676,34 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="1:6">
+      <c r="A21" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="2:6">
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12.75</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="23" spans="6:6">
@@ -1778,68 +1796,83 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>$F9&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>$F13&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>$F13&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>$F15&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F15&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A21:F40">
-    <cfRule type="expression" dxfId="0" priority="13">
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F21&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F21&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F40">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B12:C12">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$F11&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 E17:F17 A18:F18">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 E19:F19 A20:F20">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$F19&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21 E21:F21 A22:F22">
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$F19&lt;&gt;0</formula>
+      <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,8 +1888,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1974,7 +2007,7 @@
     </row>
     <row r="11" spans="5:5">
       <c r="E11" s="6">
-        <f t="shared" ref="E11:E18" si="1">B11/915</f>
+        <f t="shared" ref="E11:E26" si="1">B11/915</f>
         <v>0</v>
       </c>
     </row>
@@ -2022,49 +2055,49 @@
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="6">
-        <f>B19/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="6">
-        <f>B20/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="6">
-        <f>B21/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="6">
-        <f>B22/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="6">
-        <f>B23/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="6">
-        <f>B24/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="6">
-        <f>B25/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="6">
-        <f>B26/915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25020" windowHeight="14130" activeTab="1"/>
+    <workbookView windowWidth="26148" windowHeight="14244" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -109,6 +109,9 @@
     <t>play</t>
   </si>
   <si>
+    <t>5.6-8</t>
+  </si>
+  <si>
     <t>Date
 （日期）</t>
   </si>
@@ -158,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -187,6 +190,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -208,84 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +294,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -307,17 +310,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,175 +360,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,17 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -626,6 +618,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -637,15 +649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +696,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,9 +1233,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="12" customHeight="1" spans="8:17">
+    <row r="12" ht="13.5" customHeight="1" spans="8:17">
       <c r="H12" s="14" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1249,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" customHeight="1" spans="8:17">
+    <row r="13" ht="13.5" customHeight="1" spans="8:17">
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1258,7 +1261,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" customHeight="1" spans="8:17">
+    <row r="14" ht="13.5" customHeight="1" spans="8:17">
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1270,7 +1273,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" customHeight="1" spans="8:17">
+    <row r="15" ht="13.5" customHeight="1" spans="8:17">
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1282,7 +1285,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" customHeight="1" spans="8:17">
+    <row r="16" ht="13.5" customHeight="1" spans="8:17">
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1294,7 +1297,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" customHeight="1" spans="8:17">
+    <row r="17" ht="13.5" customHeight="1" spans="8:17">
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1306,7 +1309,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" customHeight="1" spans="8:17">
+    <row r="18" ht="13.5" customHeight="1" spans="8:17">
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -1318,7 +1321,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" customHeight="1" spans="8:17">
+    <row r="19" ht="13.5" customHeight="1" spans="8:17">
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1351,14 +1354,14 @@
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.3796296296296" style="7" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
@@ -1366,7 +1369,7 @@
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
+    <row r="1" ht="28.8" spans="1:8">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>1634.4</v>
+        <v>1964.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1706,28 +1709,55 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="4:6">
+      <c r="D24" s="7">
+        <v>300</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="2:6">
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7">
+        <v>18</v>
+      </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="6:6">
@@ -1796,82 +1826,97 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>$F9&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$F13&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>$F13&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$F15&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>$F15&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F40">
-    <cfRule type="expression" dxfId="0" priority="16">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$F25&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F25&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F25&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F24 A25 E25:F25 A26:F40">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B12:C12">
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>$F11&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 E17:F17 A18:F18">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 E19:F19 A20:F20">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21 E21:F21 A22:F22">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1892,30 +1937,30 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.3796296296296" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.6296296296296" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="58.35" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2119,31 +2164,31 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2179,29 +2224,29 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2228,22 +2273,22 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="16.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="25.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:3">
+    <row r="1" ht="29.55" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -112,6 +112,12 @@
     <t>5.6-8</t>
   </si>
   <si>
+    <t>5.10-5.15</t>
+  </si>
+  <si>
+    <t>cake+milk</t>
+  </si>
+  <si>
     <t>Date
 （日期）</t>
   </si>
@@ -161,9 +167,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -190,12 +196,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -220,29 +304,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,77 +333,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,175 +366,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,11 +585,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +635,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,56 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,9 +1239,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="12" ht="13.5" customHeight="1" spans="8:17">
+    <row r="12" customHeight="1" spans="8:17">
       <c r="H12" s="14" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1255,7 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1" spans="8:17">
+    <row r="13" customHeight="1" spans="8:17">
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1261,7 +1267,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1" spans="8:17">
+    <row r="14" customHeight="1" spans="8:17">
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1273,7 +1279,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" spans="8:17">
+    <row r="15" customHeight="1" spans="8:17">
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1285,7 +1291,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1" spans="8:17">
+    <row r="16" customHeight="1" spans="8:17">
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1297,7 +1303,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" spans="8:17">
+    <row r="17" customHeight="1" spans="8:17">
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1309,7 +1315,7 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1" spans="8:17">
+    <row r="18" customHeight="1" spans="8:17">
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -1321,7 +1327,7 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1" spans="8:17">
+    <row r="19" customHeight="1" spans="8:17">
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1354,14 +1360,14 @@
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.1296296296296" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.3796296296296" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.1333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.3833333333333" style="7" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
@@ -1369,7 +1375,7 @@
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
+    <row r="1" ht="27" spans="1:8">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -1427,7 +1433,7 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>1964.4</v>
+        <v>2174.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1760,28 +1766,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="1:6">
+      <c r="A27" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="4:6">
+      <c r="D28" s="7">
+        <v>200</v>
+      </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="7">
+        <v>5.16</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="2:6">
+      <c r="B30" s="7">
+        <v>10</v>
+      </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="6:6">
@@ -1826,97 +1853,112 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="0" priority="18">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>$F9&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>$F13&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>$F13&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>$F15&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="0" priority="13">
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>$F15&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$F25&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$F25&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F25&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F24 A25 E25:F25 A26:F40">
-    <cfRule type="expression" dxfId="0" priority="19">
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$F29&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F29&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F29&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F24 A25 E25:F25 A26:F28 A29 E29:F29 A30:F40">
+    <cfRule type="expression" dxfId="0" priority="22">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B12:C12">
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>$F11&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17 E17:F17 A18:F18">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>$F17&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 E19:F19 A20:F20">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:B21 E21:F21 A22:F22">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1937,30 +1979,30 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.3796296296296" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.3833333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6296296296296" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.6333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.35" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2164,31 +2206,31 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.3833333333333" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2224,29 +2266,29 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2273,22 +2315,22 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="19.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="25.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="16.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:3">
+    <row r="1" ht="27.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -168,9 +168,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -318,13 +318,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -340,6 +333,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -366,6 +366,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -378,163 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,145 +690,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,7 +1360,7 @@
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>2174.4</v>
+        <v>2256.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1806,33 +1806,81 @@
       <c r="B30" s="7">
         <v>10</v>
       </c>
+      <c r="C30" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="D30" s="7">
+        <v>10</v>
+      </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="7">
+        <v>5.17</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="6:6">
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="2:6">
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>19.5</v>
+      </c>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="7">
+        <v>5.18</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="2:6">
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7">
+        <v>16</v>
+      </c>
+      <c r="D34" s="7">
+        <v>9</v>
+      </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="6:6">
@@ -1853,112 +1901,142 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="0" priority="27">
+      <formula>$F9&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>$F13&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>$F13&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="0" priority="23">
+      <formula>$F15&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="0" priority="22">
+      <formula>$F15&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="expression" dxfId="0" priority="20">
+      <formula>$F17&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>$F17&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>$F19&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>$F19&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>$F21&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>$F21&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>$F25&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="0" priority="11">
+      <formula>$F25&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>$F25&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>$F29&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>$F29&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$F29&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>$F31&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$F31&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$F31&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$F33&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F33&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F33&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F24 A25 E25:F25 A26:F28 A29 E29:F29 A30:F30 A31 E31:F31 A32:F32 A33 E33:F33 A34:F40">
+    <cfRule type="expression" dxfId="0" priority="28">
+      <formula>$F3&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 B12:C12">
+    <cfRule type="expression" dxfId="0" priority="26">
+      <formula>$F11&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B17 E17:F17 A18:F18">
     <cfRule type="expression" dxfId="0" priority="21">
-      <formula>$F9&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>$F13&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+      <formula>$F17&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:B19 E19:F19 A20:F20">
     <cfRule type="expression" dxfId="0" priority="18">
-      <formula>$F13&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>$F15&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="0" priority="16">
-      <formula>$F15&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>$F17&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>$F17&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="0" priority="11">
       <formula>$F19&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>$F19&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$F21&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$F21&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$F25&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$F25&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$F25&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$F29&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$F29&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F29&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F24 A25 E25:F25 A26:F28 A29 E29:F29 A30:F40">
-    <cfRule type="expression" dxfId="0" priority="22">
-      <formula>$F3&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B12:C12">
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>$F11&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 E17:F17 A18:F18">
+  <conditionalFormatting sqref="A21:B21 E21:F21 A22:F22">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>$F17&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19 E19:F19 A20:F20">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>$F19&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21 E21:F21 A22:F22">
-    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -1360,7 +1360,7 @@
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>2256.7</v>
+        <v>2257.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1876,11 +1876,11 @@
         <v>16</v>
       </c>
       <c r="D34" s="7">
-        <v>9</v>
+        <v>9.8</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="35" spans="6:6">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>cake+milk</t>
+  </si>
+  <si>
+    <t>take-out+dinner+wash card</t>
+  </si>
+  <si>
+    <t>breakfirst</t>
   </si>
   <si>
     <t>Date
@@ -317,6 +323,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -324,7 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -366,43 +372,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,127 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,10 +696,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,33 +708,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,92 +753,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +880,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,102 +1251,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="12" customHeight="1" spans="8:17">
-      <c r="H12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="H12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="8:17">
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="8:17">
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" customHeight="1" spans="8:17">
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" customHeight="1" spans="8:17">
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" customHeight="1" spans="8:17">
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" customHeight="1" spans="8:17">
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" customHeight="1" spans="8:17">
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1358,9 +1367,9 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1433,7 +1442,7 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>2257.5</v>
+        <v>2574.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1861,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
@@ -1876,16 +1885,85 @@
         <v>16</v>
       </c>
       <c r="D34" s="7">
-        <v>9.8</v>
+        <v>326.8</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
+        <v>345.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="7">
+        <v>5.19</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="F35" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B35:D35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7">
+        <v>24</v>
+      </c>
+      <c r="F36" s="7">
+        <f>SUM(B36:D36)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="7">
+        <f>SUM(B37:D37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="7">
+        <f>SUM(B38:D38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="7">
+        <f>SUM(B39:D39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="7">
+        <f t="shared" ref="F40:F45" si="1">SUM(B40:D40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1900,144 +1978,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="0" priority="27">
-      <formula>$F9&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="0" priority="25">
-      <formula>$F13&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>$F13&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="0" priority="23">
-      <formula>$F15&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="0" priority="22">
-      <formula>$F15&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="0" priority="20">
-      <formula>$F17&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="0" priority="19">
-      <formula>$F17&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="0" priority="17">
-      <formula>$F19&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="0" priority="16">
-      <formula>$F19&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>$F21&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>$F21&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>$F25&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="0" priority="11">
-      <formula>$F25&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>$F25&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$F29&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>$F29&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>$F29&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>$F31&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$F31&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$F31&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$F33&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$F33&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F33&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F8 A9:C9 E9:F9 A10:F10 A11:A12 D11:F12 E13:F13 A13:B13 A14:F14 A15:B15 E15:F15 A16:F16 A23:F24 A25 E25:F25 A26:F28 A29 E29:F29 A30:F30 A31 E31:F31 A32:F32 A33 E33:F33 A34:F40">
+  <conditionalFormatting sqref="A3:F50">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>$F3&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B12:C12">
-    <cfRule type="expression" dxfId="0" priority="26">
-      <formula>$F11&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B17 E17:F17 A18:F18">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>$F17&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:B19 E19:F19 A20:F20">
-    <cfRule type="expression" dxfId="0" priority="18">
-      <formula>$F19&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21 E21:F21 A22:F22">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>$F21&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2068,19 +2011,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2296,19 +2239,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2354,19 +2297,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2402,13 +2345,13 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Code all" sheetId="3" r:id="rId3"/>
     <sheet name="New words" sheetId="4" r:id="rId4"/>
     <sheet name="Python" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="My weight" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -160,12 +160,18 @@
 (单词量)</t>
   </si>
   <si>
-    <t>Work list
-（代办工作）</t>
+    <t>My weight
+（我的体重）</t>
   </si>
   <si>
     <t>Things list
 (待办事项)</t>
+  </si>
+  <si>
+    <t>100kg</t>
+  </si>
+  <si>
+    <t>少吃，减肥</t>
   </si>
 </sst>
 </file>
@@ -173,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -208,42 +214,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,22 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +282,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,45 +319,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,85 +378,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,31 +522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,49 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,17 +597,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +660,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,39 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -696,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,19 +714,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,112 +735,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1361,15 +1367,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="2" tint="-0.25"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1459,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F35" si="0">SUM(B5:D5)</f>
+        <f t="shared" ref="F5:F39" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1900,7 +1906,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="7">
-        <f>SUM(B35:D35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1909,25 +1915,25 @@
         <v>24</v>
       </c>
       <c r="F36" s="7">
-        <f>SUM(B36:D36)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="7">
-        <f>SUM(B37:D37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="7">
-        <f>SUM(B38:D38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="7">
-        <f>SUM(B39:D39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1996,8 +2002,8 @@
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2077,10 +2083,16 @@
         <v>0.0983606557377049</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>5.19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>901</v>
+      </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E10" si="0">B5/915</f>
-        <v>0</v>
+        <v>0.984699453551913</v>
       </c>
     </row>
     <row r="6" spans="5:5">
@@ -2221,13 +2233,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="4" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
@@ -2268,6 +2280,14 @@
       </c>
       <c r="B3" s="4">
         <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>5.19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2329,11 +2349,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2356,12 +2378,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>5.19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,15 @@
     <sheet name="New words" sheetId="4" r:id="rId4"/>
     <sheet name="Python" sheetId="5" r:id="rId5"/>
     <sheet name="My weight" sheetId="6" r:id="rId6"/>
+    <sheet name="Eng" sheetId="7" r:id="rId7"/>
+    <sheet name="Exercise" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -65,6 +72,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>f</t>
@@ -74,6 +82,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ast food</t>
@@ -85,6 +94,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>take-out</t>
@@ -94,6 +104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(叉烧鸡腿饭)</t>
@@ -124,6 +135,12 @@
     <t>breakfirst</t>
   </si>
   <si>
+    <t>5.20-21</t>
+  </si>
+  <si>
+    <t>car fee</t>
+  </si>
+  <si>
     <t>Date
 （日期）</t>
   </si>
@@ -172,19 +189,112 @@
   </si>
   <si>
     <t>少吃，减肥</t>
+  </si>
+  <si>
+    <t>listening
+（听力时长）</t>
+  </si>
+  <si>
+    <t>reading
+(阅读时长）</t>
+  </si>
+  <si>
+    <t>writing
+（写作时长）</t>
+  </si>
+  <si>
+    <t>Project
+（项目）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬腿收腹</t>
+  </si>
+  <si>
+    <t>push-ups</t>
+  </si>
+  <si>
+    <t>手握</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types
+（类型）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times
+(个数）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>肱二</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5LB</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0LB</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5LB</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30LB</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手撑地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,168 +306,41 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="48"/>
-      <color theme="3" tint="0.399945066682943"/>
+      <color theme="3" tint="0.39991454817346722"/>
       <name val="Edwardian Script ITC"/>
-      <charset val="134"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,182 +359,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -596,272 +405,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,19 +439,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -893,68 +463,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.599993896298105"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1244,9 +781,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3" tint="0.399945066682943"/>
+    <tabColor theme="3" tint="0.39991454817346722"/>
   </sheetPr>
   <dimension ref="H12:Q19"/>
   <sheetViews>
@@ -1254,9 +791,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="12" customHeight="1" spans="8:17">
+    <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H12" s="15" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +807,7 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" customHeight="1" spans="8:17">
+    <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -1282,7 +819,7 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" customHeight="1" spans="8:17">
+    <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -1294,7 +831,7 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" customHeight="1" spans="8:17">
+    <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -1306,7 +843,7 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" customHeight="1" spans="8:17">
+    <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -1318,7 +855,7 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" customHeight="1" spans="8:17">
+    <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -1330,7 +867,7 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" customHeight="1" spans="8:17">
+    <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -1342,7 +879,7 @@
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" customHeight="1" spans="8:17">
+    <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -1358,31 +895,30 @@
   <mergeCells count="1">
     <mergeCell ref="H12:Q19"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="2" tint="-0.25"/>
+    <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.1333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.3833333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="7" customWidth="1"/>
     <col min="5" max="5" width="9" style="7"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
@@ -1390,7 +926,7 @@
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>1</v>
@@ -1412,7 +948,7 @@
       </c>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="3" customHeight="1" spans="1:7">
+    <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1421,7 +957,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>4.24</v>
       </c>
@@ -1435,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C4" s="7">
         <v>12.2</v>
       </c>
@@ -1448,10 +984,10 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4:F35)</f>
-        <v>2574.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>2574.5000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>4.25</v>
       </c>
@@ -1469,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -1484,7 +1020,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4.26</v>
       </c>
@@ -1502,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="7">
         <v>3</v>
       </c>
@@ -1514,12 +1050,12 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>10</v>
@@ -1535,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="7">
         <v>3</v>
       </c>
@@ -1550,7 +1086,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>4.28</v>
       </c>
@@ -1565,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="7">
         <v>3</v>
       </c>
@@ -1577,9 +1113,9 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
@@ -1595,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="7">
         <v>1000</v>
       </c>
@@ -1604,7 +1140,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>5.2</v>
       </c>
@@ -1622,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="7">
         <v>3</v>
       </c>
@@ -1637,7 +1173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>5.3</v>
       </c>
@@ -1655,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="7">
         <v>6</v>
       </c>
@@ -1670,7 +1206,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>5.4</v>
       </c>
@@ -1685,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="7">
         <v>3</v>
       </c>
@@ -1700,7 +1236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>5.5</v>
       </c>
@@ -1715,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -1730,7 +1266,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D24" s="7">
         <v>300</v>
       </c>
@@ -1748,7 +1284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>5.9</v>
       </c>
@@ -1766,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="7">
         <v>3</v>
       </c>
@@ -1781,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
@@ -1790,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D28" s="7">
         <v>200</v>
       </c>
@@ -1799,7 +1335,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>5.16</v>
       </c>
@@ -1817,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="7">
         <v>10</v>
       </c>
@@ -1832,7 +1368,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>5.17</v>
       </c>
@@ -1850,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="7">
         <v>3</v>
       </c>
@@ -1865,7 +1401,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>5.18</v>
       </c>
@@ -1883,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="7">
         <v>3</v>
       </c>
@@ -1898,338 +1434,353 @@
         <v>345.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>5.19</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="7">
         <v>24</v>
       </c>
+      <c r="C36" s="7">
+        <v>16</v>
+      </c>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="7">
+        <v>80</v>
+      </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F40" s="7">
         <f t="shared" ref="F40:F45" si="1">SUM(B40:D40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F41" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F42" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F43" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F44" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F45" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A3:F50">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.3833333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6333333333333" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>4.26</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>31</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>10</v>
       </c>
       <c r="E2" s="6">
         <f>B2/915</f>
-        <v>0.033879781420765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+        <v>3.3879781420765025E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
         <v>4.28</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>60</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>30</v>
       </c>
       <c r="E3" s="6">
         <f>B3/915</f>
-        <v>0.0655737704918033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>5.2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>90</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
       <c r="E4" s="6">
         <f>B4/915</f>
-        <v>0.0983606557377049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
+        <v>9.8360655737704916E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
         <v>5.19</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>901</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E10" si="0">B5/915</f>
-        <v>0.984699453551913</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5">
+        <v>0.98469945355191257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="5:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E11" s="6">
         <f t="shared" ref="E11:E26" si="1">B11/915</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2239,158 +1790,478 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.3833333333333" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>4.26</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4">
-        <v>4.27</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B3" s="5">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>5.19</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>275</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.149998474074526"/>
+    <tabColor theme="0" tint="-0.14996795556505021"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>4.26</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="25.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:3">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>5.19</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="19" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>5.22</v>
+      </c>
+      <c r="E2" s="16">
+        <f>(B2+C2+D2)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E3" s="16">
+        <f t="shared" ref="E3" si="0">(B3+C3+D3)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="16">
+        <f>(B4+C4+D4)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E5" s="16">
+        <f>(B5+C5+D5)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6" s="16">
+        <f>(B6+C6+D6)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E7" s="16">
+        <f>(B7+C7+D7)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E8" s="16">
+        <f>(B8+C8+D8)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E9" s="16">
+        <f>(B9+C9+D9)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="16">
+        <f>(B10+C10+D10)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E11" s="16">
+        <f>(B11+C11+D11)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="16">
+        <f>(B12+C12+D12)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E13" s="16">
+        <f>(B13+C13+D13)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E14" s="16">
+        <f>(B14+C14+D14)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E15" s="16">
+        <f>(B15+C15+D15)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E16" s="16">
+        <f>(B16+C16+D16)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E17" s="16">
+        <f>(B17+C17+D17)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E18" s="16">
+        <f>(B18+C18+D18)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E19" s="16">
+        <f>(B19+C19+D19)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E20" s="16">
+        <f>(B20+C20+D20)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E21" s="16">
+        <f>(B21+C21+D21)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E22" s="16">
+        <f>(B22+C22+D22)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E23" s="16">
+        <f>(B23+C23+D23)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="16">
+        <f>(B24+C24+D24)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E25" s="16">
+        <f>(B25+C25+D25)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E26" s="16">
+        <f>(B26+C26+D26)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E27" s="16">
+        <f>(B27+C27+D27)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E28" s="16">
+        <f>(B28+C28+D28)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E29" s="16">
+        <f>(B29+C29+D29)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E30" s="16">
+        <f>(B30+C30+D30)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E31" s="16">
+        <f>(B31+C31+D31)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E32" s="16">
+        <f>(B32+C32+D32)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E33" s="16">
+        <f>(B33+C33+D33)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
     <sheet name="Diets" sheetId="2" r:id="rId2"/>
-    <sheet name="Code all" sheetId="3" r:id="rId3"/>
-    <sheet name="New words" sheetId="4" r:id="rId4"/>
-    <sheet name="Python" sheetId="5" r:id="rId5"/>
-    <sheet name="My weight" sheetId="6" r:id="rId6"/>
-    <sheet name="Eng" sheetId="7" r:id="rId7"/>
-    <sheet name="Exercise" sheetId="8" r:id="rId8"/>
+    <sheet name="New words" sheetId="4" r:id="rId3"/>
+    <sheet name="Python" sheetId="5" r:id="rId4"/>
+    <sheet name="My weight" sheetId="6" r:id="rId5"/>
+    <sheet name="Eng" sheetId="7" r:id="rId6"/>
+    <sheet name="Exercise" sheetId="8" r:id="rId7"/>
+    <sheet name="Bood&amp;Code" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -145,6 +145,22 @@
 （日期）</t>
   </si>
   <si>
+    <t>Reviewed words
+（今日复习单词数）</t>
+  </si>
+  <si>
+    <t>Today new
+(今日新单词数）</t>
+  </si>
+  <si>
+    <t>Sum new words
+（新单词数）</t>
+  </si>
+  <si>
+    <t>Vocabulary
+(单词量)</t>
+  </si>
+  <si>
     <t>Read pages
 （当前阅读页码）</t>
   </si>
@@ -161,22 +177,6 @@
 (百分比)</t>
   </si>
   <si>
-    <t>Reviewed words
-（今日复习单词数）</t>
-  </si>
-  <si>
-    <t>Today new
-(今日新单词数）</t>
-  </si>
-  <si>
-    <t>Sum new words
-（新单词数）</t>
-  </si>
-  <si>
-    <t>Vocabulary
-(单词量)</t>
-  </si>
-  <si>
     <t>My weight
 （我的体重）</t>
   </si>
@@ -185,9 +185,6 @@
 (待办事项)</t>
   </si>
   <si>
-    <t>100kg</t>
-  </si>
-  <si>
     <t>少吃，减肥</t>
   </si>
   <si>
@@ -205,30 +202,245 @@
   <si>
     <t>Project
 （项目）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬腿收腹</t>
-  </si>
-  <si>
-    <t>push-ups</t>
-  </si>
-  <si>
-    <t>手握</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Types
 （类型）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Times
 (个数）</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>抬腿收腹</t>
+  </si>
+  <si>
+    <t>push-ups</t>
+  </si>
+  <si>
+    <t>手握</t>
+  </si>
+  <si>
+    <t>手撑地</t>
+  </si>
+  <si>
+    <t>肱二</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5LB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0LB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5LB</t>
+    </r>
+  </si>
+  <si>
+    <t>30LB</t>
+  </si>
+  <si>
+    <t>挥拳</t>
+  </si>
+  <si>
+    <t>20LB</t>
+  </si>
+  <si>
+    <t>平板撑</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>squat and rise</t>
+  </si>
+  <si>
+    <t>平举哑铃</t>
+  </si>
+  <si>
+    <t>biking</t>
+  </si>
+  <si>
+    <t>120min</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ode all</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>肱二</t>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>take-out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+member card</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0LB</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>屈身收腹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>leg pressing（min）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏板（min）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaking
+（说读时长）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oodle+egg tart</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pancake+milk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Vedio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Study time
+（学习时长）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today expect
+(今日预期学习时长）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -264,36 +476,14 @@
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5LB</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30LB</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手撑地</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,19 +501,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="3" tint="0.39991454817346722"/>
-      <name val="Edwardian Script ITC"/>
-      <family val="4"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="3" tint="0.39988402966399123"/>
+      <name val="Edwardian Script ITC"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="11"/>
@@ -340,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,7 +545,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,9 +622,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -427,14 +641,32 @@
     <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -448,10 +680,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -460,21 +692,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -538,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -783,7 +1028,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3" tint="0.39991454817346722"/>
+    <tabColor theme="3" tint="0.39988402966399123"/>
   </sheetPr>
   <dimension ref="H12:Q19"/>
   <sheetViews>
@@ -794,102 +1039,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="H12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
     <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
     </row>
     <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -911,633 +1156,663 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="13" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="12.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
+    <col min="6" max="6" width="13" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="15">
         <v>4.24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C4" s="7">
+      <c r="C4" s="15">
         <v>12.2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="15">
         <v>12</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <f>SUM(B4:D4)</f>
         <v>24.2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="15">
         <f>SUM(F4:F35)</f>
         <v>2574.5000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="15">
         <v>4.25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <f t="shared" ref="F5:F39" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+      <c r="B6" s="15">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="15">
         <v>10.85</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="15">
         <v>18</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>31.85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="15">
         <v>4.26</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="7">
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="15">
         <v>14</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="15">
         <v>19.7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>36.700000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="15">
         <v>4.2699999999999996</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
+      <c r="B10" s="15">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="15">
         <v>16.7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="15">
         <v>26</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>45.7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="15">
         <v>4.28</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="7">
+      <c r="B12" s="15">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="15">
         <v>16.2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="15">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="7">
+      <c r="B14" s="15">
         <v>1000</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="15">
         <v>5.2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
+      <c r="B16" s="15">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="15">
         <v>12</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="15">
         <v>11</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="15">
         <v>5.3</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="7">
+      <c r="B18" s="15">
         <v>6</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="15">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="15">
         <v>291</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="15">
         <v>5.4</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="7">
+      <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="15">
         <v>21</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="15">
         <v>95</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="15">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="A21" s="15">
         <v>5.5</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="7">
+      <c r="B22" s="15">
         <v>3</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="15">
         <v>12.75</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="15">
         <v>10</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="15">
         <f t="shared" si="0"/>
         <v>25.75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D24" s="7">
+      <c r="D24" s="15">
         <v>300</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="15">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="15">
         <v>5.9</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="7">
+      <c r="B26" s="15">
         <v>3</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="15">
         <v>9</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="15">
         <v>18</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D28" s="7">
+      <c r="D28" s="15">
         <v>200</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="15">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="A29" s="15">
         <v>5.16</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="7">
+      <c r="B30" s="15">
         <v>10</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="15">
         <v>10.9</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="15">
         <v>10</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="15">
         <f t="shared" si="0"/>
         <v>30.9</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="15">
         <v>5.17</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="7">
+      <c r="B32" s="15">
         <v>3</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="15">
         <v>10.9</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="15">
         <v>19.5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="15">
         <f t="shared" si="0"/>
         <v>33.4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="A33" s="15">
         <v>5.18</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="7">
+      <c r="B34" s="15">
         <v>3</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="15">
         <v>16</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="15">
         <v>326.8</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="15">
         <f t="shared" si="0"/>
         <v>345.8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="A35" s="15">
         <v>5.19</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="7">
+      <c r="B36" s="15">
         <v>24</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="15">
         <v>16</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="7">
+      <c r="B38" s="15">
         <v>80</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="15">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F39" s="7">
+      <c r="A39" s="15">
+        <v>5.22</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F40" s="7">
+      <c r="C40" s="15">
+        <v>20.5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>15</v>
+      </c>
+      <c r="F40" s="15">
         <f t="shared" ref="F40:F45" si="1">SUM(B40:D40)</f>
-        <v>0</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F41" s="7">
+      <c r="A41" s="15">
+        <v>5.23</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F42" s="7">
+      <c r="B42" s="15">
+        <v>8</v>
+      </c>
+      <c r="C42" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="F42" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F43" s="7">
+      <c r="F43" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F44" s="7">
+      <c r="F44" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F45" s="7">
+      <c r="F45" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
+      <c r="A67" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
+      <c r="A72" s="15">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A3:F50">
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1549,308 +1824,107 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="16.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="13">
         <v>4.26</v>
       </c>
-      <c r="B2" s="5">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6">
-        <f>B2/915</f>
-        <v>3.3879781420765025E-2</v>
+      <c r="B2" s="1">
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>4.28</v>
-      </c>
-      <c r="B3" s="5">
-        <v>60</v>
-      </c>
-      <c r="C3" s="5">
-        <v>30</v>
-      </c>
-      <c r="D3" s="5">
-        <v>30</v>
-      </c>
-      <c r="E3" s="6">
-        <f>B3/915</f>
-        <v>6.5573770491803282E-2</v>
+      <c r="A3" s="13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B3" s="1">
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="13">
+        <v>5.19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13">
         <v>5.2</v>
       </c>
-      <c r="B4" s="5">
-        <v>90</v>
-      </c>
-      <c r="C4" s="5">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6">
-        <f>B4/915</f>
-        <v>9.8360655737704916E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>5.19</v>
-      </c>
-      <c r="B5" s="5">
-        <v>901</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:E10" si="0">B5/915</f>
-        <v>0.98469945355191257</v>
+      <c r="B5" s="1">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A6" s="13">
+        <v>5.21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A7" s="13">
+        <v>5.22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E11" s="6">
-        <f t="shared" ref="E11:E26" si="1">B11/915</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E13" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E15" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E17" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E18" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E21" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E22" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E23" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E24" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E26" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A8" s="13">
+        <v>5.23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>4.26</v>
-      </c>
-      <c r="B2" s="5">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="B3" s="5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>5.19</v>
-      </c>
-      <c r="B4" s="5">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.14996795556505021"/>
+    <tabColor theme="0" tint="-0.14993743705557422"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1867,30 +1941,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>4.26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1898,47 +1972,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="16.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>5.19</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8">
+        <v>200</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="B3" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="B4" s="8">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1946,322 +2036,1268 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="19" style="16" customWidth="1"/>
+    <col min="4" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="19" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
         <v>5.22</v>
       </c>
-      <c r="E2" s="16">
+      <c r="B2" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="2">
         <f>(B2+C2+D2)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E3" s="16">
-        <f t="shared" ref="E3" si="0">(B3+C3+D3)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E4" s="16">
-        <f>(B4+C4+D4)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E5" s="16">
-        <f>(B5+C5+D5)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E6" s="16">
-        <f>(B6+C6+D6)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E7" s="16">
-        <f>(B7+C7+D7)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E8" s="16">
-        <f>(B8+C8+D8)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E9" s="16">
-        <f>(B9+C9+D9)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E10" s="16">
-        <f>(B10+C10+D10)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E11" s="16">
-        <f>(B11+C11+D11)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E12" s="16">
-        <f>(B12+C12+D12)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E13" s="16">
-        <f>(B13+C13+D13)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E14" s="16">
-        <f>(B14+C14+D14)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E15" s="16">
-        <f>(B15+C15+D15)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="E16" s="16">
-        <f>(B16+C16+D16)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E17" s="16">
-        <f>(B17+C17+D17)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E18" s="16">
-        <f>(B18+C18+D18)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E19" s="16">
-        <f>(B19+C19+D19)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E20" s="16">
-        <f>(B20+C20+D20)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E21" s="16">
-        <f>(B21+C21+D21)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E22" s="16">
-        <f>(B22+C22+D22)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E23" s="16">
-        <f>(B23+C23+D23)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E24" s="16">
-        <f>(B24+C24+D24)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E25" s="16">
-        <f>(B25+C25+D25)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E26" s="16">
-        <f>(B26+C26+D26)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E27" s="16">
-        <f>(B27+C27+D27)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E28" s="16">
-        <f>(B28+C28+D28)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E29" s="16">
-        <f>(B29+C29+D29)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E30" s="16">
-        <f>(B30+C30+D30)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E31" s="16">
-        <f>(B31+C31+D31)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E32" s="16">
-        <f>(B32+C32+D32)/300</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E33" s="16">
-        <f>(B33+C33+D33)/300</f>
+        <v>4.8666666666666667E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F33" si="0">(B3+C3+D3)/300</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9" style="8" customWidth="1"/>
+    <col min="7" max="12" width="9" style="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" style="8" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4">
+        <v>30</v>
+      </c>
+      <c r="M1" s="4">
+        <v>31</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8">
+        <v>240</v>
+      </c>
+      <c r="D4" s="8">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8">
+        <f>SUM(C4:M4)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N36" si="0">SUM(C5:M5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8">
+        <v>64</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8">
+        <v>32</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8">
+        <v>32</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="8">
+        <v>32</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="8">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
+        <v>40</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8">
+        <v>120</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="9">
+        <v>5</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="8">
+        <v>20</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N35" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N36" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="16.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.75" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
+    <row r="1" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="8">
+        <v>4.26</v>
+      </c>
+      <c r="C2" s="8">
+        <v>31</v>
+      </c>
+      <c r="D2" s="8">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2/915</f>
+        <v>3.3879781420765025E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="8">
+        <v>4.28</v>
+      </c>
+      <c r="C3" s="8">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8">
+        <v>30</v>
+      </c>
+      <c r="E3" s="8">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F11" si="0">C3/915</f>
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>90</v>
+      </c>
+      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8360655737704916E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="8">
+        <v>5.19</v>
+      </c>
+      <c r="C5" s="8">
+        <v>901</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.98469945355191257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7">
+        <f t="shared" ref="L6" si="1">I6/915</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B8" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5.22</v>
+      </c>
+      <c r="I8" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="L8" s="2">
+        <f>I8/256</f>
+        <v>2.1484375E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5.23</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F26" si="2">C12/915</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -178,6 +178,15 @@
     <t>sausage+water+coca cola+noodle+banana+apple</t>
   </si>
   <si>
+    <t>pancake+milk+hamburger</t>
+  </si>
+  <si>
+    <t>noodle+wilk with tea</t>
+  </si>
+  <si>
+    <t>pancake</t>
+  </si>
+  <si>
     <t>Date
 （日期）</t>
   </si>
@@ -337,46 +346,6 @@
     <t>挥拳</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5LB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0LB</t>
-    </r>
-  </si>
-  <si>
     <t>平板撑</t>
   </si>
   <si>
@@ -412,6 +381,9 @@
     </r>
   </si>
   <si>
+    <t>侧举哑铃</t>
+  </si>
+  <si>
     <t>biking</t>
   </si>
   <si>
@@ -483,20 +455,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,8 +491,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,8 +514,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +524,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,11 +545,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,31 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,9 +606,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,15 +622,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,7 +634,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,163 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +698,144 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +886,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -943,25 +911,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,38 +954,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,137 +1003,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,16 +1143,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1208,10 +1161,10 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1220,43 +1173,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,6 +1277,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1620,105 +1581,105 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="12" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
+    <row r="12" customHeight="1" spans="8:17">
+      <c r="H12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" customHeight="1" spans="8:17">
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" customHeight="1" spans="8:17">
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" customHeight="1" spans="8:17">
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+    </row>
+    <row r="16" customHeight="1" spans="8:17">
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" customHeight="1" spans="8:17">
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" customHeight="1" spans="8:17">
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" customHeight="1" spans="8:17">
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1738,671 +1699,765 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="12.1296296296296" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.3796296296296" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="13" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="12.1333333333333" style="19" customWidth="1"/>
+    <col min="3" max="3" width="26.3833333333333" style="19" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="13" style="19" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" ht="3" customHeight="1" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="17">
+      <c r="A3" s="19">
         <v>4.24</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="17">
+      <c r="C4" s="19">
         <v>12.2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="19">
         <v>12</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="19">
         <f>SUM(B4:D4)</f>
         <v>24.2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="19">
         <f>SUM(F4:F35)</f>
         <v>2574.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17">
+      <c r="A5" s="19">
         <v>4.25</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="19">
         <f t="shared" ref="F5:F39" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="17">
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="19">
         <v>10.85</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="19">
         <v>18</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>31.85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="17">
+      <c r="A7" s="19">
         <v>4.26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="17">
+      <c r="B8" s="19">
         <v>3</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="19">
         <v>14</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="19">
         <v>19.7</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>36.7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="17">
+      <c r="A9" s="19">
         <v>4.27</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="17">
+      <c r="B10" s="19">
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="19">
         <v>16.7</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="19">
         <v>26</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>45.7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="17">
+      <c r="A11" s="19">
         <v>4.28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="17">
+      <c r="B12" s="19">
         <v>3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="19">
         <v>16.2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17">
+      <c r="A13" s="19">
         <v>5.1</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="17">
+      <c r="B14" s="19">
         <v>1000</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="19">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="17">
+      <c r="A15" s="19">
         <v>5.2</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="17">
+      <c r="B16" s="19">
         <v>3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="19">
         <v>12</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="19">
         <v>11</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17">
+      <c r="A17" s="19">
         <v>5.3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="17">
+      <c r="B18" s="19">
         <v>6</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="19">
         <v>9</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="19">
         <v>291</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17">
+      <c r="A19" s="19">
         <v>5.4</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="17">
+      <c r="B20" s="19">
         <v>3</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="19">
         <v>21</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="19">
         <v>95</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="17">
+      <c r="A21" s="19">
         <v>5.5</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="17">
+      <c r="B22" s="19">
         <v>3</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="19">
         <v>12.75</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="19">
         <v>10</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="19">
         <f t="shared" si="0"/>
         <v>25.75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:6">
-      <c r="D24" s="17">
+      <c r="D24" s="19">
         <v>300</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="19">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17">
+      <c r="A25" s="19">
         <v>5.9</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="17">
+      <c r="B26" s="19">
         <v>3</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="19">
         <v>9</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="19">
         <v>18</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="19">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:6">
-      <c r="A27" s="17" t="s">
+    <row r="27" ht="27" spans="1:6">
+      <c r="A27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="17">
+      <c r="D28" s="19">
         <v>200</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="19">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17">
+      <c r="A29" s="19">
         <v>5.16</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="17">
+      <c r="B30" s="19">
         <v>10</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="19">
         <v>10.9</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="19">
         <v>10</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="19">
         <f t="shared" si="0"/>
         <v>30.9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17">
+      <c r="A31" s="19">
         <v>5.17</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="17">
+      <c r="B32" s="19">
         <v>3</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="19">
         <v>10.9</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="19">
         <v>19.5</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="19">
         <f t="shared" si="0"/>
         <v>33.4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17">
+      <c r="A33" s="19">
         <v>5.18</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="17">
+      <c r="B34" s="19">
         <v>3</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="19">
         <v>16</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="19">
         <v>326.8</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="19">
         <f t="shared" si="0"/>
         <v>345.8</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17">
+      <c r="A35" s="19">
         <v>5.19</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="17">
+      <c r="B36" s="19">
         <v>24</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="19">
         <v>16</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="19">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="17">
+      <c r="B38" s="19">
         <v>80</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="19">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17">
+      <c r="A39" s="19">
         <v>5.22</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="17">
+      <c r="C40" s="19">
         <v>20.5</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="19">
         <v>15</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="19">
         <f t="shared" ref="F40:F45" si="1">SUM(B40:D40)</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="41" ht="28.8" spans="1:6">
-      <c r="A41" s="17">
+    <row r="41" ht="27" spans="1:6">
+      <c r="A41" s="19">
         <v>5.23</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="17">
+      <c r="B42" s="19">
         <v>8</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="19">
         <v>12.5</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="19">
         <v>30</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="19">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="17">
+    <row r="43" ht="27" spans="1:6">
+      <c r="A43" s="19">
+        <v>5.24</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="17">
+    <row r="44" spans="2:6">
+      <c r="B44" s="19">
+        <v>4</v>
+      </c>
+      <c r="C44" s="19">
+        <v>15</v>
+      </c>
+      <c r="D44" s="19">
+        <v>15</v>
+      </c>
+      <c r="F44" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="17">
-        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="19">
+        <v>5.25</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" ref="F45:F50" si="2">SUM(B45:D45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="19">
+        <v>3</v>
+      </c>
+      <c r="F46" s="19">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="19">
+        <f>SUM(B51:D51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="19">
+        <f>SUM(B52:D52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="19">
+        <f>SUM(B53:D53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="19">
+        <f>SUM(B54:D54)</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="17">
+      <c r="A67" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="17">
+      <c r="A72" s="19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:F50">
-    <cfRule type="expression" dxfId="0" priority="28">
+  <conditionalFormatting sqref="B43">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F43&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F43&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F42 A43 D43:F43 A44:F50 F51:F54">
+    <cfRule type="expression" dxfId="0" priority="30">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2423,35 +2478,35 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
-      <c r="A1" s="16" t="s">
-        <v>27</v>
+    <row r="1" ht="27.75" spans="1:5">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>4.26</v>
       </c>
       <c r="B2" s="1">
@@ -2459,7 +2514,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15">
+      <c r="A3" s="17">
         <v>4.27</v>
       </c>
       <c r="B3" s="1">
@@ -2467,7 +2522,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15">
+      <c r="A4" s="17">
         <v>5.19</v>
       </c>
       <c r="B4" s="1">
@@ -2475,7 +2530,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15">
+      <c r="A5" s="17">
         <v>5.2</v>
       </c>
       <c r="B5" s="1">
@@ -2483,7 +2538,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15">
+      <c r="A6" s="17">
         <v>5.21</v>
       </c>
       <c r="B6" s="1">
@@ -2491,7 +2546,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15">
+      <c r="A7" s="17">
         <v>5.22</v>
       </c>
       <c r="B7" s="1">
@@ -2499,7 +2554,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15">
+      <c r="A8" s="17">
         <v>5.23</v>
       </c>
       <c r="B8" s="1">
@@ -2523,29 +2578,29 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2574,24 +2629,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1296296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8833333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:3">
+    <row r="1" ht="27.75" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2602,7 +2657,7 @@
         <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2635,35 +2690,35 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="5" width="14.3796296296296" customWidth="1"/>
-    <col min="6" max="6" width="19" style="13" customWidth="1"/>
+    <col min="4" max="5" width="14.3833333333333" customWidth="1"/>
+    <col min="6" max="6" width="19" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.95" spans="1:6">
+    <row r="1" ht="27.75" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2699,25 +2754,33 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.5</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.00833333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3037,35 +3100,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
+    <col min="8" max="13" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:14">
+    <row r="1" ht="27.75" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="5">
         <v>22</v>
@@ -3098,12 +3163,12 @@
         <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -3127,10 +3192,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1">
         <v>240</v>
@@ -3141,14 +3206,17 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
+      <c r="G4" s="1">
+        <v>80</v>
+      </c>
       <c r="N4" s="1">
         <f>SUM(C4:M4)</f>
-        <v>270</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5:N36" si="0">SUM(C5:M5)</f>
@@ -3182,10 +3250,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>64</v>
@@ -3197,7 +3265,7 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
@@ -3206,7 +3274,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
@@ -3218,7 +3286,7 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
@@ -3226,9 +3294,12 @@
       <c r="D11" s="1">
         <v>32</v>
       </c>
+      <c r="G11" s="1">
+        <v>32</v>
+      </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="4.5" customHeight="1" spans="1:14">
@@ -3252,10 +3323,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1">
         <v>32</v>
@@ -3267,7 +3338,7 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -3298,10 +3369,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="0"/>
@@ -3329,7 +3400,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1">
         <v>20</v>
@@ -3340,9 +3411,12 @@
       <c r="E18" s="1">
         <v>40</v>
       </c>
+      <c r="G18" s="1">
+        <v>50</v>
+      </c>
       <c r="N18" s="1">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" ht="3.75" customHeight="1" spans="1:14">
@@ -3366,10 +3440,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -3381,7 +3455,7 @@
     </row>
     <row r="21" spans="2:14">
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1">
         <v>20</v>
@@ -3406,154 +3480,217 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <f>SUM(C22:M22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="16" customHeight="1" spans="1:14">
+      <c r="A23" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="B23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="3" customHeight="1" spans="1:14">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1" t="s">
+        <f>SUM(C23:M23)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:14">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="1">
+        <f>SUM(C24:M24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="5" customHeight="1" spans="1:14">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11">
+        <f>SUM(C25:M25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="1">
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="1">
+        <f>SUM(C26:M26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="3" customHeight="1" spans="1:14">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11">
+        <f>SUM(C27:M27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1">
         <v>120</v>
       </c>
-      <c r="N25" s="1">
-        <f t="shared" si="0"/>
+      <c r="N28" s="1">
+        <f>SUM(C28:M28)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="26" ht="3" customHeight="1" spans="1:14">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="9">
+    <row r="29" ht="3" customHeight="1" spans="1:14">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11">
+        <f>SUM(C29:M29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="9">
         <v>5</v>
       </c>
-      <c r="N27" s="1">
-        <f t="shared" si="0"/>
+      <c r="N30" s="1">
+        <f>SUM(C30:M30)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="3" customHeight="1" spans="1:14">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="1">
+    <row r="31" ht="3" customHeight="1" spans="1:14">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11">
+        <f>SUM(C31:M31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
         <v>20</v>
       </c>
-      <c r="N29" s="1">
-        <f t="shared" si="0"/>
+      <c r="N32" s="1">
+        <f>SUM(C32:M32)</f>
         <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="14:14">
-      <c r="N30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="14:14">
-      <c r="N32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="14:14">
       <c r="N33" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C33:M33)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C34:M34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C35:M35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C36:M36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" s="1">
+        <f>SUM(C37:M37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" s="1">
+        <f>SUM(C38:M38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14">
+      <c r="N39" s="1">
+        <f>SUM(C39:M39)</f>
         <v>0</v>
       </c>
     </row>
@@ -3567,66 +3704,66 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.35" spans="1:12">
+    <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -3692,7 +3829,7 @@
         <v>0.984699453551913</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="2:12">
+    <row r="6" ht="14.25" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3710,42 +3847,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="58.35" spans="1:12">
+    <row r="7" ht="27.75" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:12">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="6"/>
+    <workbookView windowWidth="25020" windowHeight="14130" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -187,6 +187,15 @@
     <t>pancake</t>
   </si>
   <si>
+    <t>noodle+beer egg +mosquto spellent iscense</t>
+  </si>
+  <si>
+    <t>fire noodle</t>
+  </si>
+  <si>
+    <t>fire cake+rice dumpling</t>
+  </si>
+  <si>
     <t>Date
 （日期）</t>
   </si>
@@ -234,8 +243,24 @@
     <t>少吃，减肥</t>
   </si>
   <si>
+    <t xml:space="preserve">listening
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">writing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaking
+</t>
+  </si>
+  <si>
     <t>listening
-（听力时长）</t>
+（听力总时长）</t>
   </si>
   <si>
     <t>reading
@@ -346,6 +371,9 @@
     <t>挥拳</t>
   </si>
   <si>
+    <t>10LB</t>
+  </si>
+  <si>
     <t>平板撑</t>
   </si>
   <si>
@@ -384,10 +412,7 @@
     <t>侧举哑铃</t>
   </si>
   <si>
-    <t>biking</t>
-  </si>
-  <si>
-    <t>120min</t>
+    <t>biking（min）</t>
   </si>
   <si>
     <t>屈身收腹</t>
@@ -449,19 +474,23 @@
     <t>Today expect
 (今日预期学习时长）</t>
   </si>
+  <si>
+    <t>Today truly finished
+（今日实际学习时长）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +499,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -493,7 +540,66 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,68 +615,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,27 +636,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -622,7 +646,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,37 +720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +750,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,31 +840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,67 +870,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,17 +933,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,21 +947,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,20 +968,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,9 +992,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,137 +1050,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,25 +1241,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,102 +1640,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="12" customHeight="1" spans="8:17">
-      <c r="H12" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="H12" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" customHeight="1" spans="8:17">
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" customHeight="1" spans="8:17">
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" customHeight="1" spans="8:17">
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="8:17">
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" customHeight="1" spans="8:17">
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" customHeight="1" spans="8:17">
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" customHeight="1" spans="8:17">
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1700,9 +1756,9 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1711,42 +1767,42 @@
     <col min="2" max="2" width="12.1333333333333" style="19" customWidth="1"/>
     <col min="3" max="3" width="26.3833333333333" style="19" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9" style="19"/>
+    <col min="5" max="5" width="15.125" style="20" customWidth="1"/>
     <col min="6" max="6" width="13" style="19" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
     <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:8">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" ht="3" customHeight="1" spans="1:7">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="19">
@@ -1788,7 +1844,7 @@
       <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="19">
@@ -1818,7 +1874,7 @@
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="19" t="s">
@@ -2277,10 +2333,10 @@
       <c r="A39" s="19">
         <v>5.22</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="28" t="s">
         <v>24</v>
       </c>
       <c r="F39" s="19">
@@ -2304,7 +2360,7 @@
       <c r="A41" s="19">
         <v>5.23</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -2337,7 +2393,7 @@
       <c r="A43" s="19">
         <v>5.24</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -2366,15 +2422,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" ht="27" spans="1:6">
       <c r="A45" s="19">
         <v>5.25</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="C45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="F45" s="19">
-        <f t="shared" ref="F45:F50" si="2">SUM(B45:D45)</f>
+        <f t="shared" ref="F45:F54" si="2">SUM(B45:D45)</f>
         <v>0</v>
       </c>
     </row>
@@ -2382,21 +2444,51 @@
       <c r="B46" s="19">
         <v>3</v>
       </c>
+      <c r="C46" s="19">
+        <v>14.5</v>
+      </c>
+      <c r="D46" s="19">
+        <v>20</v>
+      </c>
       <c r="F46" s="19">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="19">
+        <v>5.25</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="20">
+        <v>196.7</v>
+      </c>
       <c r="F47" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6">
+    <row r="48" spans="2:6">
+      <c r="B48" s="19">
+        <v>5</v>
+      </c>
+      <c r="C48" s="19">
+        <v>9</v>
+      </c>
+      <c r="D48" s="19">
+        <v>10</v>
+      </c>
       <c r="F48" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="6:6">
@@ -2413,25 +2505,25 @@
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="19">
-        <f>SUM(B51:D51)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="19">
-        <f>SUM(B52:D52)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="19">
-        <f>SUM(B53:D53)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="19">
-        <f>SUM(B54:D54)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2447,18 +2539,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$F43&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F43&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F42 A43 D43:F43 A44:F50 F51:F54">
-    <cfRule type="expression" dxfId="0" priority="30">
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$F45&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F47&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F42 A43 D43:F43 A44:F44 A45:B45 D45:F45 A46:F46 E47:F47 A48:F50 F51:F54">
+    <cfRule type="expression" dxfId="0" priority="33">
       <formula>$F3&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:B47 D47">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$F47&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2490,19 +2597,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2588,19 +2695,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2623,13 +2730,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.1333333333333" style="1" customWidth="1"/>
@@ -2640,13 +2747,13 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2657,7 +2764,7 @@
         <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2674,6 +2781,14 @@
       </c>
       <c r="B4" s="1">
         <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>196.7</v>
       </c>
     </row>
   </sheetData>
@@ -2687,406 +2802,568 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="5" width="14.3833333333333" customWidth="1"/>
-    <col min="6" max="6" width="19" style="15" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.225" customWidth="1"/>
+    <col min="5" max="5" width="14.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="17.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="9" width="14.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="19" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:6">
+    <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>5.22</v>
       </c>
       <c r="B2" s="1">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>0.2</v>
       </c>
-      <c r="F2" s="2">
-        <f>(B2+C2+D2)/300</f>
-        <v>0.00486666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="1">
+        <f>SUM(B2:B42)</f>
+        <v>4.2</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM(C2:C42)</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>SUM(D2:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(E2:E42)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="2">
+        <f>(F2+G2+H2+E2)/300</f>
+        <v>0.0213333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>5.23</v>
       </c>
       <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F33" si="0">(B3+C3+D3)/300</f>
-        <v>0.00666666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J33" si="0">(F3+G3+H3)/300</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>5.24</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.00833333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>5.25</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.2</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3103,10 +3380,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3114,23 +3391,21 @@
     <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
-    <col min="8" max="13" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
+    <col min="6" max="13" width="3.38333333333333" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5">
         <v>22</v>
@@ -3163,12 +3438,12 @@
         <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -3192,10 +3467,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>240</v>
@@ -3209,23 +3484,26 @@
       <c r="G4" s="1">
         <v>80</v>
       </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
       <c r="N4" s="1">
         <f>SUM(C4:M4)</f>
-        <v>350</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N36" si="0">SUM(C5:M5)</f>
+        <f>SUM(C5:M5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="14:14">
       <c r="N6" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C6:M6)</f>
         <v>0</v>
       </c>
     </row>
@@ -3244,49 +3522,49 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(C7:M7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1">
         <v>64</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C8:M8)</f>
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C9:M9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C10:M10)</f>
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
@@ -3298,7 +3576,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C11:M11)</f>
         <v>96</v>
       </c>
     </row>
@@ -3317,202 +3595,198 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(C12:M12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1">
         <v>32</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(C13:M13)</f>
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1">
+        <v>32</v>
+      </c>
+      <c r="N14" s="1">
+        <f>SUM(C14:M14)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1">
         <v>8</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="0"/>
+      <c r="N15" s="1">
+        <f t="shared" ref="N15:N40" si="0">SUM(C15:M15)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="3.75" customHeight="1" spans="1:14">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="3" customHeight="1" spans="1:14">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="16" ht="3.75" customHeight="1" spans="1:14">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="3" customHeight="1" spans="1:14">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>50</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>40</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>50</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" ht="3.75" customHeight="1" spans="1:14">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="H19" s="1">
+        <v>20</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" ht="3.75" customHeight="1" spans="1:14">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1">
         <v>10</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1">
+    <row r="22" spans="2:14">
+      <c r="B22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="4.5" customHeight="1" spans="1:14">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11">
-        <f>SUM(C22:M22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1" spans="1:14">
-      <c r="A23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="13">
+    <row r="23" ht="4.5" customHeight="1" spans="1:14">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="16" customHeight="1" spans="1:14">
+      <c r="A24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="1">
-        <f>SUM(C23:M23)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:14">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -3524,173 +3798,195 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="1">
-        <f>SUM(C24:M24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="5" customHeight="1" spans="1:14">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <f>SUM(C25:M25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N26" s="1">
-        <f>SUM(C26:M26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="3" customHeight="1" spans="1:14">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11">
-        <f>SUM(C27:M27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:14">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="5" customHeight="1" spans="1:14">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1">
         <v>120</v>
       </c>
-      <c r="N28" s="1">
-        <f>SUM(C28:M28)</f>
+      <c r="G27" s="1">
+        <v>20</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" ht="3" customHeight="1" spans="1:14">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" ht="3" customHeight="1" spans="1:14">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11">
-        <f>SUM(C29:M29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" ht="3" customHeight="1" spans="1:14">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="9">
         <v>5</v>
       </c>
-      <c r="N30" s="1">
-        <f>SUM(C30:M30)</f>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="3" customHeight="1" spans="1:14">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11">
-        <f>SUM(C31:M31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1">
+    <row r="32" ht="3" customHeight="1" spans="1:14">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1">
         <v>20</v>
       </c>
-      <c r="N32" s="1">
-        <f>SUM(C32:M32)</f>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
         <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" s="1">
-        <f>SUM(C33:M33)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" s="1">
-        <f>SUM(C34:M34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" s="1">
-        <f>SUM(C35:M35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" s="1">
-        <f>SUM(C36:M36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" s="1">
-        <f>SUM(C37:M37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" s="1">
-        <f>SUM(C38:M38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" s="1">
-        <f>SUM(C39:M39)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:14">
+      <c r="N40" s="1">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3709,7 +4005,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3730,40 +4026,40 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -3849,40 +4145,40 @@
     </row>
     <row r="7" ht="27.75" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -3902,12 +4198,9 @@
       <c r="J8" s="1">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
-        <v>4.5</v>
-      </c>
       <c r="L8" s="2">
-        <f>I8/256</f>
-        <v>0.021484375</v>
+        <f>SUM(I8:I30)/256</f>
+        <v>0.029296875</v>
       </c>
     </row>
     <row r="9" spans="6:10">
@@ -3918,20 +4211,38 @@
       <c r="H9" s="1">
         <v>5.23</v>
       </c>
+      <c r="I9" s="1">
+        <v>0.5</v>
+      </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:6">
+    <row r="10" spans="6:10">
       <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="6:6">
+      <c r="H10" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10">
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="6:6">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25020" windowHeight="14130" activeTab="5"/>
+    <workbookView windowWidth="26148" windowHeight="14244" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -196,6 +196,9 @@
     <t>fire cake+rice dumpling</t>
   </si>
   <si>
+    <t>5.27-29</t>
+  </si>
+  <si>
     <t>Date
 （日期）</t>
   </si>
@@ -484,10 +487,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
@@ -531,8 +534,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,37 +616,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,22 +634,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,17 +655,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,30 +672,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,13 +723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,55 +735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +765,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,25 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +837,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +867,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,15 +940,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -966,15 +960,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -986,17 +971,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,6 +990,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1030,6 +1013,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1038,10 +1041,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,133 +1053,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1637,9 +1640,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="12" customHeight="1" spans="8:17">
+    <row r="12" ht="13.5" customHeight="1" spans="8:17">
       <c r="H12" s="29" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1656,7 @@
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
     </row>
-    <row r="13" customHeight="1" spans="8:17">
+    <row r="13" ht="13.5" customHeight="1" spans="8:17">
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -1665,7 +1668,7 @@
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
     </row>
-    <row r="14" customHeight="1" spans="8:17">
+    <row r="14" ht="13.5" customHeight="1" spans="8:17">
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -1677,7 +1680,7 @@
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
     </row>
-    <row r="15" customHeight="1" spans="8:17">
+    <row r="15" ht="13.5" customHeight="1" spans="8:17">
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -1689,7 +1692,7 @@
       <c r="P15" s="29"/>
       <c r="Q15" s="29"/>
     </row>
-    <row r="16" customHeight="1" spans="8:17">
+    <row r="16" ht="13.5" customHeight="1" spans="8:17">
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
@@ -1701,7 +1704,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
     </row>
-    <row r="17" customHeight="1" spans="8:17">
+    <row r="17" ht="13.5" customHeight="1" spans="8:17">
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -1713,7 +1716,7 @@
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
     </row>
-    <row r="18" customHeight="1" spans="8:17">
+    <row r="18" ht="13.5" customHeight="1" spans="8:17">
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
@@ -1725,7 +1728,7 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
     </row>
-    <row r="19" customHeight="1" spans="8:17">
+    <row r="19" ht="13.5" customHeight="1" spans="8:17">
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29"/>
@@ -1755,25 +1758,25 @@
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="K42:L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="12.1333333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="26.3833333333333" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" style="19" customWidth="1"/>
+    <col min="3" max="3" width="26.3796296296296" style="19" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.1296296296296" style="20" customWidth="1"/>
     <col min="6" max="6" width="13" style="19" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
     <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
+    <row r="1" ht="28.8" spans="1:8">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -2164,7 +2167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:6">
+    <row r="27" ht="28.8" spans="1:6">
       <c r="A27" s="19" t="s">
         <v>17</v>
       </c>
@@ -2356,7 +2359,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:6">
+    <row r="41" ht="28.8" spans="1:6">
       <c r="A41" s="19">
         <v>5.23</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="43" ht="27" spans="1:6">
+    <row r="43" ht="28.8" spans="1:6">
       <c r="A43" s="19">
         <v>5.24</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:6">
+    <row r="45" ht="28.8" spans="1:6">
       <c r="A45" s="19">
         <v>5.25</v>
       </c>
@@ -2457,7 +2460,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="19">
-        <v>5.25</v>
+        <v>5.26</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>31</v>
@@ -2491,28 +2494,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="1:6">
+      <c r="A49" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="F49" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="2:6">
+      <c r="B50" s="20">
+        <v>600</v>
+      </c>
+      <c r="E50" s="19"/>
       <c r="F50" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="19">
+        <v>5.3</v>
+      </c>
       <c r="F51" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="4:6">
+      <c r="D52" s="19">
+        <v>49</v>
+      </c>
+      <c r="E52" s="20">
+        <v>194.7</v>
+      </c>
       <c r="F52" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="6:6">
@@ -2538,34 +2557,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$F43&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>$F43&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$F45&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F47&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:F42 A43 D43:F43 A44:F44 A45:B45 D45:F45 A46:F46 E47:F47 A48:F50 F51:F54">
-    <cfRule type="expression" dxfId="0" priority="33">
+  <conditionalFormatting sqref="A3:F100">
+    <cfRule type="expression" dxfId="0" priority="34">
       <formula>$F3&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:B47 D47">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$F47&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2585,31 +2579,31 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="17" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2685,29 +2679,29 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2730,30 +2724,30 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.1333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1296296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:3">
+    <row r="1" ht="29.55" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2764,7 +2758,7 @@
         <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2789,6 +2783,14 @@
       </c>
       <c r="B5" s="1">
         <v>196.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>195.1</v>
       </c>
     </row>
   </sheetData>
@@ -2804,52 +2806,52 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.225" customWidth="1"/>
-    <col min="5" max="5" width="14.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="17.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="9" width="14.3833333333333" customWidth="1"/>
+    <col min="8" max="9" width="14.3796296296296" customWidth="1"/>
     <col min="10" max="10" width="19" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:10">
+    <row r="1" ht="29.55" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3386,26 +3388,26 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
-    <col min="6" max="13" width="3.38333333333333" style="1" customWidth="1"/>
+    <col min="6" max="13" width="3.37962962962963" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:14">
+    <row r="1" ht="29.55" spans="1:14">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5">
         <v>22</v>
@@ -3438,12 +3440,12 @@
         <v>31</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -3467,10 +3469,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>240</v>
@@ -3488,22 +3490,22 @@
         <v>30</v>
       </c>
       <c r="N4" s="1">
-        <f>SUM(C4:M4)</f>
+        <f t="shared" ref="N4:N14" si="0">SUM(C4:M4)</f>
         <v>380</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N5" s="1">
-        <f>SUM(C5:M5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="14:14">
       <c r="N6" s="1">
-        <f>SUM(C6:M6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3522,49 +3524,49 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11">
-        <f>SUM(C7:M7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1">
         <v>64</v>
       </c>
       <c r="N8" s="1">
-        <f>SUM(C8:M8)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" s="1">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>32</v>
       </c>
       <c r="N10" s="1">
-        <f>SUM(C10:M10)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
@@ -3576,7 +3578,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="1">
-        <f>SUM(C11:M11)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
@@ -3595,46 +3597,46 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11">
-        <f>SUM(C12:M12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="1">
         <v>32</v>
       </c>
       <c r="N13" s="1">
-        <f>SUM(C13:M13)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1">
         <v>32</v>
       </c>
       <c r="N14" s="1">
-        <f>SUM(C14:M14)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ref="N15:N40" si="0">SUM(C15:M15)</f>
+        <f t="shared" ref="N15:N40" si="1">SUM(C15:M15)</f>
         <v>8</v>
       </c>
     </row>
@@ -3653,19 +3655,19 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3684,13 +3686,13 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1">
         <v>20</v>
@@ -3708,7 +3710,7 @@
         <v>20</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
     </row>
@@ -3727,34 +3729,34 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1">
         <v>10</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:14">
       <c r="B22" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -3773,16 +3775,16 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:14">
       <c r="A24" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="13">
         <v>5</v>
@@ -3798,7 +3800,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3817,7 +3819,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3836,13 +3838,13 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1">
         <v>120</v>
@@ -3851,7 +3853,7 @@
         <v>20</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
     </row>
@@ -3870,19 +3872,19 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1">
         <v>120</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -3901,19 +3903,19 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="9">
         <v>5</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -3932,61 +3934,61 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1">
         <v>20</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="14:14">
       <c r="N34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="14:14">
       <c r="N35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="14:14">
       <c r="N36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="14:14">
       <c r="N37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="14:14">
       <c r="N38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="14:14">
       <c r="N39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="14:14">
       <c r="N40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4008,58 +4010,58 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6296296296296" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:12">
+    <row r="1" ht="58.35" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:6">
@@ -4125,7 +4127,7 @@
         <v>0.984699453551913</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:12">
+    <row r="6" ht="15.15" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4143,42 +4145,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="27.75" spans="1:12">
+    <row r="7" ht="58.35" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:12">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <sheet name="Exercise" sheetId="8" r:id="rId7"/>
     <sheet name="Bood&amp;Code" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -67,6 +72,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>f</t>
@@ -76,6 +82,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ast food</t>
@@ -87,6 +94,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>take-out</t>
@@ -96,6 +104,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(叉烧鸡腿饭)</t>
@@ -137,6 +146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>take-out</t>
@@ -146,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>+member card</t>
@@ -157,6 +168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -166,6 +178,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oodle+egg tart</t>
@@ -313,6 +326,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -322,6 +336,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5LB</t>
@@ -333,6 +348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -342,6 +358,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0LB</t>
@@ -353,6 +370,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -362,6 +380,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5LB</t>
@@ -397,6 +416,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -406,6 +426,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0LB</t>
@@ -432,6 +453,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -441,6 +463,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ode all</t>
@@ -452,6 +475,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -461,6 +485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -481,19 +506,70 @@
     <t>Today truly finished
 （今日实际学习时长）</t>
   </si>
+  <si>
+    <r>
+      <t>5.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.31</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk+bun</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ake-out</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +581,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -514,6 +591,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -523,168 +601,41 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="48"/>
-      <color theme="3" tint="0.399884029663991"/>
+      <color theme="3" tint="0.39985351115451523"/>
       <name val="Edwardian Script ITC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,176 +672,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -935,255 +718,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,13 +740,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1232,13 +776,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1247,16 +791,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1265,72 +809,34 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.599993896298105"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1339,6 +845,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1387,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1422,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1630,9 +1139,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3" tint="0.399884029663991"/>
+    <tabColor theme="3" tint="0.39985351115451523"/>
   </sheetPr>
   <dimension ref="H12:Q19"/>
   <sheetViews>
@@ -1640,143 +1149,142 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="12" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H12" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
+    <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+    </row>
+    <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H12:Q19"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="K42:L42"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="12.1296296296296" style="19" customWidth="1"/>
-    <col min="3" max="3" width="26.3796296296296" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="19" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.1296296296296" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="20" customWidth="1"/>
     <col min="6" max="6" width="13" style="19" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
     <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -1798,7 +1306,7 @@
       </c>
       <c r="H1" s="24"/>
     </row>
-    <row r="2" ht="3" customHeight="1" spans="1:7">
+    <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1807,7 +1315,7 @@
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19">
         <v>4.24</v>
       </c>
@@ -1821,7 +1329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C4" s="19">
         <v>12.2</v>
       </c>
@@ -1834,10 +1342,10 @@
       </c>
       <c r="G4" s="19">
         <f>SUM(F4:F35)</f>
-        <v>2574.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>2574.5000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>4.25</v>
       </c>
@@ -1855,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="19">
         <v>3</v>
       </c>
@@ -1870,7 +1378,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>4.26</v>
       </c>
@@ -1888,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="19">
         <v>3</v>
       </c>
@@ -1900,12 +1408,12 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>10</v>
@@ -1921,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="19">
         <v>3</v>
       </c>
@@ -1936,7 +1444,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>4.28</v>
       </c>
@@ -1951,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="19">
         <v>3</v>
       </c>
@@ -1963,9 +1471,9 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>15</v>
@@ -1981,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="19">
         <v>1000</v>
       </c>
@@ -1990,7 +1498,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>5.2</v>
       </c>
@@ -2008,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="19">
         <v>3</v>
       </c>
@@ -2023,7 +1531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>5.3</v>
       </c>
@@ -2041,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="19">
         <v>6</v>
       </c>
@@ -2056,7 +1564,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>5.4</v>
       </c>
@@ -2071,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="19">
         <v>3</v>
       </c>
@@ -2086,7 +1594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>5.5</v>
       </c>
@@ -2101,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="19">
         <v>3</v>
       </c>
@@ -2116,7 +1624,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="19" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D24" s="19">
         <v>300</v>
       </c>
@@ -2134,7 +1642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>5.9</v>
       </c>
@@ -2152,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="19">
         <v>3</v>
       </c>
@@ -2167,7 +1675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:6">
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>17</v>
       </c>
@@ -2176,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D28" s="19">
         <v>200</v>
       </c>
@@ -2185,7 +1693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="19">
         <v>5.16</v>
       </c>
@@ -2203,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="19">
         <v>10</v>
       </c>
@@ -2218,7 +1726,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="19">
         <v>5.17</v>
       </c>
@@ -2236,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="19">
         <v>3</v>
       </c>
@@ -2251,7 +1759,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="19">
         <v>5.18</v>
       </c>
@@ -2269,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="19">
         <v>3</v>
       </c>
@@ -2284,7 +1792,7 @@
         <v>345.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="19">
         <v>5.19</v>
       </c>
@@ -2299,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B36" s="19">
         <v>24</v>
       </c>
@@ -2311,8 +1819,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -2323,7 +1831,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
       <c r="B38" s="19">
         <v>80</v>
       </c>
@@ -2332,8 +1841,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="19">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="29">
         <v>5.22</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -2347,7 +1856,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="29"/>
       <c r="C40" s="19">
         <v>20.5</v>
       </c>
@@ -2355,12 +1865,12 @@
         <v>15</v>
       </c>
       <c r="F40" s="19">
-        <f t="shared" ref="F40:F45" si="1">SUM(B40:D40)</f>
+        <f t="shared" ref="F40:F44" si="1">SUM(B40:D40)</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="41" ht="28.8" spans="1:6">
-      <c r="A41" s="19">
+    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="29">
         <v>5.23</v>
       </c>
       <c r="B41" s="28" t="s">
@@ -2377,7 +1887,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
       <c r="B42" s="19">
         <v>8</v>
       </c>
@@ -2392,8 +1903,8 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:6">
-      <c r="A43" s="19">
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A43" s="29">
         <v>5.24</v>
       </c>
       <c r="B43" s="28" t="s">
@@ -2410,7 +1921,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="29"/>
       <c r="B44" s="19">
         <v>4</v>
       </c>
@@ -2425,8 +1937,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" ht="28.8" spans="1:6">
-      <c r="A45" s="19">
+    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="29">
         <v>5.25</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -2443,7 +1955,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="29"/>
       <c r="B46" s="19">
         <v>3</v>
       </c>
@@ -2458,8 +1971,8 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="19">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="29">
         <v>5.26</v>
       </c>
       <c r="B47" s="19" t="s">
@@ -2479,7 +1992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
       <c r="B48" s="19">
         <v>5</v>
       </c>
@@ -2494,8 +2008,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="19">
@@ -2503,7 +2017,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="29"/>
       <c r="B50" s="20">
         <v>600</v>
       </c>
@@ -2513,16 +2028,17 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="19">
-        <v>5.3</v>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F51" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="29"/>
       <c r="D52" s="19">
         <v>49</v>
       </c>
@@ -2534,42 +2050,50 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="6:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="F53" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B54" s="19">
+        <v>8</v>
+      </c>
+      <c r="C54" s="19">
+        <v>17.5</v>
+      </c>
+      <c r="E54" s="20">
+        <v>193</v>
+      </c>
       <c r="F54" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="19">
-        <v>1</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:F100">
     <cfRule type="expression" dxfId="0" priority="34">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2579,17 +2103,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="17" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -2606,7 +2130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>4.26</v>
       </c>
@@ -2614,15 +2138,15 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="B3" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>5.19</v>
       </c>
@@ -2630,7 +2154,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>5.2</v>
       </c>
@@ -2638,7 +2162,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>5.21</v>
       </c>
@@ -2646,7 +2170,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>5.22</v>
       </c>
@@ -2654,7 +2178,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>5.23</v>
       </c>
@@ -2663,15 +2187,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.149937437055574"/>
+    <tabColor theme="0" tint="-0.14990691854609822"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2679,15 +2203,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2704,7 +2228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>4.26</v>
       </c>
@@ -2714,13 +2238,13 @@
       <c r="E2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2730,16 +2254,16 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1296296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:3">
+    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2750,7 +2274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>5.19</v>
       </c>
@@ -2761,7 +2285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>5.22</v>
       </c>
@@ -2769,7 +2293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>5.23</v>
       </c>
@@ -2777,7 +2301,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>5.26</v>
       </c>
@@ -2785,7 +2309,7 @@
         <v>196.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5.29</v>
       </c>
@@ -2794,13 +2318,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2810,19 +2334,19 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="17.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="9" width="14.3796296296296" customWidth="1"/>
+    <col min="8" max="9" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="19" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:10">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2854,7 +2378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>5.22</v>
       </c>
@@ -2884,10 +2408,10 @@
       </c>
       <c r="J2" s="2">
         <f>(F2+G2+H2+E2)/300</f>
-        <v>0.0213333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>2.1333333333333336E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>5.23</v>
       </c>
@@ -2908,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>5.24</v>
       </c>
@@ -2927,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>5.25</v>
       </c>
@@ -2946,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5.26</v>
       </c>
@@ -2965,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2980,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2995,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3010,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3025,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3040,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3055,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3070,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3085,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3100,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3115,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3130,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3145,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3160,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3175,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3190,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3205,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3220,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3235,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3250,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3265,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3280,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3295,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3310,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3325,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3340,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3355,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3371,35 +2895,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
-    <col min="6" max="13" width="3.37962962962963" style="1" customWidth="1"/>
+    <col min="6" max="13" width="3.375" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:14">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
@@ -3443,7 +2967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>58</v>
       </c>
@@ -3451,7 +2975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="5.25" customHeight="1" spans="1:14">
+    <row r="3" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3467,7 +2991,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
@@ -3489,12 +3013,15 @@
       <c r="H4" s="1">
         <v>30</v>
       </c>
+      <c r="M4" s="1">
+        <v>30</v>
+      </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N14" si="0">SUM(C4:M4)</f>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
@@ -3503,13 +3030,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="14:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="3.75" customHeight="1" spans="1:14">
+    <row r="7" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3528,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>62</v>
       </c>
@@ -3543,7 +3070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>64</v>
       </c>
@@ -3552,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>65</v>
       </c>
@@ -3564,7 +3091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>66</v>
       </c>
@@ -3582,7 +3109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" ht="4.5" customHeight="1" spans="1:14">
+    <row r="12" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3601,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,7 +3143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
         <v>63</v>
       </c>
@@ -3628,7 +3155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
         <v>64</v>
       </c>
@@ -3640,7 +3167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" ht="3.75" customHeight="1" spans="1:14">
+    <row r="16" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3659,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -3671,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="3" customHeight="1" spans="1:14">
+    <row r="18" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3690,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>71</v>
       </c>
@@ -3709,12 +3236,15 @@
       <c r="H19" s="1">
         <v>20</v>
       </c>
+      <c r="M19" s="1">
+        <v>30</v>
+      </c>
       <c r="N19" s="1">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" ht="3.75" customHeight="1" spans="1:14">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3733,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -3748,7 +3278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>74</v>
       </c>
@@ -3760,7 +3290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="4.5" customHeight="1" spans="1:14">
+    <row r="23" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -3779,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16" customHeight="1" spans="1:14">
+    <row r="24" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>75</v>
       </c>
@@ -3804,7 +3334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:14">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -3823,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="5" customHeight="1" spans="1:14">
+    <row r="26" spans="1:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -3842,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>76</v>
       </c>
@@ -3857,7 +3387,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="28" ht="3" customHeight="1" spans="1:14">
+    <row r="28" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3876,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -3888,7 +3418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" ht="3" customHeight="1" spans="1:14">
+    <row r="30" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3907,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>78</v>
       </c>
@@ -3919,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="3" customHeight="1" spans="1:14">
+    <row r="32" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3938,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>79</v>
       </c>
@@ -3950,57 +3480,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="14:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N34" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="14:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N35" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="14:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N36" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="14:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N37" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="14:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N38" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="14:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N40" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -4010,23 +3540,23 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.35" spans="1:12">
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>80</v>
       </c>
@@ -4064,7 +3594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>4.26</v>
       </c>
@@ -4076,10 +3606,10 @@
       </c>
       <c r="F2" s="2">
         <f>C2/915</f>
-        <v>0.033879781420765</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>3.3879781420765025E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>4.28</v>
       </c>
@@ -4094,10 +3624,10 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F11" si="0">C3/915</f>
-        <v>0.0655737704918033</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>5.2</v>
       </c>
@@ -4112,10 +3642,10 @@
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.0983606557377049</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>9.8360655737704916E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>5.19</v>
       </c>
@@ -4124,10 +3654,10 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.984699453551913</v>
-      </c>
-    </row>
-    <row r="6" ht="15.15" spans="2:12">
+        <v>0.98469945355191257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4145,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="58.35" spans="1:12">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -4183,7 +3713,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>5.22</v>
       </c>
@@ -4202,10 +3732,10 @@
       </c>
       <c r="L8" s="2">
         <f>SUM(I8:I30)/256</f>
-        <v>0.029296875</v>
-      </c>
-    </row>
-    <row r="9" spans="6:10">
+        <v>2.9296875E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4220,7 +3750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4235,7 +3765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="6:10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4247,99 +3777,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="6:6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F12" s="2">
         <f t="shared" ref="F12:F26" si="2">C12/915</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F16" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F19" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F20" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F21" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F22" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F24" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F26" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -558,6 +558,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>ake-out</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oodle+soymilk+glass</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1269,7 +1286,7 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2060,6 +2077,9 @@
       <c r="C53" s="31" t="s">
         <v>89</v>
       </c>
+      <c r="D53" s="31" t="s">
+        <v>90</v>
+      </c>
       <c r="F53" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2072,12 +2092,15 @@
       <c r="C54" s="19">
         <v>17.5</v>
       </c>
+      <c r="D54" s="19">
+        <v>88</v>
+      </c>
       <c r="E54" s="20">
         <v>193</v>
       </c>
       <c r="F54" s="19">
         <f t="shared" si="2"/>
-        <v>25.5</v>
+        <v>113.5</v>
       </c>
     </row>
   </sheetData>
@@ -2908,8 +2931,8 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2919,7 +2942,8 @@
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
-    <col min="6" max="13" width="3.375" style="1" customWidth="1"/>
+    <col min="6" max="12" width="3.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3413,9 +3437,12 @@
       <c r="D29" s="1">
         <v>120</v>
       </c>
+      <c r="M29" s="1">
+        <v>100</v>
+      </c>
       <c r="N29" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
@@ -3536,8 +3563,8 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3732,7 +3759,7 @@
       </c>
       <c r="L8" s="2">
         <f>SUM(I8:I30)/256</f>
-        <v>2.9296875E-2</v>
+        <v>3.3984374999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -3781,6 +3808,12 @@
       <c r="F12" s="2">
         <f t="shared" ref="F12:F26" si="2">C12/915</f>
         <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.31</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -9,24 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
     <sheet name="Diets" sheetId="2" r:id="rId2"/>
     <sheet name="New words" sheetId="4" r:id="rId3"/>
     <sheet name="Python" sheetId="5" r:id="rId4"/>
-    <sheet name="My weight" sheetId="6" r:id="rId5"/>
-    <sheet name="Eng" sheetId="7" r:id="rId6"/>
-    <sheet name="Exercise" sheetId="8" r:id="rId7"/>
-    <sheet name="Bood&amp;Code" sheetId="3" r:id="rId8"/>
+    <sheet name="Eng" sheetId="7" r:id="rId5"/>
+    <sheet name="Exercise" sheetId="8" r:id="rId6"/>
+    <sheet name="Bood&amp;Code" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -248,17 +247,6 @@
 (百分比)</t>
   </si>
   <si>
-    <t>My weight
-（我的体重）</t>
-  </si>
-  <si>
-    <t>Things list
-(待办事项)</t>
-  </si>
-  <si>
-    <t>少吃，减肥</t>
-  </si>
-  <si>
     <t xml:space="preserve">listening
 </t>
   </si>
@@ -575,6 +563,61 @@
         <scheme val="minor"/>
       </rPr>
       <t>oodle+soymilk+glass</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ay</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilk+bun</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk+pancake</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oodle+soymilk…</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -652,7 +695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +729,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,7 +793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,9 +842,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,6 +887,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -849,7 +901,28 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1169,102 +1242,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H12" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="H12" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
     </row>
     <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1282,836 +1355,1285 @@
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="12.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="14.125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
+    <col min="8" max="9" width="9" style="18"/>
+    <col min="10" max="10" width="11.125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="21" style="18" customWidth="1"/>
+    <col min="12" max="12" width="28" style="18" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9" style="18"/>
+    <col min="15" max="15" width="11" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
+        <v>6.1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="18">
+        <v>8</v>
+      </c>
+      <c r="C4" s="18">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18">
+        <v>17</v>
+      </c>
+      <c r="F4" s="18">
+        <f>SUM(B4:D4)</f>
+        <v>45</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUM(F4:F35)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
+        <v>6.2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="F5" s="18">
+        <f t="shared" ref="F5:F57" si="0">SUM(B5:D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19">
+        <v>194.7</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="27"/>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F35" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="F37" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="28"/>
+      <c r="F38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="F39" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="28"/>
+      <c r="F40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="F41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="28"/>
+      <c r="F42" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="28"/>
+      <c r="B43" s="27"/>
+      <c r="F43" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="28"/>
+      <c r="F44" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="28"/>
+      <c r="F45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="F46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="28"/>
+      <c r="F47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="28"/>
+      <c r="F48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="28"/>
+      <c r="F49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="28"/>
+      <c r="B50" s="19"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="29"/>
+      <c r="F51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="28"/>
+      <c r="F52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="F53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F55" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F57" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="18">
         <v>4.24</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C4" s="19">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C63" s="18">
         <v>12.2</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D63" s="18">
         <v>12</v>
       </c>
-      <c r="F4" s="19">
-        <f>SUM(B4:D4)</f>
+      <c r="F63" s="18">
+        <f>SUM(B63:D63)</f>
         <v>24.2</v>
       </c>
-      <c r="G4" s="19">
-        <f>SUM(F4:F35)</f>
+      <c r="G63" s="18">
+        <f>SUM(F63:F94)</f>
         <v>2574.5000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="18">
         <v>4.25</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B64" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C64" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D64" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" ref="F5:F39" si="0">SUM(B5:D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="19">
+      <c r="F64" s="18">
+        <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="18">
         <v>3</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C65" s="18">
         <v>10.85</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D65" s="18">
         <v>18</v>
       </c>
-      <c r="F6" s="19">
-        <f t="shared" si="0"/>
+      <c r="F65" s="18">
+        <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="18">
         <v>4.26</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C66" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D66" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="19">
+      <c r="F66" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="18">
         <v>3</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C67" s="18">
         <v>14</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D67" s="18">
         <v>19.7</v>
       </c>
-      <c r="F8" s="19">
-        <f t="shared" si="0"/>
+      <c r="F67" s="18">
+        <f t="shared" si="1"/>
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="18">
         <v>4.2699999999999996</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B68" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C68" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D68" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="19">
+      <c r="F68" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B69" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C69" s="18">
         <v>16.7</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D69" s="18">
         <v>26</v>
       </c>
-      <c r="F10" s="19">
-        <f t="shared" si="0"/>
+      <c r="F69" s="18">
+        <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="19">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="18">
         <v>4.28</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B70" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C70" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="19">
+      <c r="F70" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B71" s="18">
         <v>3</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C71" s="18">
         <v>16.2</v>
       </c>
-      <c r="F12" s="19">
-        <f t="shared" si="0"/>
+      <c r="F71" s="18">
+        <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B72" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C72" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D72" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="19">
+      <c r="F72" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B73" s="18">
         <v>1000</v>
       </c>
-      <c r="F14" s="19">
-        <f t="shared" si="0"/>
+      <c r="F73" s="18">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="18">
         <v>5.2</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B74" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D74" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="19">
+      <c r="F74" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B75" s="18">
         <v>3</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C75" s="18">
         <v>12</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D75" s="18">
         <v>11</v>
       </c>
-      <c r="F16" s="19">
-        <f t="shared" si="0"/>
+      <c r="F75" s="18">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="18">
         <v>5.3</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B76" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C76" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D76" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="19">
+      <c r="F76" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B77" s="18">
         <v>6</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C77" s="18">
         <v>9</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D77" s="18">
         <v>291</v>
       </c>
-      <c r="F18" s="19">
-        <f t="shared" si="0"/>
+      <c r="F77" s="18">
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="18">
         <v>5.4</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B78" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C78" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="19">
+      <c r="F78" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B79" s="18">
         <v>3</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C79" s="18">
         <v>21</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D79" s="18">
         <v>95</v>
       </c>
-      <c r="F20" s="19">
-        <f t="shared" si="0"/>
+      <c r="F79" s="18">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="18">
         <v>5.5</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C80" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="19">
+      <c r="F80" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B81" s="18">
         <v>3</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C81" s="18">
         <v>12.75</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D81" s="18">
         <v>10</v>
       </c>
-      <c r="F22" s="19">
-        <f t="shared" si="0"/>
+      <c r="F81" s="18">
+        <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D24" s="19">
+      <c r="F82" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D83" s="18">
         <v>300</v>
       </c>
-      <c r="F24" s="19">
-        <f t="shared" si="0"/>
+      <c r="F83" s="18">
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="19">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="18">
         <v>5.9</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C84" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D84" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="19">
+      <c r="F84" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B85" s="18">
         <v>3</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C85" s="18">
         <v>9</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D85" s="18">
         <v>18</v>
       </c>
-      <c r="F26" s="19">
-        <f t="shared" si="0"/>
+      <c r="F85" s="18">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
+    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D28" s="19">
+      <c r="F86" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D87" s="18">
         <v>200</v>
       </c>
-      <c r="F28" s="19">
-        <f t="shared" si="0"/>
+      <c r="F87" s="18">
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="19">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="18">
         <v>5.16</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B88" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C88" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D88" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="19">
+      <c r="F88" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B89" s="18">
         <v>10</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C89" s="18">
         <v>10.9</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D89" s="18">
         <v>10</v>
       </c>
-      <c r="F30" s="19">
-        <f t="shared" si="0"/>
+      <c r="F89" s="18">
+        <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="18">
         <v>5.17</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C90" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D90" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="19">
+      <c r="F90" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B91" s="18">
         <v>3</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C91" s="18">
         <v>10.9</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D91" s="18">
         <v>19.5</v>
       </c>
-      <c r="F32" s="19">
-        <f t="shared" si="0"/>
+      <c r="F91" s="18">
+        <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="18">
         <v>5.18</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B92" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C92" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D92" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="19">
+      <c r="F92" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="18">
         <v>3</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C93" s="18">
         <v>16</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D93" s="18">
         <v>326.8</v>
       </c>
-      <c r="F34" s="19">
-        <f t="shared" si="0"/>
+      <c r="F93" s="18">
+        <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="19">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="18">
         <v>5.19</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B94" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C94" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B36" s="19">
+      <c r="F94" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="18">
         <v>24</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C95" s="18">
         <v>16</v>
       </c>
-      <c r="F36" s="19">
-        <f t="shared" si="0"/>
+      <c r="F95" s="18">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B96" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="19">
+      <c r="F96" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="28"/>
+      <c r="B97" s="18">
         <v>80</v>
       </c>
-      <c r="F38" s="19">
-        <f t="shared" si="0"/>
+      <c r="F97" s="18">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="29">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="28">
         <v>5.22</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C98" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D98" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="C40" s="19">
+      <c r="F98" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="28"/>
+      <c r="C99" s="18">
         <v>20.5</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D99" s="18">
         <v>15</v>
       </c>
-      <c r="F40" s="19">
-        <f t="shared" ref="F40:F44" si="1">SUM(B40:D40)</f>
+      <c r="F99" s="18">
+        <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A41" s="29">
+    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A100" s="28">
         <v>5.23</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B100" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C100" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D100" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="19">
+      <c r="F100" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="28"/>
+      <c r="B101" s="18">
         <v>8</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C101" s="18">
         <v>12.5</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D101" s="18">
         <v>30</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F101" s="18">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="29">
+    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A102" s="28">
         <v>5.24</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B102" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C102" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D102" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="19">
+      <c r="F102" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="28"/>
+      <c r="B103" s="18">
         <v>4</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C103" s="18">
         <v>15</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D103" s="18">
         <v>15</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F103" s="18">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="29">
+    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A104" s="28">
         <v>5.25</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B104" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C104" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D104" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="19">
-        <f t="shared" ref="F45:F54" si="2">SUM(B45:D45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
-      <c r="B46" s="19">
+      <c r="F104" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="28"/>
+      <c r="B105" s="18">
         <v>3</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C105" s="18">
         <v>14.5</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D105" s="18">
         <v>20</v>
       </c>
-      <c r="F46" s="19">
-        <f t="shared" si="2"/>
+      <c r="F105" s="18">
+        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="29">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="28">
         <v>5.26</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B106" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C106" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D106" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E106" s="19">
         <v>196.7</v>
       </c>
-      <c r="F47" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
-      <c r="B48" s="19">
+      <c r="F106" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="28"/>
+      <c r="B107" s="18">
         <v>5</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C107" s="18">
         <v>9</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D107" s="18">
         <v>10</v>
       </c>
-      <c r="F48" s="19">
-        <f t="shared" si="2"/>
+      <c r="F107" s="18">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="29" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
-      <c r="B50" s="20">
+      <c r="F108" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="28"/>
+      <c r="B109" s="19">
         <v>600</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19">
-        <f t="shared" si="2"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18">
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="30" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="28"/>
+      <c r="D111" s="18">
+        <v>49</v>
+      </c>
+      <c r="E111" s="19">
+        <v>194.7</v>
+      </c>
+      <c r="F111" s="18">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
-      <c r="D52" s="19">
-        <v>49</v>
-      </c>
-      <c r="E52" s="20">
-        <v>194.7</v>
-      </c>
-      <c r="F52" s="19">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="30" t="s">
+      <c r="D112" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="F112" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" s="18">
+        <v>8</v>
+      </c>
+      <c r="C113" s="18">
+        <v>17.5</v>
+      </c>
+      <c r="D113" s="18">
         <v>88</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B54" s="19">
-        <v>8</v>
-      </c>
-      <c r="C54" s="19">
-        <v>17.5</v>
-      </c>
-      <c r="D54" s="19">
-        <v>88</v>
-      </c>
-      <c r="E54" s="20">
+      <c r="E113" s="19">
         <v>193</v>
       </c>
-      <c r="F54" s="19">
-        <f t="shared" si="2"/>
+      <c r="F113" s="18">
+        <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A3:F100">
-    <cfRule type="expression" dxfId="0" priority="34">
+  <conditionalFormatting sqref="A3:F500">
+    <cfRule type="expression" dxfId="3" priority="35">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A62:F113">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$F5&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2120,7 +2642,7 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
@@ -2128,7 +2650,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
@@ -2137,7 +2659,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2154,7 +2676,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>4.26</v>
       </c>
       <c r="B2" s="1">
@@ -2162,7 +2684,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>4.2699999999999996</v>
       </c>
       <c r="B3" s="1">
@@ -2170,7 +2692,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>5.19</v>
       </c>
       <c r="B4" s="1">
@@ -2178,7 +2700,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>5.2</v>
       </c>
       <c r="B5" s="1">
@@ -2186,7 +2708,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5.21</v>
       </c>
       <c r="B6" s="1">
@@ -2194,7 +2716,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>5.22</v>
       </c>
       <c r="B7" s="1">
@@ -2202,11 +2724,19 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>5.23</v>
       </c>
       <c r="B8" s="1">
         <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2269,92 +2799,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>5.19</v>
-      </c>
-      <c r="B2" s="1">
-        <v>200</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>5.22</v>
-      </c>
-      <c r="B3" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>5.23</v>
-      </c>
-      <c r="B4" s="1">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>5.26</v>
-      </c>
-      <c r="B5" s="1">
-        <v>196.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5.29</v>
-      </c>
-      <c r="B6" s="1">
-        <v>195.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2374,28 +2824,28 @@
         <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>42</v>
@@ -2924,15 +3374,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2949,54 +3399,51 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="5">
-        <v>22</v>
-      </c>
-      <c r="E1" s="5">
-        <v>23</v>
-      </c>
-      <c r="F1" s="5">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5">
-        <v>27</v>
-      </c>
-      <c r="J1" s="5">
-        <v>28</v>
-      </c>
-      <c r="K1" s="5">
-        <v>29</v>
-      </c>
-      <c r="L1" s="5">
-        <v>30</v>
-      </c>
-      <c r="M1" s="5">
-        <v>31</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3017,47 +3464,15 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>240</v>
-      </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1">
-        <v>30</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N14" si="0">SUM(C4:M4)</f>
-        <v>410</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3074,63 +3489,29 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1">
-        <v>64</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1">
-        <v>32</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1">
-        <v>32</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3147,48 +3528,28 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="1">
-        <v>32</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="1">
-        <v>32</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ref="N15:N40" si="1">SUM(C15:M15)</f>
-        <v>8</v>
+        <f t="shared" ref="N15:N35" si="0">SUM(C15:M15)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3206,19 +3567,16 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3237,35 +3595,13 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1">
-        <v>20</v>
-      </c>
-      <c r="M19" s="1">
-        <v>30</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="1"/>
-        <v>210</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3283,35 +3619,25 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="1">
-        <v>20</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3329,20 +3655,18 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="13">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -3354,8 +3678,8 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -3373,7 +3697,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
       <c r="N25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3392,23 +3716,17 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="1">
-        <v>120</v>
-      </c>
-      <c r="G27" s="1">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
@@ -3426,23 +3744,13 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="1">
-        <v>120</v>
-      </c>
-      <c r="M29" s="1">
-        <v>100</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="1"/>
-        <v>220</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
@@ -3460,20 +3768,18 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="9">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D31" s="9"/>
       <c r="N31" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
@@ -3491,62 +3797,592 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="1">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N34" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="N35" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N36" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="5">
+        <v>22</v>
+      </c>
+      <c r="E36" s="5">
+        <v>23</v>
+      </c>
+      <c r="F36" s="5">
+        <v>24</v>
+      </c>
+      <c r="G36" s="5">
+        <v>25</v>
+      </c>
+      <c r="H36" s="5">
+        <v>26</v>
+      </c>
+      <c r="I36" s="5">
+        <v>27</v>
+      </c>
+      <c r="J36" s="5">
+        <v>28</v>
+      </c>
+      <c r="K36" s="5">
+        <v>29</v>
+      </c>
+      <c r="L36" s="5">
+        <v>30</v>
+      </c>
+      <c r="M36" s="5">
+        <v>31</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N37" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N38" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1">
+        <v>240</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10</v>
+      </c>
+      <c r="G39" s="1">
+        <v>80</v>
+      </c>
+      <c r="H39" s="1">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1">
+        <v>30</v>
+      </c>
       <c r="N39" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="N39:N68" si="1">SUM(C39:M39)</f>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B40" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="N40" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1">
+        <v>64</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B45" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="1">
+        <v>32</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1">
+        <v>32</v>
+      </c>
+      <c r="G46" s="1">
+        <v>32</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="1">
+        <v>32</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B49" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="1">
+        <v>32</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="1">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
+        <v>50</v>
+      </c>
+      <c r="E54" s="1">
+        <v>40</v>
+      </c>
+      <c r="G54" s="1">
+        <v>50</v>
+      </c>
+      <c r="H54" s="1">
+        <v>20</v>
+      </c>
+      <c r="M54" s="1">
+        <v>30</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B57" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="1">
+        <v>20</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A58" s="11"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="13">
+        <v>5</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="1">
+        <v>120</v>
+      </c>
+      <c r="G62" s="1">
+        <v>20</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="1">
+        <v>120</v>
+      </c>
+      <c r="M64" s="1">
+        <v>100</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="9">
+        <v>5</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3556,15 +4392,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3585,7 +4421,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>34</v>
@@ -3603,7 +4439,7 @@
         <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>34</v>
@@ -3704,7 +4540,7 @@
     </row>
     <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>34</v>
@@ -3722,19 +4558,19 @@
         <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>42</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Eng" sheetId="7" r:id="rId5"/>
     <sheet name="Exercise" sheetId="8" r:id="rId6"/>
     <sheet name="Bood&amp;Code" sheetId="3" r:id="rId7"/>
+    <sheet name="Ohter" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -618,6 +619,69 @@
         <scheme val="minor"/>
       </rPr>
       <t>oodle+soymilk…</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3-4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>milk+bun</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-out</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inux</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>耸肩</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5LB</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -793,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,26 +960,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1357,9 +1413,9 @@
   </sheetPr>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1442,7 +1498,7 @@
       </c>
       <c r="G4" s="18">
         <f>SUM(F4:F35)</f>
-        <v>69</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1477,6 +1533,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="C7" s="27"/>
       <c r="F7" s="18">
         <f t="shared" si="0"/>
@@ -1484,21 +1543,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="18">
+        <v>650</v>
+      </c>
       <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="18">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18">
+        <v>16</v>
+      </c>
+      <c r="E10" s="19">
+        <v>194.3</v>
+      </c>
       <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -2623,12 +2703,12 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:F500">
-    <cfRule type="expression" dxfId="3" priority="35">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F113">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2642,10 +2722,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2733,10 +2813,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
-        <v>6.1</v>
+        <v>6.01</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="16">
+        <v>6.05</v>
+      </c>
+      <c r="B10" s="1">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -3379,10 +3467,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL33" sqref="AL33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3390,14 +3478,17 @@
     <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="1" customWidth="1"/>
-    <col min="6" max="12" width="3.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
+    <col min="9" max="11" width="3.375" style="1" customWidth="1"/>
+    <col min="12" max="33" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
@@ -3437,16 +3528,83 @@
       <c r="M1" s="5">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="5">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5">
+        <v>12</v>
+      </c>
+      <c r="P1" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>14</v>
+      </c>
+      <c r="R1" s="5">
+        <v>15</v>
+      </c>
+      <c r="S1" s="5">
+        <v>16</v>
+      </c>
+      <c r="T1" s="5">
+        <v>17</v>
+      </c>
+      <c r="U1" s="5">
+        <v>18</v>
+      </c>
+      <c r="V1" s="5">
+        <v>19</v>
+      </c>
+      <c r="W1" s="5">
+        <v>20</v>
+      </c>
+      <c r="X1" s="5">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI2" s="1">
+        <f>SUM(C2:AH2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3461,21 +3619,62 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11">
+        <f t="shared" ref="AI3:AI33" si="0">SUM(C3:AH3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H4" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3490,31 +3689,71 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="AI8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="AI9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="AI10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3529,30 +3768,65 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="AI13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="H14" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" ref="N15:N35" si="0">SUM(C15:M15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -3566,21 +3840,42 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3594,17 +3889,45 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -3618,29 +3941,54 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="AI21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -3654,12 +4002,33 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>72</v>
       </c>
@@ -3677,12 +4046,33 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -3696,12 +4086,33 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -3715,21 +4126,42 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -3743,17 +4175,42 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -3767,22 +4224,43 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="N31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3796,311 +4274,433 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N34" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
+      <c r="AI33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A35" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI36" s="1">
+        <f t="shared" ref="AI36:AI37" si="1">SUM(C36:AH36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="AI37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D38" s="5">
         <v>22</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E38" s="5">
         <v>23</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F38" s="5">
         <v>24</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G38" s="5">
         <v>25</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H38" s="5">
         <v>26</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I38" s="5">
         <v>27</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J38" s="5">
         <v>28</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K38" s="5">
         <v>29</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L38" s="5">
         <v>30</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5">
         <v>31</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="AI38" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D39" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C41" s="1">
         <v>240</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D41" s="1">
         <v>20</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E41" s="1">
         <v>10</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G41" s="1">
         <v>80</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H41" s="1">
         <v>30</v>
       </c>
-      <c r="M39" s="1">
+      <c r="AH41" s="1">
         <v>30</v>
       </c>
-      <c r="N39" s="1">
-        <f t="shared" ref="N39:N68" si="1">SUM(C39:M39)</f>
+      <c r="AI41" s="1">
+        <f t="shared" ref="AI41:AI70" si="2">SUM(C41:AH41)</f>
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="9" t="s">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N40" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N41" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+      <c r="AI42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C45" s="1">
         <v>64</v>
       </c>
-      <c r="N43" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI45" s="1">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B44" s="9" t="s">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B46" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N44" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B45" s="9" t="s">
+      <c r="AI46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B47" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D47" s="1">
         <v>32</v>
       </c>
-      <c r="N45" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI47" s="1">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B46" s="9" t="s">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B48" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C48" s="1">
         <v>32</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D48" s="1">
         <v>32</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G48" s="1">
         <v>32</v>
       </c>
-      <c r="N46" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI48" s="1">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H50" s="1">
         <v>32</v>
       </c>
-      <c r="N48" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI50" s="1">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B49" s="9" t="s">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E51" s="1">
         <v>32</v>
       </c>
-      <c r="N49" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI51" s="1">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B50" s="9" t="s">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C52" s="1">
         <v>8</v>
       </c>
-      <c r="N50" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI52" s="1">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4114,39 +4714,45 @@
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="1">
-        <v>20</v>
-      </c>
-      <c r="D54" s="1">
-        <v>50</v>
-      </c>
-      <c r="E54" s="1">
-        <v>40</v>
-      </c>
-      <c r="G54" s="1">
-        <v>50</v>
-      </c>
-      <c r="H54" s="1">
-        <v>20</v>
-      </c>
-      <c r="M54" s="1">
-        <v>30</v>
-      </c>
-      <c r="N54" s="1">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4160,138 +4766,255 @@
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A56" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1">
+        <v>50</v>
+      </c>
+      <c r="E56" s="1">
+        <v>40</v>
+      </c>
+      <c r="G56" s="1">
+        <v>50</v>
+      </c>
+      <c r="H56" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI56" s="1">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C58" s="1">
         <v>10</v>
       </c>
-      <c r="N56" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI58" s="1">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B57" s="9" t="s">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B59" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D59" s="1">
         <v>20</v>
       </c>
-      <c r="N57" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI59" s="1">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58" s="11"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59" s="13" t="s">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A61" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C61" s="13">
         <v>5</v>
       </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="1">
-        <f t="shared" si="1"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="13"/>
+      <c r="Z61" s="13"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+      <c r="AC61" s="13"/>
+      <c r="AD61" s="13"/>
+      <c r="AE61" s="13"/>
+      <c r="AF61" s="13"/>
+      <c r="AG61" s="13"/>
+      <c r="AH61" s="13"/>
+      <c r="AI61" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="1">
-        <v>120</v>
-      </c>
-      <c r="G62" s="1">
-        <v>20</v>
-      </c>
-      <c r="N62" s="1">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -4303,27 +5026,48 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="1">
+        <v>73</v>
+      </c>
+      <c r="C64" s="1">
         <v>120</v>
       </c>
-      <c r="M64" s="1">
-        <v>100</v>
-      </c>
-      <c r="N64" s="1">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="G64" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI64" s="1">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -4337,24 +5081,48 @@
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-      <c r="N65" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D66" s="9">
-        <v>5</v>
-      </c>
-      <c r="N66" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="1">
+        <v>120</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>100</v>
+      </c>
+      <c r="AI66" s="1">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -4368,20 +5136,93 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
-      <c r="N67" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="9">
+        <v>5</v>
+      </c>
+      <c r="AI68" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D70" s="1">
         <v>20</v>
       </c>
-      <c r="N68" s="1">
-        <f t="shared" si="1"/>
+      <c r="AI70" s="1">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
@@ -4397,10 +5238,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4419,7 +5260,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -4457,7 +5298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>4.26</v>
       </c>
@@ -4471,8 +5312,9 @@
         <f>C2/915</f>
         <v>3.3879781420765025E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N2" s="34"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>4.28</v>
       </c>
@@ -4486,11 +5328,11 @@
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F11" si="0">C3/915</f>
+        <f t="shared" ref="F3:F23" si="0">C3/915</f>
         <v>6.5573770491803282E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>5.2</v>
       </c>
@@ -4508,7 +5350,7 @@
         <v>9.8360655737704916E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>5.19</v>
       </c>
@@ -4520,218 +5362,233 @@
         <v>0.98469945355191257</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8">
-        <f t="shared" ref="L6" si="1">I6/915</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="8">
+        <f t="shared" ref="L18" si="1">I18/915</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="1">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B20" s="1">
         <v>5.22</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>5.22</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I20" s="1">
         <v>5.5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J20" s="1">
         <v>5</v>
       </c>
-      <c r="L8" s="2">
-        <f>SUM(I8:I30)/256</f>
+      <c r="L20" s="2">
+        <f>SUM(I20:I42)/256</f>
         <v>3.3984374999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>5.23</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I21" s="1">
         <v>0.5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>5.25</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I22" s="1">
         <v>1.5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>5.26</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F26" si="2">C12/915</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:F38" si="2">C24/915</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>5.31</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I24" s="1">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F38" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4741,4 +5598,28 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="105">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -685,14 +685,78 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilk</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>noodle+soymilk+potato+tofu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-out</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hell</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -857,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,12 +970,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -957,14 +1015,23 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1415,1287 +1482,1311 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="14.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
-    <col min="8" max="9" width="9" style="18"/>
-    <col min="10" max="10" width="11.125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="21" style="18" customWidth="1"/>
-    <col min="12" max="12" width="28" style="18" customWidth="1"/>
-    <col min="13" max="13" width="24.25" style="18" customWidth="1"/>
-    <col min="14" max="14" width="9" style="18"/>
-    <col min="15" max="15" width="11" style="18" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="14.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13" style="16" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="11.125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="21" style="16" customWidth="1"/>
+    <col min="12" max="12" width="28" style="16" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="16" customWidth="1"/>
+    <col min="14" max="14" width="9" style="16"/>
+    <col min="15" max="15" width="11" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>6.1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>8</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>17</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f>SUM(B4:D4)</f>
         <v>45</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <f>SUM(F4:F35)</f>
-        <v>739</v>
+        <v>775.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>6.2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="F5" s="18">
+      <c r="D5" s="25"/>
+      <c r="F5" s="16">
         <f t="shared" ref="F5:F57" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>20</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>194.7</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="F7" s="18">
+      <c r="C7" s="25"/>
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>650</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>6.5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="18">
+      <c r="D9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>4</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>16</v>
       </c>
-      <c r="E10" s="19">
+      <c r="D10" s="16">
+        <v>20</v>
+      </c>
+      <c r="E10" s="17">
         <v>194.3</v>
       </c>
-      <c r="F10" s="18">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F11" s="18">
+      <c r="A11" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>15.8</v>
+      </c>
+      <c r="E12" s="17">
+        <v>194.6</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="28"/>
-      <c r="F37" s="18">
+      <c r="A37" s="26"/>
+      <c r="F37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="28"/>
-      <c r="F38" s="18">
+      <c r="A38" s="26"/>
+      <c r="F38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="28"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="F39" s="18">
+      <c r="A39" s="26"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="F39" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="28"/>
-      <c r="F40" s="18">
+      <c r="A40" s="26"/>
+      <c r="F40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
-      <c r="B41" s="27"/>
-      <c r="F41" s="18">
+      <c r="A41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="F41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="28"/>
-      <c r="F42" s="18">
+      <c r="A42" s="26"/>
+      <c r="F42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="28"/>
-      <c r="B43" s="27"/>
-      <c r="F43" s="18">
+      <c r="A43" s="26"/>
+      <c r="B43" s="25"/>
+      <c r="F43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
-      <c r="F44" s="18">
+      <c r="A44" s="26"/>
+      <c r="F44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="28"/>
-      <c r="F45" s="18">
+      <c r="A45" s="26"/>
+      <c r="F45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="28"/>
-      <c r="F46" s="18">
+      <c r="A46" s="26"/>
+      <c r="F46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
-      <c r="F47" s="18">
+      <c r="A47" s="26"/>
+      <c r="F47" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="F48" s="18">
+      <c r="A48" s="26"/>
+      <c r="F48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
-      <c r="F49" s="18">
+      <c r="A49" s="26"/>
+      <c r="F49" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="19"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18">
+      <c r="A50" s="26"/>
+      <c r="B50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
-      <c r="F51" s="18">
+      <c r="A51" s="27"/>
+      <c r="F51" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
-      <c r="F52" s="18">
+      <c r="A52" s="26"/>
+      <c r="F52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="F53" s="18">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F54" s="18">
+      <c r="F54" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F55" s="18">
+      <c r="F55" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F56" s="18">
+      <c r="F56" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F57" s="18">
+      <c r="F57" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="16"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E59" s="18"/>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="23"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="18">
+      <c r="A62" s="16">
         <v>4.24</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C63" s="18">
+      <c r="C63" s="16">
         <v>12.2</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="16">
         <v>12</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="16">
         <f>SUM(B63:D63)</f>
         <v>24.2</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="16">
         <f>SUM(F63:F94)</f>
         <v>2574.5000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="18">
+      <c r="A64" s="16">
         <v>4.25</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="16">
         <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="18">
+      <c r="B65" s="16">
         <v>3</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="16">
         <v>10.85</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="16">
         <v>18</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="16">
         <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="18">
+      <c r="A66" s="16">
         <v>4.26</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="18">
+      <c r="B67" s="16">
         <v>3</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="16">
         <v>14</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="16">
         <v>19.7</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="16">
         <f t="shared" si="1"/>
         <v>36.700000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="18">
+      <c r="A68" s="16">
         <v>4.2699999999999996</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="18">
+      <c r="B69" s="16">
         <v>3</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="16">
         <v>16.7</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="16">
         <v>26</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="16">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="18">
+      <c r="A70" s="16">
         <v>4.28</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="18">
+      <c r="B71" s="16">
         <v>3</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="16">
         <v>16.2</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="16">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="18">
+      <c r="A72" s="16">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="18">
+      <c r="B73" s="16">
         <v>1000</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="16">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="18">
+      <c r="A74" s="16">
         <v>5.2</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="18">
+      <c r="B75" s="16">
         <v>3</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="16">
         <v>12</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="16">
         <v>11</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="16">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="18">
+      <c r="A76" s="16">
         <v>5.3</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="18">
+      <c r="B77" s="16">
         <v>6</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="16">
         <v>9</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="16">
         <v>291</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="16">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="18">
+      <c r="A78" s="16">
         <v>5.4</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="18">
+      <c r="B79" s="16">
         <v>3</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="16">
         <v>21</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="16">
         <v>95</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="16">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="18">
+      <c r="A80" s="16">
         <v>5.5</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="18">
+      <c r="B81" s="16">
         <v>3</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="16">
         <v>12.75</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="16">
         <v>10</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="16">
         <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D83" s="18">
+      <c r="D83" s="16">
         <v>300</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="16">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="18">
+      <c r="A84" s="16">
         <v>5.9</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="18">
+      <c r="B85" s="16">
         <v>3</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="16">
         <v>9</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="16">
         <v>18</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="16">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D87" s="18">
+      <c r="D87" s="16">
         <v>200</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="16">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="18">
+      <c r="A88" s="16">
         <v>5.16</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="18">
+      <c r="B89" s="16">
         <v>10</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="16">
         <v>10.9</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="16">
         <v>10</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="16">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="18">
+      <c r="A90" s="16">
         <v>5.17</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="18">
+      <c r="B91" s="16">
         <v>3</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="16">
         <v>10.9</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="16">
         <v>19.5</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="16">
         <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="18">
+      <c r="A92" s="16">
         <v>5.18</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="18">
+      <c r="B93" s="16">
         <v>3</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="16">
         <v>16</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="16">
         <v>326.8</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="16">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="18">
+      <c r="A94" s="16">
         <v>5.19</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="18">
+      <c r="B95" s="16">
         <v>24</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="16">
         <v>16</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="16">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="28"/>
-      <c r="B97" s="18">
+      <c r="A97" s="26"/>
+      <c r="B97" s="16">
         <v>80</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="16">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="28">
+      <c r="A98" s="26">
         <v>5.22</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="28"/>
-      <c r="C99" s="18">
+      <c r="A99" s="26"/>
+      <c r="C99" s="16">
         <v>20.5</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="16">
         <v>15</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="16">
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A100" s="28">
+      <c r="A100" s="26">
         <v>5.23</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="28"/>
-      <c r="B101" s="18">
+      <c r="A101" s="26"/>
+      <c r="B101" s="16">
         <v>8</v>
       </c>
-      <c r="C101" s="18">
+      <c r="C101" s="16">
         <v>12.5</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="16">
         <v>30</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="16">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A102" s="28">
+      <c r="A102" s="26">
         <v>5.24</v>
       </c>
-      <c r="B102" s="27" t="s">
+      <c r="B102" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="28"/>
-      <c r="B103" s="18">
+      <c r="A103" s="26"/>
+      <c r="B103" s="16">
         <v>4</v>
       </c>
-      <c r="C103" s="18">
+      <c r="C103" s="16">
         <v>15</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="16">
         <v>15</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="16">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A104" s="28">
+      <c r="A104" s="26">
         <v>5.25</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="28"/>
-      <c r="B105" s="18">
+      <c r="A105" s="26"/>
+      <c r="B105" s="16">
         <v>3</v>
       </c>
-      <c r="C105" s="18">
+      <c r="C105" s="16">
         <v>14.5</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="16">
         <v>20</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="16">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="28">
+      <c r="A106" s="26">
         <v>5.26</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="17">
         <v>196.7</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="28"/>
-      <c r="B107" s="18">
+      <c r="A107" s="26"/>
+      <c r="B107" s="16">
         <v>5</v>
       </c>
-      <c r="C107" s="18">
+      <c r="C107" s="16">
         <v>9</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="16">
         <v>10</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="16">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="28"/>
-      <c r="B109" s="19">
+      <c r="A109" s="26"/>
+      <c r="B109" s="17">
         <v>600</v>
       </c>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18">
+      <c r="E109" s="16"/>
+      <c r="F109" s="16">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="28"/>
-      <c r="D111" s="18">
+      <c r="A111" s="26"/>
+      <c r="D111" s="16">
         <v>49</v>
       </c>
-      <c r="E111" s="19">
+      <c r="E111" s="17">
         <v>194.7</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="16">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="29" t="s">
+      <c r="A112" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="B112" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="18">
+      <c r="B113" s="16">
         <v>8</v>
       </c>
-      <c r="C113" s="18">
+      <c r="C113" s="16">
         <v>17.5</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="16">
         <v>88</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="17">
         <v>193</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="16">
         <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
@@ -2722,15 +2813,15 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
@@ -2739,7 +2830,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2756,7 +2847,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16">
+      <c r="A2" s="35">
         <v>4.26</v>
       </c>
       <c r="B2" s="1">
@@ -2764,7 +2855,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
+      <c r="A3" s="35">
         <v>4.2699999999999996</v>
       </c>
       <c r="B3" s="1">
@@ -2772,7 +2863,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+      <c r="A4" s="35">
         <v>5.19</v>
       </c>
       <c r="B4" s="1">
@@ -2780,7 +2871,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16">
+      <c r="A5" s="35">
         <v>5.2</v>
       </c>
       <c r="B5" s="1">
@@ -2788,7 +2879,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="35">
         <v>5.21</v>
       </c>
       <c r="B6" s="1">
@@ -2796,7 +2887,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
+      <c r="A7" s="35">
         <v>5.22</v>
       </c>
       <c r="B7" s="1">
@@ -2804,7 +2895,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
+      <c r="A8" s="35">
         <v>5.23</v>
       </c>
       <c r="B8" s="1">
@@ -2812,19 +2903,27 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
-        <v>6.01</v>
+      <c r="A9" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
-        <v>6.05</v>
+      <c r="A10" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2892,7 +2991,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3051,7 +3150,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6.6</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3469,8 +3570,8 @@
   </sheetPr>
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL33" sqref="AL33"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3482,7 +3583,8 @@
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
-    <col min="9" max="11" width="3.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="3.375" style="1" customWidth="1"/>
     <col min="12" max="33" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
@@ -3730,18 +3832,24 @@
       <c r="B9" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="I9" s="1">
+        <v>16</v>
+      </c>
       <c r="AI9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="I10" s="1">
+        <v>32</v>
+      </c>
       <c r="AI10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.15">
@@ -3812,9 +3920,12 @@
       <c r="H14" s="1">
         <v>32</v>
       </c>
+      <c r="I14" s="1">
+        <v>16</v>
+      </c>
       <c r="AI14" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
@@ -3922,9 +4033,12 @@
       <c r="H19" s="1">
         <v>100</v>
       </c>
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3983,9 +4097,12 @@
       <c r="B22" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
       <c r="AI22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4347,10 +4464,10 @@
       <c r="AI34" s="11"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="31" t="s">
         <v>97</v>
       </c>
       <c r="H35" s="1">
@@ -4364,7 +4481,7 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="29" t="s">
         <v>88</v>
       </c>
       <c r="AI37" s="1">
@@ -5312,7 +5429,7 @@
         <f>C2/915</f>
         <v>3.3879781420765025E-2</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
@@ -5602,20 +5719,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="112">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -839,6 +839,27 @@
   <si>
     <t>Times
 （时长）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-out</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilk+bun</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1573,9 +1594,9 @@
   </sheetPr>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1658,7 +1679,7 @@
       </c>
       <c r="G4" s="22">
         <f>SUM(F4:F35)</f>
-        <v>811.3</v>
+        <v>831.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1814,15 +1835,33 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <v>6.8</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>111</v>
+      </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="C16" s="22">
+        <v>17</v>
+      </c>
+      <c r="E16" s="23">
+        <v>194.1</v>
+      </c>
       <c r="F16" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.15">
@@ -2921,7 +2960,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5847,8 +5886,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5858,7 +5897,7 @@
     <col min="3" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="17" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>107</v>
       </c>
@@ -5866,7 +5905,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>101</v>
       </c>
@@ -5874,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>102</v>
       </c>
@@ -5882,15 +5921,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="17" customFormat="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>106</v>
       </c>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25020" windowHeight="14130" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="14130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <sheet name="Bood&amp;Code" sheetId="3" r:id="rId7"/>
     <sheet name="Ohter" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="125">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -177,9 +182,6 @@
     <t>fired-rice</t>
   </si>
   <si>
-    <t>ticket+ice cream</t>
-  </si>
-  <si>
     <t>193.1(noon)</t>
   </si>
   <si>
@@ -788,18 +790,123 @@
   <si>
     <t>象棋</t>
   </si>
+  <si>
+    <t>6.10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ticket+ice cream</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.11</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>noodle+egg with beer+milk</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icket</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.12</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilk+bun</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>191.8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(am)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>体操</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.12</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-out</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,153 +950,9 @@
     <font>
       <b/>
       <sz val="48"/>
-      <color theme="3" tint="0.399822992645039"/>
+      <color theme="3" tint="0.39979247413556324"/>
       <name val="Edwardian Script ITC"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="11"/>
@@ -997,8 +960,33 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,176 +1035,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1261,265 +1081,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1531,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1561,7 +1142,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1579,16 +1160,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1597,7 +1175,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1609,69 +1187,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.599993896298105"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1680,6 +1236,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1971,9 +1530,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3" tint="0.399822992645039"/>
+    <tabColor theme="3" tint="0.39979247413556324"/>
   </sheetPr>
   <dimension ref="H12:Q19"/>
   <sheetViews>
@@ -1981,118 +1540,118 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="12" customHeight="1" spans="8:17">
-      <c r="H12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-    </row>
-    <row r="13" customHeight="1" spans="8:17">
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-    </row>
-    <row r="14" customHeight="1" spans="8:17">
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-    </row>
-    <row r="15" customHeight="1" spans="8:17">
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-    </row>
-    <row r="16" customHeight="1" spans="8:17">
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-    </row>
-    <row r="17" customHeight="1" spans="8:17">
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-    </row>
-    <row r="18" customHeight="1" spans="8:17">
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-    </row>
-    <row r="19" customHeight="1" spans="8:17">
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+    <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+    </row>
+    <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+    </row>
+    <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+    </row>
+    <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H12:Q19"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -2101,21 +1660,20 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="14.1333333333333" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.3833333333333" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9" style="30"/>
+    <col min="2" max="2" width="14.125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="21" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="15.1333333333333" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="22" customWidth="1"/>
     <col min="6" max="6" width="13" style="21" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="21" customWidth="1"/>
     <col min="8" max="9" width="9" style="21"/>
-    <col min="10" max="10" width="11.1333333333333" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="21" customWidth="1"/>
     <col min="11" max="11" width="21" style="21" customWidth="1"/>
     <col min="12" max="12" width="28" style="21" customWidth="1"/>
     <col min="13" max="13" width="24.25" style="21" customWidth="1"/>
@@ -2124,52 +1682,52 @@
     <col min="16" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="34"/>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" ht="3" customHeight="1" spans="1:7">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="21">
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="30">
         <v>6.1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="21">
         <v>8</v>
       </c>
@@ -2185,11 +1743,11 @@
       </c>
       <c r="G4" s="21">
         <f>SUM(F4:F35)</f>
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="21">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
         <v>6.2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -2198,13 +1756,13 @@
       <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="29"/>
       <c r="F5" s="21">
         <f t="shared" ref="F5:F57" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -2219,17 +1777,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="29"/>
       <c r="F7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="21">
         <v>650</v>
       </c>
@@ -2238,17 +1796,17 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="21">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="30">
         <v>6.5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="21">
@@ -2256,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="21">
         <v>4</v>
       </c>
@@ -2274,17 +1832,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="1:6">
-      <c r="A11" s="21">
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="30">
         <v>6.6</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="21">
@@ -2292,7 +1850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="21">
         <v>1</v>
       </c>
@@ -2307,17 +1865,17 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="21">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="30">
         <v>6.7</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="21">
@@ -2325,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="21">
         <v>3.5</v>
       </c>
@@ -2340,14 +1898,14 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="21">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
         <v>6.8</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -2358,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="21">
         <v>3.5</v>
       </c>
@@ -2373,8 +1931,8 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="30">
         <v>6.9</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -2391,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="21">
         <v>3.2</v>
       </c>
@@ -2409,229 +1967,248 @@
         <v>225.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="21">
-        <v>6.1</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>21</v>
+      <c r="D19" s="33" t="s">
+        <v>115</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" s="21">
         <v>15</v>
       </c>
       <c r="D20" s="21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="6:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="F21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="21">
+        <v>30</v>
+      </c>
+      <c r="D22" s="21">
+        <v>50</v>
+      </c>
       <c r="F22" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>121</v>
+      </c>
       <c r="F23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="21">
+        <v>8</v>
+      </c>
+      <c r="C24" s="21">
+        <v>10</v>
+      </c>
       <c r="F24" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="31"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="31"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F38" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="31"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="F39" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="31"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F40" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="29"/>
       <c r="F41" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="31"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F42" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="29"/>
       <c r="F43" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="31"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F44" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="31"/>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F45" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="31"/>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F46" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="31"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F47" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="31"/>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F48" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="31"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F49" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="31"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B50" s="22"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21">
@@ -2639,109 +2216,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="32"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="31"/>
       <c r="F51" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="31"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F52" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="32"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="31"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
       <c r="F53" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F54" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F55" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F56" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F57" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="33" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="34"/>
+      <c r="B60" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="35"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="30">
+        <v>4.24</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="E58" s="21"/>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" ht="27" spans="1:8">
-      <c r="A60" s="23"/>
-      <c r="B60" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="26"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="21">
-        <v>4.24</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C63" s="21">
         <v>12.2</v>
       </c>
@@ -2754,28 +2330,28 @@
       </c>
       <c r="G63" s="21">
         <f>SUM(F63:F94)</f>
-        <v>2574.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="21">
+        <v>2574.5000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="30">
         <v>4.25</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="30" t="s">
-        <v>27</v>
+      <c r="D64" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="F64" s="21">
         <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B65" s="21">
         <v>3</v>
       </c>
@@ -2790,25 +2366,25 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="21">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="30">
         <v>4.26</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="F66" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B67" s="21">
         <v>3</v>
       </c>
@@ -2820,28 +2396,28 @@
       </c>
       <c r="F67" s="21">
         <f t="shared" si="1"/>
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="21">
-        <v>4.27</v>
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="30">
+        <v>4.2699999999999996</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F68" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B69" s="21">
         <v>3</v>
       </c>
@@ -2856,12 +2432,12 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="21">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="30">
         <v>4.28</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>8</v>
@@ -2871,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B71" s="21">
         <v>3</v>
       </c>
@@ -2883,25 +2459,25 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="21">
-        <v>5.1</v>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="30">
+        <v>5.0999999999999996</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F72" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B73" s="21">
         <v>1000</v>
       </c>
@@ -2910,12 +2486,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="21">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="30">
         <v>5.2</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>8</v>
@@ -2928,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B75" s="21">
         <v>3</v>
       </c>
@@ -2943,12 +2519,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="21">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="30">
         <v>5.3</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" s="21" t="s">
         <v>8</v>
@@ -2961,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" s="21">
         <v>6</v>
       </c>
@@ -2976,12 +2552,12 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="21">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="30">
         <v>5.4</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C78" s="21" t="s">
         <v>8</v>
@@ -2991,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B79" s="21">
         <v>3</v>
       </c>
@@ -3006,12 +2582,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="21">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="30">
         <v>5.5</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>8</v>
@@ -3021,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B81" s="21">
         <v>3</v>
       </c>
@@ -3036,16 +2612,16 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="21" t="s">
-        <v>32</v>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="F82" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D83" s="21">
         <v>300</v>
       </c>
@@ -3054,12 +2630,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="21">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="30">
         <v>5.9</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" s="21" t="s">
         <v>8</v>
@@ -3072,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B85" s="21">
         <v>3</v>
       </c>
@@ -3087,16 +2663,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" ht="27" spans="1:6">
-      <c r="A86" s="21" t="s">
-        <v>33</v>
+    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="F86" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D87" s="21">
         <v>200</v>
       </c>
@@ -3105,12 +2681,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="21">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="30">
         <v>5.16</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>8</v>
@@ -3123,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B89" s="21">
         <v>10</v>
       </c>
@@ -3138,12 +2714,12 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="21">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="30">
         <v>5.17</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>8</v>
@@ -3156,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B91" s="21">
         <v>3</v>
       </c>
@@ -3171,25 +2747,25 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="21">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="30">
         <v>5.18</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F92" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B93" s="21">
         <v>3</v>
       </c>
@@ -3204,12 +2780,12 @@
         <v>345.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="21">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="30">
         <v>5.19</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" s="21" t="s">
         <v>8</v>
@@ -3219,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B95" s="21">
         <v>24</v>
       </c>
@@ -3231,20 +2807,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="31" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="F96" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="31"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B97" s="21">
         <v>80</v>
       </c>
@@ -3253,23 +2828,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="31">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="30">
         <v>5.22</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="29" t="s">
         <v>39</v>
-      </c>
-      <c r="D98" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="F98" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="31"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C99" s="21">
         <v>20.5</v>
       </c>
@@ -3281,26 +2855,25 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="100" ht="27" spans="1:6">
-      <c r="A100" s="31">
+    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A100" s="30">
         <v>5.23</v>
       </c>
-      <c r="B100" s="30" t="s">
-        <v>41</v>
+      <c r="B100" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="C100" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F100" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="31"/>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B101" s="21">
         <v>8</v>
       </c>
@@ -3315,26 +2888,25 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="102" ht="27" spans="1:6">
-      <c r="A102" s="31">
+    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A102" s="30">
         <v>5.24</v>
       </c>
-      <c r="B102" s="30" t="s">
-        <v>43</v>
+      <c r="B102" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="C102" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F102" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="31"/>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B103" s="21">
         <v>4</v>
       </c>
@@ -3349,26 +2921,25 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" ht="27" spans="1:6">
-      <c r="A104" s="31">
+    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A104" s="30">
         <v>5.25</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C104" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F104" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="31"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B105" s="21">
         <v>3</v>
       </c>
@@ -3383,18 +2954,18 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="31">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="30">
         <v>5.26</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C106" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E106" s="22">
         <v>196.7</v>
@@ -3404,8 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="31"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B107" s="21">
         <v>5</v>
       </c>
@@ -3420,17 +2990,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="31" t="s">
-        <v>49</v>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="F108" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="31"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B109" s="22">
         <v>600</v>
       </c>
@@ -3440,17 +3009,16 @@
         <v>600</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="32" t="s">
-        <v>50</v>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="F110" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="31"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D111" s="21">
         <v>49</v>
       </c>
@@ -3462,25 +3030,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="32" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B112" s="30" t="s">
+      <c r="C112" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="D112" s="29" t="s">
         <v>53</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>54</v>
       </c>
       <c r="F112" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="21">
         <v>8</v>
       </c>
@@ -3499,8 +3067,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:F500">
-    <cfRule type="expression" dxfId="0" priority="35">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3509,14 +3078,13 @@
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3526,34 +3094,34 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>4.26</v>
       </c>
@@ -3561,15 +3129,15 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="B3" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>5.19</v>
       </c>
@@ -3577,7 +3145,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>5.2</v>
       </c>
@@ -3585,7 +3153,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5.21</v>
       </c>
@@ -3593,7 +3161,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>5.22</v>
       </c>
@@ -3601,7 +3169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>5.23</v>
       </c>
@@ -3609,40 +3177,40 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.149876400036622"/>
+    <tabColor theme="0" tint="-0.1498458815271462"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3650,32 +3218,32 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>4.26</v>
       </c>
@@ -3685,69 +3253,69 @@
       <c r="E2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:10">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>5.22</v>
       </c>
@@ -3759,11 +3327,11 @@
       </c>
       <c r="F2" s="18">
         <f>SUM(B2:B42)</f>
-        <v>13.7</v>
+        <v>14.799999999999999</v>
       </c>
       <c r="G2" s="18">
         <f>SUM(C2:C42)</f>
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H2" s="18">
         <f>SUM(D2:D42)</f>
@@ -3771,14 +3339,14 @@
       </c>
       <c r="I2" s="18">
         <f>SUM(E2:E42)</f>
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J2" s="19">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>7.4333333333333321E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>5.23</v>
       </c>
@@ -3793,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>5.24</v>
       </c>
@@ -3805,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>5.25</v>
       </c>
@@ -3817,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5.26</v>
       </c>
@@ -3829,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6.6</v>
       </c>
@@ -3847,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>6.8</v>
       </c>
@@ -3865,9 +3433,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>2.5</v>
@@ -3880,205 +3448,221 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>0.2</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.1</v>
+      </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="10:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="10:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:10">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="10:10">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="10:10">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AI70"/>
+  <dimension ref="A1:AI72"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.8833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="3.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.13333333333333" style="1" customWidth="1"/>
-    <col min="10" max="11" width="3.38333333333333" style="1" customWidth="1"/>
-    <col min="12" max="33" width="3.38333333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="3.75" style="1" customWidth="1"/>
+    <col min="16" max="21" width="3.375" style="1" customWidth="1"/>
+    <col min="22" max="33" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:35">
+    <row r="1" spans="1:35" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -4174,19 +3758,19 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="5.25" customHeight="1" spans="1:35">
+    <row r="3" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4226,12 +3810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -4241,22 +3825,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="35:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="AI6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="3.75" customHeight="1" spans="1:35">
+    <row r="7" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -4296,21 +3880,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="AI8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="AI8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35">
-      <c r="B9" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -4320,9 +3904,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -4332,16 +3916,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="4.5" customHeight="1" spans="1:35">
+    <row r="12" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -4381,21 +3965,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -4408,16 +3992,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="3.75" customHeight="1" spans="1:35">
+    <row r="16" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4457,16 +4041,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="3" customHeight="1" spans="1:35">
+    <row r="18" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4506,9 +4090,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -4516,12 +4100,15 @@
       <c r="I19" s="1">
         <v>100</v>
       </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" ht="3.75" customHeight="1" spans="1:35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4561,21 +4148,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="AI21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B22" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="AI21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:35">
-      <c r="B22" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -4585,7 +4172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="4.5" customHeight="1" spans="1:35">
+    <row r="23" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -4625,12 +4212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.95" customHeight="1" spans="1:35">
+    <row r="24" spans="1:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -4669,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:35">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -4709,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="5.1" customHeight="1" spans="1:35">
+    <row r="26" spans="1:35" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -4749,16 +4336,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="3" customHeight="1" spans="1:35">
+    <row r="28" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4798,16 +4385,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="M29" s="1">
+        <v>100</v>
       </c>
       <c r="AI29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="3" customHeight="1" spans="1:35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4847,17 +4437,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="4"/>
+      <c r="M31" s="1">
+        <v>15</v>
+      </c>
+      <c r="N31" s="1">
+        <v>30</v>
+      </c>
       <c r="AI31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="3" customHeight="1" spans="1:35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4897,16 +4493,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="4.5" customHeight="1" spans="1:35">
+    <row r="34" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4943,413 +4539,410 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="35:35">
-      <c r="AI36" s="1">
-        <f t="shared" ref="AI36:AI37" si="1">SUM(C36:AH36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="1:35">
-      <c r="A37" s="15" t="s">
+      <c r="N35" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A37" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="M37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI38" s="1">
+        <f t="shared" ref="AI38:AI39" si="1">SUM(C38:AH38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="3">
+        <v>22</v>
+      </c>
+      <c r="E40" s="3">
         <v>23</v>
       </c>
-      <c r="AI37" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="27.75" spans="1:35">
-      <c r="A38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="F40" s="3">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3">
+        <v>25</v>
+      </c>
+      <c r="H40" s="3">
+        <v>26</v>
+      </c>
+      <c r="I40" s="3">
+        <v>27</v>
+      </c>
+      <c r="J40" s="3">
+        <v>28</v>
+      </c>
+      <c r="K40" s="3">
+        <v>29</v>
+      </c>
+      <c r="L40" s="3">
+        <v>30</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3">
+        <v>31</v>
+      </c>
+      <c r="AI40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="3">
-        <v>22</v>
-      </c>
-      <c r="E38" s="3">
-        <v>23</v>
-      </c>
-      <c r="F38" s="3">
-        <v>24</v>
-      </c>
-      <c r="G38" s="3">
-        <v>25</v>
-      </c>
-      <c r="H38" s="3">
-        <v>26</v>
-      </c>
-      <c r="I38" s="3">
-        <v>27</v>
-      </c>
-      <c r="J38" s="3">
-        <v>28</v>
-      </c>
-      <c r="K38" s="3">
-        <v>29</v>
-      </c>
-      <c r="L38" s="3">
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1">
+        <v>240</v>
+      </c>
+      <c r="D43" s="1">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1">
+        <v>80</v>
+      </c>
+      <c r="H43" s="1">
         <v>30</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3">
-        <v>31</v>
-      </c>
-      <c r="AI38" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AF40" s="11"/>
-      <c r="AG40" s="11"/>
-      <c r="AH40" s="11"/>
-      <c r="AI40" s="11"/>
-    </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="AH43" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI43" s="1">
+        <f t="shared" ref="AI43:AI72" si="2">SUM(C43:AH43)</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B44" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="1">
-        <v>240</v>
-      </c>
-      <c r="D41" s="1">
-        <v>20</v>
-      </c>
-      <c r="E41" s="1">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1">
-        <v>80</v>
-      </c>
-      <c r="H41" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>30</v>
-      </c>
-      <c r="AI41" s="1">
-        <f t="shared" ref="AI41:AI70" si="2">SUM(C41:AH41)</f>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="2:35">
-      <c r="B42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI42" s="1">
+      <c r="AI44" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="35:35">
-      <c r="AI43" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="1">
-        <v>64</v>
-      </c>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
       <c r="AI45" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1">
         <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="2:35">
-      <c r="B46" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI46" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:35">
-      <c r="B47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="1">
-        <v>32</v>
       </c>
       <c r="AI47" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="2:35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="1">
-        <v>32</v>
-      </c>
-      <c r="D48" s="1">
-        <v>32</v>
-      </c>
-      <c r="G48" s="1">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI49" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1">
+        <v>32</v>
+      </c>
+      <c r="G50" s="1">
         <v>32</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="2:35">
-      <c r="B51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E51" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI51" s="1">
+      <c r="AI52" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="2:35">
-      <c r="B52" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="1">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI53" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="1">
         <v>8</v>
       </c>
-      <c r="AI52" s="1">
+      <c r="AI54" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35">
-      <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI54" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -5389,34 +4982,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="1">
-        <v>20</v>
-      </c>
-      <c r="D56" s="1">
-        <v>50</v>
-      </c>
-      <c r="E56" s="1">
-        <v>40</v>
-      </c>
-      <c r="G56" s="1">
-        <v>50</v>
-      </c>
-      <c r="H56" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH56" s="1">
-        <v>30</v>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="AI56" s="1">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5456,217 +5034,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>95</v>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A58" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C58" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D58" s="1">
+        <v>50</v>
+      </c>
+      <c r="E58" s="1">
+        <v>40</v>
+      </c>
+      <c r="G58" s="1">
+        <v>50</v>
+      </c>
+      <c r="H58" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>30</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="2:35">
-      <c r="B59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="AI60" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="1">
         <v>20</v>
       </c>
-      <c r="AI59" s="1">
+      <c r="AI61" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="11"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="11"/>
-      <c r="AI60" s="11">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
-      <c r="A61" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="13">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A63" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="13">
         <v>5</v>
       </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="1">
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="13"/>
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
+      <c r="AC63" s="13"/>
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="13"/>
+      <c r="AF63" s="13"/>
+      <c r="AG63" s="13"/>
+      <c r="AH63" s="13"/>
+      <c r="AI63" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
-      <c r="A63" s="11"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-      <c r="AI63" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
-      <c r="A64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="1">
-        <v>120</v>
-      </c>
-      <c r="G64" s="1">
-        <v>20</v>
-      </c>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="13"/>
+      <c r="Z64" s="13"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="13"/>
+      <c r="AC64" s="13"/>
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="13"/>
+      <c r="AF64" s="13"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="13"/>
       <c r="AI64" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -5704,22 +5294,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="1">
+        <v>97</v>
+      </c>
+      <c r="C66" s="1">
         <v>120</v>
       </c>
-      <c r="AH66" s="1">
-        <v>100</v>
+      <c r="G66" s="1">
+        <v>20</v>
       </c>
       <c r="AI66" s="1">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -5759,19 +5349,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="1">
+        <v>120</v>
+      </c>
+      <c r="AH68" s="1">
         <v>100</v>
-      </c>
-      <c r="D68" s="4">
-        <v>5</v>
       </c>
       <c r="AI68" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5811,27 +5404,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" s="1">
-        <v>20</v>
+        <v>99</v>
+      </c>
+      <c r="D70" s="4">
+        <v>5</v>
       </c>
       <c r="AI70" s="1">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="1">
         <v>20</v>
       </c>
+      <c r="AI72" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5841,61 +5486,61 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6333333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:12">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>4.26</v>
       </c>
@@ -5907,11 +5552,11 @@
       </c>
       <c r="F2" s="5">
         <f>C2/915</f>
-        <v>0.033879781420765</v>
+        <v>3.3879781420765025E-2</v>
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>4.28</v>
       </c>
@@ -5926,10 +5571,10 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F23" si="0">C3/915</f>
-        <v>0.0655737704918033</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>5.2</v>
       </c>
@@ -5944,10 +5589,10 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>0.0983606557377049</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>9.8360655737704916E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>5.19</v>
       </c>
@@ -5956,25 +5601,25 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.984699453551913</v>
-      </c>
-    </row>
-    <row r="8" hidden="1"/>
-    <row r="9" hidden="1"/>
-    <row r="10" hidden="1"/>
-    <row r="11" hidden="1"/>
-    <row r="12" hidden="1"/>
-    <row r="13" hidden="1"/>
-    <row r="14" hidden="1"/>
-    <row r="15" hidden="1"/>
-    <row r="16" hidden="1"/>
-    <row r="17" hidden="1" spans="6:6">
+        <v>0.98469945355191257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="2:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5992,45 +5637,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="27.75" spans="1:12">
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>5.22</v>
       </c>
@@ -6049,10 +5694,10 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(I20:I42)/256</f>
-        <v>0.033984375</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10">
+        <v>3.3984374999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6067,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6082,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6094,7 +5739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="6:9">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F24" s="5">
         <f t="shared" ref="F24:F38" si="2">C24/915</f>
         <v>0</v>
@@ -6106,155 +5751,154 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F31" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F34" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F35" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F36" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F37" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F38" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.13333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" spans="1:2">
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25020" windowHeight="14130" activeTab="4"/>
+    <workbookView windowWidth="26148" windowHeight="14244" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
     <sheet name="Bood&amp;Code" sheetId="3" r:id="rId7"/>
     <sheet name="Ohter" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -179,10 +174,106 @@
     <t>noodle+milk+hair cut</t>
   </si>
   <si>
+    <t>6.10</t>
+  </si>
+  <si>
     <t>fired-rice</t>
   </si>
   <si>
+    <t>ticket+ice cream</t>
+  </si>
+  <si>
     <t>193.1(noon)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.11</t>
+    </r>
+  </si>
+  <si>
+    <t>noodle+egg with beer+milk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>icket</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.12</t>
+    </r>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>191.8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(am)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -528,10 +619,10 @@
 （说读时长）</t>
   </si>
   <si>
-    <t>6.10</t>
-  </si>
-  <si>
     <t>6.11</t>
+  </si>
+  <si>
+    <t>6.12</t>
   </si>
   <si>
     <t>Project
@@ -683,6 +774,9 @@
     <t>耸肩</t>
   </si>
   <si>
+    <t>体操</t>
+  </si>
+  <si>
     <t>30s</t>
   </si>
   <si>
@@ -790,123 +884,18 @@
   <si>
     <t>象棋</t>
   </si>
-  <si>
-    <t>6.10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ticket+ice cream</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.11</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>noodle+egg with beer+milk</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icket</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.12</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ilk+bun</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>191.8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(am)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>体操</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.12</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>take-out</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,9 +939,153 @@
     <font>
       <b/>
       <sz val="48"/>
-      <color theme="3" tint="0.39979247413556324"/>
+      <color theme="3" tint="0.399792474135563"/>
       <name val="Edwardian Script ITC"/>
-      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -961,32 +1094,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,8 +1151,176 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1081,26 +1365,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1142,7 +1665,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1154,20 +1677,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1175,59 +1707,78 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1236,9 +1787,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1530,9 +2078,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <tabColor theme="3" tint="0.39979247413556324"/>
+    <tabColor theme="3" tint="0.399792474135563"/>
   </sheetPr>
   <dimension ref="H12:Q19"/>
   <sheetViews>
@@ -1540,118 +2088,118 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H12" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-    </row>
-    <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-    </row>
-    <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-    </row>
-    <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-    </row>
-    <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-    </row>
-    <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-    </row>
-    <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
+    <row r="12" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" spans="8:17">
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H12:Q19"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -1660,1416 +2208,1422 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="30"/>
-    <col min="2" max="2" width="14.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13" style="21" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="21" customWidth="1"/>
-    <col min="8" max="9" width="9" style="21"/>
-    <col min="10" max="10" width="11.125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="21" style="21" customWidth="1"/>
-    <col min="12" max="12" width="28" style="21" customWidth="1"/>
-    <col min="13" max="13" width="24.25" style="21" customWidth="1"/>
-    <col min="14" max="14" width="9" style="21"/>
-    <col min="15" max="15" width="11" style="21" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="9" style="21"/>
+    <col min="2" max="2" width="14.1296296296296" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.3796296296296" style="22" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.1296296296296" style="23" customWidth="1"/>
+    <col min="6" max="6" width="13" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="22" customWidth="1"/>
+    <col min="8" max="9" width="9" style="22"/>
+    <col min="10" max="10" width="11.1296296296296" style="22" customWidth="1"/>
+    <col min="11" max="11" width="21" style="22" customWidth="1"/>
+    <col min="12" max="12" width="28" style="22" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="22" customWidth="1"/>
+    <col min="14" max="14" width="9" style="22"/>
+    <col min="15" max="15" width="11" style="22" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="34"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" ht="28.8" spans="1:8">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="30">
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" ht="3" customHeight="1" spans="1:7">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="21">
         <v>6.1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="21">
+    <row r="4" spans="2:7">
+      <c r="B4" s="22">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="22">
         <v>20</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="22">
         <v>17</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="22">
         <f>SUM(B4:D4)</f>
         <v>45</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <f>SUM(F4:F35)</f>
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
+        <v>1195.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="21">
         <v>6.2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="F5" s="21">
+      <c r="D5" s="32"/>
+      <c r="F5" s="22">
         <f t="shared" ref="F5:F57" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="21">
+    <row r="6" spans="2:6">
+      <c r="B6" s="22">
         <v>4</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="22">
         <v>20</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>194.7</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="F7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="21">
+      <c r="C7" s="32"/>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="22">
         <v>650</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="22">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
+    <row r="9" spans="1:6">
+      <c r="A9" s="21">
         <v>6.5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="21">
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="22">
         <v>4</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="22">
         <v>16</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="22">
         <v>20</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>194.3</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="30">
+    <row r="11" ht="28.8" spans="1:6">
+      <c r="A11" s="21">
         <v>6.6</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="21">
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="22">
         <v>1</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="22">
         <v>15.8</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>20</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <v>194.6</v>
       </c>
-      <c r="F12" s="21">
-        <f t="shared" si="0"/>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="21">
         <v>6.7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="21">
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="22">
         <v>3.5</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="22">
         <v>12</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
         <v>194.7</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="22">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="30">
+    <row r="15" spans="1:6">
+      <c r="A15" s="21">
         <v>6.8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="21">
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="22">
         <v>3.5</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="22">
         <v>17</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="22">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="30">
+    <row r="17" spans="1:6">
+      <c r="A17" s="21">
         <v>6.9</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="21">
+      <c r="F17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="22">
         <v>3.2</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="22">
         <v>10</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="22">
         <v>212</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="22">
         <f t="shared" si="0"/>
         <v>225.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="21" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="21">
+      <c r="C19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="22">
         <v>15</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="22">
         <v>15</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="E20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="21">
+    <row r="21" spans="1:6">
+      <c r="A21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="22">
         <v>30</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>50</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="22">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="21">
+    <row r="23" spans="1:6">
+      <c r="A23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="21">
+      <c r="D23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="22">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22">
         <v>10</v>
       </c>
-      <c r="F24" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F25" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F26" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F27" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F28" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F29" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F30" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F31" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F32" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F33" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F34" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F35" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F36" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F37" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F38" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="F39" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F40" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="29"/>
-      <c r="F41" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F42" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="29"/>
-      <c r="F43" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F44" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F45" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F46" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F47" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F48" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F49" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="22"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="F51" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F52" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="F53" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F54" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F55" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F56" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F57" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="21"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="34"/>
-      <c r="B60" s="23" t="s">
+      <c r="D24" s="22">
+        <v>10.8</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="F39" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="32"/>
+      <c r="F41" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="32"/>
+      <c r="F43" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="23"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="33"/>
+      <c r="F51" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="33"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="F53" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" ht="28.8" spans="1:8">
+      <c r="A60" s="24"/>
+      <c r="B60" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G60" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="25"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="30">
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="21">
         <v>4.24</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C63" s="21">
+      <c r="D62" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="22">
         <v>12.2</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D63" s="22">
         <v>12</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="22">
         <f>SUM(B63:D63)</f>
         <v>24.2</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G63" s="22">
         <f>SUM(F63:F94)</f>
-        <v>2574.5000000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="30">
+        <v>2574.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="21">
         <v>4.25</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="21">
+      <c r="D64" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="22">
         <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="21">
+    <row r="65" spans="2:6">
+      <c r="B65" s="22">
         <v>3</v>
       </c>
-      <c r="C65" s="21">
+      <c r="C65" s="22">
         <v>10.85</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="22">
         <v>18</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="22">
         <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="30">
+    <row r="66" spans="1:6">
+      <c r="A66" s="21">
         <v>4.26</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="21">
+      <c r="B66" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="21">
+    <row r="67" spans="2:6">
+      <c r="B67" s="22">
         <v>3</v>
       </c>
-      <c r="C67" s="21">
+      <c r="C67" s="22">
         <v>14</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="22">
         <v>19.7</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="22">
         <f t="shared" si="1"/>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="30">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="21" t="s">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="21">
+        <v>4.27</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F68" s="21">
+      <c r="D68" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="21">
+    <row r="69" spans="2:6">
+      <c r="B69" s="22">
         <v>3</v>
       </c>
-      <c r="C69" s="21">
+      <c r="C69" s="22">
         <v>16.7</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="22">
         <v>26</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="22">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="30">
+    <row r="70" spans="1:6">
+      <c r="A70" s="21">
         <v>4.28</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="21">
+    <row r="71" spans="2:6">
+      <c r="B71" s="22">
         <v>3</v>
       </c>
-      <c r="C71" s="21">
+      <c r="C71" s="22">
         <v>16.2</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="22">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="30">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="21">
+    <row r="72" spans="1:6">
+      <c r="A72" s="21">
+        <v>5.1</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="21">
+    <row r="73" spans="2:6">
+      <c r="B73" s="22">
         <v>1000</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="22">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="30">
+    <row r="74" spans="1:6">
+      <c r="A74" s="21">
         <v>5.2</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="21">
+    <row r="75" spans="2:6">
+      <c r="B75" s="22">
         <v>3</v>
       </c>
-      <c r="C75" s="21">
+      <c r="C75" s="22">
         <v>12</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="22">
         <v>11</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="22">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="30">
+    <row r="76" spans="1:6">
+      <c r="A76" s="21">
         <v>5.3</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="D76" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="21">
+    <row r="77" spans="2:6">
+      <c r="B77" s="22">
         <v>6</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C77" s="22">
         <v>9</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="22">
         <v>291</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="22">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="30">
+    <row r="78" spans="1:6">
+      <c r="A78" s="21">
         <v>5.4</v>
       </c>
-      <c r="B78" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="21">
+    <row r="79" spans="2:6">
+      <c r="B79" s="22">
         <v>3</v>
       </c>
-      <c r="C79" s="21">
+      <c r="C79" s="22">
         <v>21</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="22">
         <v>95</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="22">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="30">
+    <row r="80" spans="1:6">
+      <c r="A80" s="21">
         <v>5.5</v>
       </c>
-      <c r="B80" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="21">
+    <row r="81" spans="2:6">
+      <c r="B81" s="22">
         <v>3</v>
       </c>
-      <c r="C81" s="21">
+      <c r="C81" s="22">
         <v>12.75</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="22">
         <v>10</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="22">
         <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="21">
+    <row r="82" spans="1:6">
+      <c r="A82" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D83" s="21">
+    <row r="83" spans="4:6">
+      <c r="D83" s="22">
         <v>300</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="22">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="30">
+    <row r="84" spans="1:6">
+      <c r="A84" s="21">
         <v>5.9</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="D84" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="21">
+    <row r="85" spans="2:6">
+      <c r="B85" s="22">
         <v>3</v>
       </c>
-      <c r="C85" s="21">
+      <c r="C85" s="22">
         <v>9</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D85" s="22">
         <v>18</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="22">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F86" s="21">
+    <row r="86" ht="28.8" spans="1:6">
+      <c r="A86" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D87" s="21">
+    <row r="87" spans="4:6">
+      <c r="D87" s="22">
         <v>200</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="22">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="30">
+    <row r="88" spans="1:6">
+      <c r="A88" s="21">
         <v>5.16</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C88" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="21">
+    <row r="89" spans="2:6">
+      <c r="B89" s="22">
         <v>10</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="22">
         <v>10.9</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="22">
         <v>10</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="22">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="30">
+    <row r="90" spans="1:6">
+      <c r="A90" s="21">
         <v>5.17</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="D90" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="21">
+    <row r="91" spans="2:6">
+      <c r="B91" s="22">
         <v>3</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="22">
         <v>10.9</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="22">
         <v>19.5</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="22">
         <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="30">
+    <row r="92" spans="1:6">
+      <c r="A92" s="21">
         <v>5.18</v>
       </c>
-      <c r="B92" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F92" s="21">
+      <c r="D92" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="21">
+    <row r="93" spans="2:6">
+      <c r="B93" s="22">
         <v>3</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="22">
         <v>16</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="22">
         <v>326.8</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="22">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="30">
+    <row r="94" spans="1:6">
+      <c r="A94" s="21">
         <v>5.19</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C94" s="21" t="s">
+      <c r="B94" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="21">
+    <row r="95" spans="2:6">
+      <c r="B95" s="22">
         <v>24</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="22">
         <v>16</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="22">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F96" s="21">
+    <row r="96" spans="1:6">
+      <c r="A96" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F96" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="21">
+    <row r="97" spans="2:6">
+      <c r="B97" s="22">
         <v>80</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="22">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="30">
+    <row r="98" spans="1:6">
+      <c r="A98" s="21">
         <v>5.22</v>
       </c>
-      <c r="C98" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="21">
+      <c r="C98" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C99" s="21">
+    <row r="99" spans="3:6">
+      <c r="C99" s="22">
         <v>20.5</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="22">
         <v>15</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="22">
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A100" s="30">
+    <row r="100" ht="28.8" spans="1:6">
+      <c r="A100" s="21">
         <v>5.23</v>
       </c>
-      <c r="B100" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C100" s="21" t="s">
+      <c r="B100" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100" s="21">
+      <c r="D100" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="21">
+    <row r="101" spans="2:6">
+      <c r="B101" s="22">
         <v>8</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="22">
         <v>12.5</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="22">
         <v>30</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="22">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A102" s="30">
+    <row r="102" ht="28.8" spans="1:6">
+      <c r="A102" s="21">
         <v>5.24</v>
       </c>
-      <c r="B102" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="21" t="s">
+      <c r="B102" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F102" s="21">
+      <c r="D102" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="21">
+    <row r="103" spans="2:6">
+      <c r="B103" s="22">
         <v>4</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="22">
         <v>15</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="22">
         <v>15</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="22">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A104" s="30">
+    <row r="104" ht="28.8" spans="1:6">
+      <c r="A104" s="21">
         <v>5.25</v>
       </c>
-      <c r="B104" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C104" s="21" t="s">
+      <c r="B104" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F104" s="21">
+      <c r="D104" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F104" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="21">
+    <row r="105" spans="2:6">
+      <c r="B105" s="22">
         <v>3</v>
       </c>
-      <c r="C105" s="21">
+      <c r="C105" s="22">
         <v>14.5</v>
       </c>
-      <c r="D105" s="21">
+      <c r="D105" s="22">
         <v>20</v>
       </c>
-      <c r="F105" s="21">
+      <c r="F105" s="22">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="30">
+    <row r="106" spans="1:6">
+      <c r="A106" s="21">
         <v>5.26</v>
       </c>
-      <c r="B106" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" s="21" t="s">
+      <c r="B106" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E106" s="22">
+      <c r="D106" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="23">
         <v>196.7</v>
       </c>
-      <c r="F106" s="21">
+      <c r="F106" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="21">
+    <row r="107" spans="2:6">
+      <c r="B107" s="22">
         <v>5</v>
       </c>
-      <c r="C107" s="21">
+      <c r="C107" s="22">
         <v>9</v>
       </c>
-      <c r="D107" s="21">
+      <c r="D107" s="22">
         <v>10</v>
       </c>
-      <c r="F107" s="21">
+      <c r="F107" s="22">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F108" s="21">
+    <row r="108" spans="1:6">
+      <c r="A108" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F108" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="22">
+    <row r="109" spans="2:6">
+      <c r="B109" s="23">
         <v>600</v>
       </c>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21">
+      <c r="E109" s="22"/>
+      <c r="F109" s="22">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="31" t="s">
+    <row r="110" spans="1:6">
+      <c r="A110" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F110" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6">
+      <c r="D111" s="22">
         <v>49</v>
       </c>
-      <c r="F110" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D111" s="21">
-        <v>49</v>
-      </c>
-      <c r="E111" s="22">
+      <c r="E111" s="23">
         <v>194.7</v>
       </c>
-      <c r="F111" s="21">
+      <c r="F111" s="22">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F112" s="21">
+    <row r="112" spans="1:6">
+      <c r="A112" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="21">
+    <row r="113" spans="2:6">
+      <c r="B113" s="22">
         <v>8</v>
       </c>
-      <c r="C113" s="21">
+      <c r="C113" s="22">
         <v>17.5</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="22">
         <v>88</v>
       </c>
-      <c r="E113" s="22">
+      <c r="E113" s="23">
         <v>193</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="22">
         <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A3:F500">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3078,13 +3632,14 @@
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3094,34 +3649,34 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="16">
         <v>4.26</v>
       </c>
@@ -3129,15 +3684,15 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="16">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="B3" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="16">
         <v>5.19</v>
       </c>
@@ -3145,7 +3700,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="16">
         <v>5.2</v>
       </c>
@@ -3153,7 +3708,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="16">
         <v>5.21</v>
       </c>
@@ -3161,7 +3716,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="16">
         <v>5.22</v>
       </c>
@@ -3169,7 +3724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="16">
         <v>5.23</v>
       </c>
@@ -3177,40 +3732,40 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <tabColor theme="0" tint="-0.1498458815271462"/>
+    <tabColor theme="0" tint="-0.149845881527146"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3218,32 +3773,32 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="29.55" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>4.26</v>
       </c>
@@ -3253,69 +3808,69 @@
       <c r="E2" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="29.55" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="16">
         <v>5.22</v>
       </c>
@@ -3327,11 +3882,11 @@
       </c>
       <c r="F2" s="18">
         <f>SUM(B2:B42)</f>
-        <v>14.799999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="G2" s="18">
         <f>SUM(C2:C42)</f>
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H2" s="18">
         <f>SUM(D2:D42)</f>
@@ -3339,14 +3894,14 @@
       </c>
       <c r="I2" s="18">
         <f>SUM(E2:E42)</f>
-        <v>4.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="J2" s="19">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>7.4333333333333321E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="16">
         <v>5.23</v>
       </c>
@@ -3361,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="16">
         <v>5.24</v>
       </c>
@@ -3373,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="16">
         <v>5.25</v>
       </c>
@@ -3385,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="16">
         <v>5.26</v>
       </c>
@@ -3397,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="16">
         <v>6.6</v>
       </c>
@@ -3415,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="16">
         <v>6.8</v>
       </c>
@@ -3433,9 +3988,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="16" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>2.5</v>
@@ -3448,9 +4003,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -3466,165 +4021,165 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="16" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="C11" s="1">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="10:10">
       <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="10:10">
       <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="10:10">
       <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="10:10">
       <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="10:10">
       <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="10:10">
       <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:10">
       <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:10">
       <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="10:10">
       <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="10:10">
       <c r="J21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="10:10">
       <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="10:10">
       <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="10:10">
       <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="10:10">
       <c r="J25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="10:10">
       <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="10:10">
       <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="10:10">
       <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="10:10">
       <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="10:10">
       <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="10:10">
       <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="10:10">
       <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:10">
       <c r="J33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -3634,35 +4189,35 @@
       <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="3.375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.875" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.12962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.37962962962963" style="1" customWidth="1"/>
     <col min="15" max="15" width="3.75" style="1" customWidth="1"/>
-    <col min="16" max="21" width="3.375" style="1" customWidth="1"/>
-    <col min="22" max="33" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="3.37962962962963" style="1" customWidth="1"/>
+    <col min="22" max="33" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="29.55" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -3758,19 +4313,19 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="5.25" customHeight="1" spans="1:35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3810,12 +4365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -3825,22 +4380,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="6" spans="35:35">
       <c r="AI6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="3.75" customHeight="1" spans="1:35">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3880,21 +4435,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -3904,9 +4459,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -3916,16 +4471,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="4.5" customHeight="1" spans="1:35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3965,21 +4520,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -3992,16 +4547,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="3.75" customHeight="1" spans="1:35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4041,16 +4596,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="3" customHeight="1" spans="1:35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4090,9 +4645,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35">
       <c r="A19" s="12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -4108,7 +4663,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="3.75" customHeight="1" spans="1:35">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4148,21 +4703,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -4172,7 +4727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="4.5" customHeight="1" spans="1:35">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -4212,12 +4767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="15.95" customHeight="1" spans="1:35">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -4256,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="18" customHeight="1" spans="1:35">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -4296,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="5.1" customHeight="1" spans="1:35">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -4336,16 +4891,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="3" customHeight="1" spans="1:35">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4385,9 +4940,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -4397,7 +4952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="3" customHeight="1" spans="1:35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4437,9 +4992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -4453,7 +5008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="3" customHeight="1" spans="1:35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4493,16 +5048,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="4.5" customHeight="1" spans="1:35">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4539,12 +5094,12 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -4553,7 +5108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="4.5" customHeight="1" spans="1:35">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4590,39 +5145,39 @@
       <c r="AH36" s="10"/>
       <c r="AI36" s="10"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
-        <v>122</v>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="35:35">
       <c r="AI38" s="1">
         <f t="shared" ref="AI38:AI39" si="1">SUM(C38:AH38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="39" ht="15.15" spans="1:35">
       <c r="A39" s="15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AI39" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" ht="29.55" spans="1:35">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D40" s="3">
         <v>22</v>
@@ -4676,18 +5231,18 @@
         <v>31</v>
       </c>
       <c r="AI40" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D41" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4724,12 +5279,12 @@
       <c r="AH42" s="11"/>
       <c r="AI42" s="11"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35">
       <c r="A43" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1">
         <v>240</v>
@@ -4754,22 +5309,22 @@
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:35">
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI44" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="35:35">
       <c r="AI45" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4809,12 +5364,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35">
       <c r="A47" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1">
         <v>64</v>
@@ -4824,18 +5379,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:35">
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AI48" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:35">
       <c r="B49" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D49" s="1">
         <v>32</v>
@@ -4845,9 +5400,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1">
         <v>32</v>
@@ -4863,7 +5418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -4903,12 +5458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H52" s="1">
         <v>32</v>
@@ -4918,9 +5473,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:35">
       <c r="B53" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E53" s="1">
         <v>32</v>
@@ -4930,9 +5485,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:35">
       <c r="B54" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C54" s="1">
         <v>8</v>
@@ -4942,7 +5497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -4982,19 +5537,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AI56" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5034,9 +5589,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35">
       <c r="A58" s="12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1">
         <v>20</v>
@@ -5061,7 +5616,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5101,12 +5656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C60" s="1">
         <v>10</v>
@@ -5116,9 +5671,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:35">
       <c r="B61" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D61" s="1">
         <v>20</v>
@@ -5128,7 +5683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35">
       <c r="A62" s="11"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
@@ -5168,12 +5723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35">
       <c r="A63" s="13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C63" s="13">
         <v>5</v>
@@ -5214,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="13"/>
@@ -5254,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35">
       <c r="A65" s="11"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
@@ -5294,9 +5849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C66" s="1">
         <v>120</v>
@@ -5309,7 +5864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -5349,9 +5904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D68" s="1">
         <v>120</v>
@@ -5364,7 +5919,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5404,9 +5959,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35">
       <c r="A70" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D70" s="4">
         <v>5</v>
@@ -5416,7 +5971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5456,9 +6011,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1">
         <v>20</v>
@@ -5469,14 +6024,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -5486,61 +6041,61 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6296296296296" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1296296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="58.35" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
       <c r="B2" s="1">
         <v>4.26</v>
       </c>
@@ -5552,11 +6107,11 @@
       </c>
       <c r="F2" s="5">
         <f>C2/915</f>
-        <v>3.3879781420765025E-2</v>
+        <v>0.033879781420765</v>
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="B3" s="1">
         <v>4.28</v>
       </c>
@@ -5571,10 +6126,10 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F23" si="0">C3/915</f>
-        <v>6.5573770491803282E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0.0655737704918033</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>5.2</v>
       </c>
@@ -5589,10 +6144,10 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>9.8360655737704916E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0.0983606557377049</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>5.19</v>
       </c>
@@ -5601,25 +6156,25 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.98469945355191257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.984699453551913</v>
+      </c>
+    </row>
+    <row r="8" hidden="1"/>
+    <row r="9" hidden="1"/>
+    <row r="10" hidden="1"/>
+    <row r="11" hidden="1"/>
+    <row r="12" hidden="1"/>
+    <row r="13" hidden="1"/>
+    <row r="14" hidden="1"/>
+    <row r="15" hidden="1"/>
+    <row r="16" hidden="1"/>
+    <row r="17" hidden="1" spans="6:6">
       <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" ht="15.15" spans="2:12">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -5637,45 +6192,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" ht="58.35" spans="1:12">
       <c r="A19" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="1">
         <v>5.22</v>
       </c>
@@ -5694,10 +6249,10 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(I20:I42)/256</f>
-        <v>3.3984374999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.033984375</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10">
       <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5712,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:10">
       <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5727,7 +6282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:10">
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5739,7 +6294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:9">
       <c r="F24" s="5">
         <f t="shared" ref="F24:F38" si="2">C24/915</f>
         <v>0</v>
@@ -5751,154 +6306,155 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:6">
       <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:6">
       <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:6">
       <c r="F27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:6">
       <c r="F28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:6">
       <c r="F29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:6">
       <c r="F30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:6">
       <c r="F31" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:6">
       <c r="F32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:6">
       <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:6">
       <c r="F34" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:6">
       <c r="F35" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:6">
       <c r="F36" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:6">
       <c r="F37" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:6">
       <c r="F38" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="29.55" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1">
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1">
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <sheet name="Bood&amp;Code" sheetId="3" r:id="rId7"/>
     <sheet name="Ohter" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="132">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -55,6 +60,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -64,6 +70,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ilk+bun</t>
@@ -78,6 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -87,6 +95,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oodle+soymilk…</t>
@@ -104,6 +113,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -113,6 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>milk+bun</t>
@@ -127,6 +138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -136,6 +148,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ilk</t>
@@ -147,6 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>f</t>
@@ -156,6 +170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ired tofu+puncake+fired dumpling</t>
@@ -191,6 +206,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -200,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.11</t>
@@ -214,6 +231,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -223,6 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>icket</t>
@@ -234,6 +253,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -243,6 +263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.12</t>
@@ -259,6 +280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>191.8</t>
@@ -270,6 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(am)</t>
@@ -281,6 +304,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>M</t>
@@ -290,6 +314,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ay</t>
@@ -310,6 +335,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>f</t>
@@ -319,6 +345,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ast food</t>
@@ -330,6 +357,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>take-out</t>
@@ -339,6 +367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(叉烧鸡腿饭)</t>
@@ -380,6 +409,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>take-out</t>
@@ -389,6 +419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>+member card</t>
@@ -400,6 +431,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -409,6 +441,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oodle+egg tart</t>
@@ -447,6 +480,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5.3</t>
@@ -456,6 +490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -467,6 +502,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -476,6 +512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.31</t>
@@ -490,6 +527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -499,6 +537,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ake-out</t>
@@ -510,6 +549,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -519,6 +559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oodle+soymilk+glass</t>
@@ -550,6 +591,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6.</t>
@@ -559,6 +601,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -660,6 +703,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -669,6 +713,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5LB</t>
@@ -680,6 +725,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -689,6 +735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0LB</t>
@@ -700,6 +747,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -709,6 +757,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5LB</t>
@@ -741,6 +790,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -750,6 +800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0LB</t>
@@ -785,6 +836,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -794,6 +846,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ode all</t>
@@ -805,6 +858,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -814,6 +868,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -844,6 +899,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -853,6 +909,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>inux</t>
@@ -864,6 +921,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -873,6 +931,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hell</t>
@@ -884,18 +943,100 @@
   <si>
     <t>象棋</t>
   </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.13</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-out</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>191.1(am)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚轮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.14</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>194（am)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oodles</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-out</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.13</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +1048,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -915,6 +1057,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -924,6 +1067,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -933,164 +1077,30 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="48"/>
-      <color theme="3" tint="0.399792474135563"/>
+      <color theme="3" tint="0.39976195562608724"/>
       <name val="Edwardian Script ITC"/>
-      <charset val="134"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1099,10 +1109,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1151,176 +1169,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1365,265 +1215,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1635,7 +1246,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1665,7 +1276,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1686,16 +1297,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1707,7 +1318,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1719,66 +1330,38 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.599993896298105"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1787,6 +1370,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1835,7 +1421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1870,7 +1456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2078,9 +1664,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="3" tint="0.399792474135563"/>
+    <tabColor theme="3" tint="0.39976195562608724"/>
   </sheetPr>
   <dimension ref="H12:Q19"/>
   <sheetViews>
@@ -2088,118 +1674,118 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="12" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H12" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" spans="8:17">
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+    <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+    </row>
+    <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+    </row>
+    <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+    </row>
+    <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+    </row>
+    <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+    </row>
+    <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+    </row>
+    <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+    </row>
+    <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H12:Q19"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -2207,22 +1793,21 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="14.1296296296296" style="22" customWidth="1"/>
-    <col min="3" max="3" width="26.3796296296296" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="22" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.1296296296296" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="23" customWidth="1"/>
     <col min="6" max="6" width="13" style="22" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="22" customWidth="1"/>
     <col min="8" max="9" width="9" style="22"/>
-    <col min="10" max="10" width="11.1296296296296" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="22" customWidth="1"/>
     <col min="11" max="11" width="21" style="22" customWidth="1"/>
     <col min="12" max="12" width="28" style="22" customWidth="1"/>
     <col min="13" max="13" width="24.25" style="22" customWidth="1"/>
@@ -2231,7 +1816,7 @@
     <col min="16" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="24"/>
       <c r="B1" s="25" t="s">
         <v>1</v>
@@ -2253,7 +1838,7 @@
       </c>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" ht="3" customHeight="1" spans="1:7">
+    <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -2262,7 +1847,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>6.1</v>
       </c>
@@ -2276,7 +1861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="22">
         <v>8</v>
       </c>
@@ -2292,10 +1877,10 @@
       </c>
       <c r="G4" s="22">
         <f>SUM(F4:F35)</f>
-        <v>1195.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1244.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>6.2</v>
       </c>
@@ -2311,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="22">
         <v>4</v>
       </c>
@@ -2326,7 +1911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>11</v>
       </c>
@@ -2336,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="22">
         <v>650</v>
       </c>
@@ -2345,7 +1930,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>6.5</v>
       </c>
@@ -2363,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="22">
         <v>4</v>
       </c>
@@ -2381,7 +1966,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:6">
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>6.6</v>
       </c>
@@ -2399,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="22">
         <v>1</v>
       </c>
@@ -2414,10 +1999,10 @@
       </c>
       <c r="F12" s="22">
         <f t="shared" si="0"/>
-        <v>36.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>6.7</v>
       </c>
@@ -2432,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="22">
         <v>3.5</v>
       </c>
@@ -2447,7 +2032,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>6.8</v>
       </c>
@@ -2465,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="22">
         <v>3.5</v>
       </c>
@@ -2480,7 +2065,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>6.9</v>
       </c>
@@ -2498,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="22">
         <v>3.2</v>
       </c>
@@ -2516,7 +2101,7 @@
         <v>225.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
@@ -2531,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" s="22">
         <v>15</v>
       </c>
@@ -2546,7 +2131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="33" t="s">
         <v>24</v>
       </c>
@@ -2561,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C22" s="22">
         <v>30</v>
       </c>
@@ -2573,7 +2158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="33" t="s">
         <v>27</v>
       </c>
@@ -2594,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="22">
         <v>8</v>
       </c>
@@ -2609,91 +2194,127 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>125</v>
+      </c>
       <c r="F25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="C26" s="22">
+        <v>12.5</v>
+      </c>
+      <c r="D26" s="37">
+        <v>14</v>
+      </c>
       <c r="F26" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>130</v>
+      </c>
       <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="C28" s="22">
+        <v>15.28</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>128</v>
+      </c>
       <c r="F28" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F34" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="F39" s="22">
@@ -2701,69 +2322,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41" s="32"/>
       <c r="F41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="32"/>
       <c r="F43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="6:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F44" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F45" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="F48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B50" s="23"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22">
@@ -2771,20 +2392,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="F51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -2794,40 +2415,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F55" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="5:5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E59" s="22"/>
     </row>
-    <row r="60" ht="28.8" spans="1:8">
+    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="24"/>
       <c r="B60" s="25" t="s">
         <v>1</v>
@@ -2849,7 +2470,7 @@
       </c>
       <c r="H60" s="27"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="28"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -2858,7 +2479,7 @@
       <c r="F61" s="31"/>
       <c r="G61" s="31"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="21">
         <v>4.24</v>
       </c>
@@ -2872,7 +2493,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="3:7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C63" s="22">
         <v>12.2</v>
       </c>
@@ -2885,10 +2506,10 @@
       </c>
       <c r="G63" s="22">
         <f>SUM(F63:F94)</f>
-        <v>2574.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>2574.5000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="21">
         <v>4.25</v>
       </c>
@@ -2906,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B65" s="22">
         <v>3</v>
       </c>
@@ -2921,7 +2542,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="21">
         <v>4.26</v>
       </c>
@@ -2939,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B67" s="22">
         <v>3</v>
       </c>
@@ -2951,12 +2572,12 @@
       </c>
       <c r="F67" s="22">
         <f t="shared" si="1"/>
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="21">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>33</v>
@@ -2972,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B69" s="22">
         <v>3</v>
       </c>
@@ -2987,7 +2608,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="21">
         <v>4.28</v>
       </c>
@@ -3002,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B71" s="22">
         <v>3</v>
       </c>
@@ -3014,9 +2635,9 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="21">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>38</v>
@@ -3032,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B73" s="22">
         <v>1000</v>
       </c>
@@ -3041,7 +2662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="21">
         <v>5.2</v>
       </c>
@@ -3059,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B75" s="22">
         <v>3</v>
       </c>
@@ -3074,7 +2695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="21">
         <v>5.3</v>
       </c>
@@ -3092,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B77" s="22">
         <v>6</v>
       </c>
@@ -3107,7 +2728,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="21">
         <v>5.4</v>
       </c>
@@ -3122,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B79" s="22">
         <v>3</v>
       </c>
@@ -3137,7 +2758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="21">
         <v>5.5</v>
       </c>
@@ -3152,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B81" s="22">
         <v>3</v>
       </c>
@@ -3167,7 +2788,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="21" t="s">
         <v>39</v>
       </c>
@@ -3176,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D83" s="22">
         <v>300</v>
       </c>
@@ -3185,7 +2806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="21">
         <v>5.9</v>
       </c>
@@ -3203,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B85" s="22">
         <v>3</v>
       </c>
@@ -3218,7 +2839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" ht="28.8" spans="1:6">
+    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="21" t="s">
         <v>40</v>
       </c>
@@ -3227,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D87" s="22">
         <v>200</v>
       </c>
@@ -3236,7 +2857,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="21">
         <v>5.16</v>
       </c>
@@ -3254,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B89" s="22">
         <v>10</v>
       </c>
@@ -3269,7 +2890,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="21">
         <v>5.17</v>
       </c>
@@ -3287,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B91" s="22">
         <v>3</v>
       </c>
@@ -3302,7 +2923,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="21">
         <v>5.18</v>
       </c>
@@ -3320,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B93" s="22">
         <v>3</v>
       </c>
@@ -3335,7 +2956,7 @@
         <v>345.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="21">
         <v>5.19</v>
       </c>
@@ -3350,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B95" s="22">
         <v>24</v>
       </c>
@@ -3362,7 +2983,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="21" t="s">
         <v>44</v>
       </c>
@@ -3374,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B97" s="22">
         <v>80</v>
       </c>
@@ -3383,7 +3004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="21">
         <v>5.22</v>
       </c>
@@ -3398,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C99" s="22">
         <v>20.5</v>
       </c>
@@ -3410,7 +3031,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="100" ht="28.8" spans="1:6">
+    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="21">
         <v>5.23</v>
       </c>
@@ -3428,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B101" s="22">
         <v>8</v>
       </c>
@@ -3443,7 +3064,7 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="102" ht="28.8" spans="1:6">
+    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="21">
         <v>5.24</v>
       </c>
@@ -3461,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B103" s="22">
         <v>4</v>
       </c>
@@ -3476,7 +3097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" ht="28.8" spans="1:6">
+    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="21">
         <v>5.25</v>
       </c>
@@ -3494,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B105" s="22">
         <v>3</v>
       </c>
@@ -3509,7 +3130,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="21">
         <v>5.26</v>
       </c>
@@ -3530,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B107" s="22">
         <v>5</v>
       </c>
@@ -3545,7 +3166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="21" t="s">
         <v>56</v>
       </c>
@@ -3554,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B109" s="23">
         <v>600</v>
       </c>
@@ -3564,7 +3185,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="33" t="s">
         <v>57</v>
       </c>
@@ -3573,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D111" s="22">
         <v>49</v>
       </c>
@@ -3585,7 +3206,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="33" t="s">
         <v>58</v>
       </c>
@@ -3603,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B113" s="22">
         <v>8</v>
       </c>
@@ -3622,8 +3243,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A3:F500">
-    <cfRule type="expression" dxfId="0" priority="35">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3632,34 +3254,33 @@
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>62</v>
       </c>
@@ -3676,7 +3297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>4.26</v>
       </c>
@@ -3684,15 +3305,15 @@
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="B3" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>5.19</v>
       </c>
@@ -3700,7 +3321,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>5.2</v>
       </c>
@@ -3708,7 +3329,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5.21</v>
       </c>
@@ -3716,7 +3337,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>5.22</v>
       </c>
@@ -3724,7 +3345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>5.23</v>
       </c>
@@ -3732,7 +3353,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>67</v>
       </c>
@@ -3740,7 +3361,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>68</v>
       </c>
@@ -3748,7 +3369,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>69</v>
       </c>
@@ -3756,16 +3377,32 @@
         <v>40</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="1">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.149845881527146"/>
+    <tabColor theme="0" tint="-0.14981536301767021"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3773,15 +3410,15 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:5">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -3798,7 +3435,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>4.26</v>
       </c>
@@ -3808,37 +3445,37 @@
       <c r="E2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="9" width="14.3796296296296" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:10">
+    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>62</v>
       </c>
@@ -3870,7 +3507,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>5.22</v>
       </c>
@@ -3894,14 +3531,14 @@
       </c>
       <c r="I2" s="18">
         <f>SUM(E2:E42)</f>
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J2" s="19">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>5.23</v>
       </c>
@@ -3916,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>5.24</v>
       </c>
@@ -3928,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>5.25</v>
       </c>
@@ -3940,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>5.26</v>
       </c>
@@ -3952,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="16">
         <v>6.6</v>
       </c>
@@ -3970,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="16">
         <v>6.8</v>
       </c>
@@ -3988,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>20</v>
       </c>
@@ -4003,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>82</v>
       </c>
@@ -4021,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>83</v>
       </c>
@@ -4032,184 +3669,188 @@
         <v>0.7</v>
       </c>
       <c r="E11" s="1">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="10:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
+        <v>123</v>
+      </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="10:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="10:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="10:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:10">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:10">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:10">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="10:10">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="10:10">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AI72"/>
+  <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+      <selection activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.8796296296296" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.12962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="3.87962962962963" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.37962962962963" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.75" style="1" customWidth="1"/>
-    <col min="16" max="21" width="3.37962962962963" style="1" customWidth="1"/>
-    <col min="22" max="33" width="3.37962962962963" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="3.75" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
+    <col min="17" max="21" width="3.375" style="1" customWidth="1"/>
+    <col min="22" max="33" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:35">
+    <row r="1" spans="1:35" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -4316,7 +3957,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>88</v>
       </c>
@@ -4325,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="5.25" customHeight="1" spans="1:35">
+    <row r="3" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4365,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
@@ -4375,12 +4016,15 @@
       <c r="H4" s="1">
         <v>70</v>
       </c>
+      <c r="P4" s="1">
+        <v>100</v>
+      </c>
       <c r="AI4" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>91</v>
       </c>
@@ -4389,13 +4033,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="35:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
       <c r="AI6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="3.75" customHeight="1" spans="1:35">
+    <row r="7" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -4435,19 +4079,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="Q8" s="1">
+        <v>32</v>
+      </c>
       <c r="AI8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
@@ -4459,7 +4106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
@@ -4471,7 +4118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>96</v>
       </c>
@@ -4480,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="4.5" customHeight="1" spans="1:35">
+    <row r="12" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -4520,19 +4167,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="Q13" s="1">
+        <v>32</v>
+      </c>
       <c r="AI13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>93</v>
       </c>
@@ -4547,7 +4197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -4556,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="3.75" customHeight="1" spans="1:35">
+    <row r="16" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4596,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>99</v>
       </c>
@@ -4605,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="3" customHeight="1" spans="1:35">
+    <row r="18" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4645,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>100</v>
       </c>
@@ -4658,12 +4308,18 @@
       <c r="O19" s="1">
         <v>100</v>
       </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>50</v>
+      </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" ht="3.75" customHeight="1" spans="1:35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4703,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -4715,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>103</v>
       </c>
@@ -4727,7 +4383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="4.5" customHeight="1" spans="1:35">
+    <row r="23" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -4767,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.95" customHeight="1" spans="1:35">
+    <row r="24" spans="1:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>104</v>
       </c>
@@ -4811,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:35">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -4851,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="5.1" customHeight="1" spans="1:35">
+    <row r="26" spans="1:35" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -4891,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -4900,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="3" customHeight="1" spans="1:35">
+    <row r="28" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4940,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
@@ -4952,7 +4608,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" ht="3" customHeight="1" spans="1:35">
+    <row r="30" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4992,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>107</v>
       </c>
@@ -5003,12 +4659,15 @@
       <c r="N31" s="1">
         <v>30</v>
       </c>
+      <c r="P31" s="1">
+        <v>45</v>
+      </c>
       <c r="AI31" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" ht="3" customHeight="1" spans="1:35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -5048,16 +4707,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="P33" s="1">
+        <v>25</v>
+      </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="4.5" customHeight="1" spans="1:35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -5094,7 +4756,7 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
@@ -5108,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" ht="4.5" customHeight="1" spans="1:35">
+    <row r="36" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -5145,7 +4807,7 @@
       <c r="AH36" s="10"/>
       <c r="AI36" s="10"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
@@ -5153,403 +4815,403 @@
       <c r="M37" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="35:35">
-      <c r="AI38" s="1">
-        <f t="shared" ref="AI38:AI39" si="1">SUM(C38:AH38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.15" spans="1:35">
-      <c r="A39" s="15" t="s">
+      <c r="P37" s="1">
         <v>30</v>
       </c>
-      <c r="AI39" s="1">
+    </row>
+    <row r="38" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A39" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="M39" s="1">
+        <v>30</v>
+      </c>
+      <c r="P39" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AI40" s="1">
+        <f t="shared" ref="AI40:AI41" si="1">SUM(C40:AH40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI41" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="29.55" spans="1:35">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:35" ht="27" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D42" s="3">
         <v>22</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E42" s="3">
         <v>23</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F42" s="3">
         <v>24</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G42" s="3">
         <v>25</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H42" s="3">
         <v>26</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I42" s="3">
         <v>27</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J42" s="3">
         <v>28</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K42" s="3">
         <v>29</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L42" s="3">
         <v>30</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3">
         <v>31</v>
       </c>
-      <c r="AI40" s="3" t="s">
+      <c r="AI42" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4" t="s">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D43" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11"/>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="11"/>
-      <c r="AF42" s="11"/>
-      <c r="AG42" s="11"/>
-      <c r="AH42" s="11"/>
-      <c r="AI42" s="11"/>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C45" s="1">
         <v>240</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D45" s="1">
         <v>20</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E45" s="1">
         <v>10</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G45" s="1">
         <v>80</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H45" s="1">
         <v>30</v>
       </c>
-      <c r="AH43" s="1">
+      <c r="AH45" s="1">
         <v>30</v>
       </c>
-      <c r="AI43" s="1">
-        <f t="shared" ref="AI43:AI72" si="2">SUM(C43:AH43)</f>
+      <c r="AI45" s="1">
+        <f t="shared" ref="AI45:AI74" si="2">SUM(C45:AH45)</f>
         <v>410</v>
       </c>
     </row>
-    <row r="44" spans="2:35">
-      <c r="B44" s="4" t="s">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AI44" s="1">
+      <c r="AI46" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="35:35">
-      <c r="AI45" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11"/>
-      <c r="AF46" s="11"/>
-      <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
-      <c r="AI46" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="1">
-        <v>64</v>
-      </c>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="AI47" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="1">
         <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:35">
-      <c r="B48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI48" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:35">
-      <c r="B49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="1">
-        <v>32</v>
       </c>
       <c r="AI49" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="1">
-        <v>32</v>
-      </c>
-      <c r="D50" s="1">
-        <v>32</v>
-      </c>
-      <c r="G50" s="1">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI51" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B52" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="1">
+      <c r="C52" s="1">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1">
+        <v>32</v>
+      </c>
+      <c r="G52" s="1">
         <v>32</v>
       </c>
       <c r="AI52" s="1">
         <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="2:35">
-      <c r="B53" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI53" s="1">
+      <c r="AI54" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="2:35">
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI55" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B56" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C56" s="1">
         <v>8</v>
       </c>
-      <c r="AI54" s="1">
+      <c r="AI56" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11"/>
-      <c r="AI55" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI56" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5589,34 +5251,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="1">
-        <v>20</v>
-      </c>
-      <c r="D58" s="1">
-        <v>50</v>
-      </c>
-      <c r="E58" s="1">
-        <v>40</v>
-      </c>
-      <c r="G58" s="1">
-        <v>50</v>
-      </c>
-      <c r="H58" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH58" s="1">
-        <v>30</v>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5656,217 +5303,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>102</v>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A60" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C60" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D60" s="1">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1">
+        <v>40</v>
+      </c>
+      <c r="G60" s="1">
+        <v>50</v>
+      </c>
+      <c r="H60" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>30</v>
       </c>
       <c r="AI60" s="1">
         <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="2:35">
-      <c r="B61" s="4" t="s">
+      <c r="AI62" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D63" s="1">
         <v>20</v>
       </c>
-      <c r="AI61" s="1">
+      <c r="AI63" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="11"/>
-      <c r="AH62" s="11"/>
-      <c r="AI62" s="11">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
-      <c r="A63" s="13" t="s">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A65" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C65" s="13">
         <v>5</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-      <c r="AA63" s="13"/>
-      <c r="AB63" s="13"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="13"/>
-      <c r="AI63" s="1">
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="13"/>
+      <c r="Z65" s="13"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="13"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="13"/>
+      <c r="AI65" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="13"/>
-      <c r="AI64" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
-      <c r="A65" s="11"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="11"/>
-      <c r="Z65" s="11"/>
-      <c r="AA65" s="11"/>
-      <c r="AB65" s="11"/>
-      <c r="AC65" s="11"/>
-      <c r="AD65" s="11"/>
-      <c r="AE65" s="11"/>
-      <c r="AF65" s="11"/>
-      <c r="AG65" s="11"/>
-      <c r="AH65" s="11"/>
-      <c r="AI65" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
-      <c r="A66" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="1">
-        <v>120</v>
-      </c>
-      <c r="G66" s="1">
-        <v>20</v>
-      </c>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="13"/>
+      <c r="Z66" s="13"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
+      <c r="AC66" s="13"/>
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="13"/>
+      <c r="AF66" s="13"/>
+      <c r="AG66" s="13"/>
+      <c r="AH66" s="13"/>
       <c r="AI66" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -5904,22 +5563,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="1">
+        <v>105</v>
+      </c>
+      <c r="C68" s="1">
         <v>120</v>
       </c>
-      <c r="AH68" s="1">
-        <v>100</v>
+      <c r="G68" s="1">
+        <v>20</v>
       </c>
       <c r="AI68" s="1">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5959,19 +5618,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
-      <c r="A70" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="4">
-        <v>5</v>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="1">
+        <v>120</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>100</v>
       </c>
       <c r="AI70" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -6011,53 +5673,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" s="1">
-        <v>20</v>
+        <v>107</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5</v>
       </c>
       <c r="AI72" s="1">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="1">
         <v>20</v>
       </c>
+      <c r="AI74" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6296296296296" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1296296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58.35" spans="1:12">
+    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>112</v>
       </c>
@@ -6095,7 +5809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>4.26</v>
       </c>
@@ -6107,11 +5821,11 @@
       </c>
       <c r="F2" s="5">
         <f>C2/915</f>
-        <v>0.033879781420765</v>
+        <v>3.3879781420765025E-2</v>
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>4.28</v>
       </c>
@@ -6126,10 +5840,10 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F23" si="0">C3/915</f>
-        <v>0.0655737704918033</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>6.5573770491803282E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>5.2</v>
       </c>
@@ -6144,10 +5858,10 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>0.0983606557377049</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>9.8360655737704916E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>5.19</v>
       </c>
@@ -6156,25 +5870,25 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.984699453551913</v>
-      </c>
-    </row>
-    <row r="8" hidden="1"/>
-    <row r="9" hidden="1"/>
-    <row r="10" hidden="1"/>
-    <row r="11" hidden="1"/>
-    <row r="12" hidden="1"/>
-    <row r="13" hidden="1"/>
-    <row r="14" hidden="1"/>
-    <row r="15" hidden="1"/>
-    <row r="16" hidden="1"/>
-    <row r="17" hidden="1" spans="6:6">
+        <v>0.98469945355191257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="2:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6192,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="58.35" spans="1:12">
+    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
@@ -6230,13 +5944,16 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>5.22</v>
+        <v>6.12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>40</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.3715846994535519E-2</v>
       </c>
       <c r="H20" s="1">
         <v>5.22</v>
@@ -6249,13 +5966,19 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(I20:I42)/256</f>
-        <v>0.033984375</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10">
+        <v>3.5937499999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4644808743169397E-2</v>
       </c>
       <c r="H21" s="1">
         <v>5.23</v>
@@ -6267,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="6:10">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6282,7 +6005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="6:10">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6294,7 +6017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="6:9">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F24" s="5">
         <f t="shared" ref="F24:F38" si="2">C24/915</f>
         <v>0</v>
@@ -6306,114 +6029,119 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="6:6">
+      <c r="H25" s="1">
+        <v>6.13</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F31" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F34" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F35" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F36" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F37" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F38" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.12962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:2">
+    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -6421,7 +6149,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -6429,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
@@ -6437,24 +6165,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="1">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -1029,6 +1029,65 @@
       </rPr>
       <t>.13</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oodles+milk+egg puncake</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.15</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>194.1(am)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.14</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>take-out</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1339,10 +1398,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,102 +1736,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H12" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
+      <c r="H12" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1793,8 +1852,8 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1877,7 +1936,7 @@
       </c>
       <c r="G4" s="22">
         <f>SUM(F4:F35)</f>
-        <v>1244.58</v>
+        <v>1294.08</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -2234,6 +2293,9 @@
       <c r="C27" s="37" t="s">
         <v>130</v>
       </c>
+      <c r="D27" s="37" t="s">
+        <v>132</v>
+      </c>
       <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2246,24 +2308,39 @@
       <c r="C28" s="22">
         <v>15.28</v>
       </c>
+      <c r="D28" s="22">
+        <v>41</v>
+      </c>
       <c r="E28" s="23" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" si="0"/>
-        <v>18.78</v>
+        <v>59.78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>136</v>
+      </c>
       <c r="F29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="F30" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -3264,10 +3341,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3393,6 +3470,14 @@
         <v>128</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="1">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,14 +3489,15 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14981536301767021"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
@@ -3443,6 +3529,16 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>6.14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3458,7 +3554,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3519,23 +3615,23 @@
       </c>
       <c r="F2" s="18">
         <f>SUM(B2:B42)</f>
-        <v>16.8</v>
+        <v>19.8</v>
       </c>
       <c r="G2" s="18">
         <f>SUM(C2:C42)</f>
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="H2" s="18">
         <f>SUM(D2:D42)</f>
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="I2" s="18">
         <f>SUM(E2:E42)</f>
-        <v>5.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="J2" s="19">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>8.5999999999999993E-2</v>
+        <v>0.11266666666666665</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -3680,12 +3776,36 @@
       <c r="A12" s="35" t="s">
         <v>123</v>
       </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3825,8 +3945,8 @@
   </sheetPr>
   <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL21" sqref="AL21"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4019,9 +4139,12 @@
       <c r="P4" s="1">
         <v>100</v>
       </c>
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
       <c r="AI4" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
@@ -4314,9 +4437,12 @@
       <c r="Q19" s="1">
         <v>50</v>
       </c>
+      <c r="R19" s="1">
+        <v>25</v>
+      </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4818,6 +4944,9 @@
       <c r="P37" s="1">
         <v>30</v>
       </c>
+      <c r="R37" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="10"/>
@@ -4857,7 +4986,7 @@
       <c r="AI38" s="10"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>126</v>
       </c>
       <c r="B39" s="4"/>
@@ -5752,7 +5881,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5966,7 +6095,7 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(I20:I42)/256</f>
-        <v>3.5937499999999997E-2</v>
+        <v>3.7890624999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
@@ -5991,9 +6120,15 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>80</v>
+      </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.7431693989071038E-2</v>
       </c>
       <c r="H22" s="1">
         <v>5.25</v>
@@ -6046,6 +6181,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="H26" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="F27" s="5">
@@ -6122,7 +6263,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6130,7 +6271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -6170,7 +6311,7 @@
         <v>121</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -6178,7 +6319,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26145" windowHeight="14250" activeTab="5"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
     <sheet name="Bood&amp;Code" sheetId="3" r:id="rId7"/>
     <sheet name="Ohter" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -60,7 +55,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -70,7 +64,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ilk+bun</t>
@@ -85,7 +78,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -95,7 +87,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oodle+soymilk…</t>
@@ -113,7 +104,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -123,7 +113,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>milk+bun</t>
@@ -138,7 +127,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>m</t>
@@ -148,7 +136,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ilk</t>
@@ -160,7 +147,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>f</t>
@@ -170,7 +156,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ired tofu+puncake+fired dumpling</t>
@@ -206,7 +191,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -216,7 +200,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.11</t>
@@ -231,7 +214,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -241,7 +223,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>icket</t>
@@ -253,7 +234,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -263,7 +243,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.12</t>
@@ -280,7 +259,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>191.8</t>
@@ -292,7 +270,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(am)</t>
@@ -304,7 +281,121 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oodles</t>
+    </r>
+  </si>
+  <si>
+    <t>191.1(am)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oodles+milk+egg puncake</t>
+    </r>
+  </si>
+  <si>
+    <t>194（am)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.15</t>
+    </r>
+  </si>
+  <si>
+    <t>hotpot</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>194.8(am）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>M</t>
@@ -314,7 +405,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ay</t>
@@ -335,7 +425,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>f</t>
@@ -345,7 +434,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ast food</t>
@@ -357,7 +445,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>take-out</t>
@@ -367,7 +454,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(叉烧鸡腿饭)</t>
@@ -409,7 +495,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>take-out</t>
@@ -419,7 +504,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>+member card</t>
@@ -431,7 +515,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -441,7 +524,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oodle+egg tart</t>
@@ -480,7 +562,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5.3</t>
@@ -490,7 +571,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -502,7 +582,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -512,7 +591,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.31</t>
@@ -527,7 +605,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>t</t>
@@ -537,7 +614,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ake-out</t>
@@ -549,7 +625,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>n</t>
@@ -559,7 +634,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>oodle+soymilk+glass</t>
@@ -591,7 +665,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>6.</t>
@@ -601,7 +674,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -666,6 +738,9 @@
   </si>
   <si>
     <t>6.12</t>
+  </si>
+  <si>
+    <t>6.15</t>
   </si>
   <si>
     <t>Project
@@ -703,7 +778,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -713,7 +787,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5LB</t>
@@ -725,7 +798,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -735,7 +807,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0LB</t>
@@ -747,7 +818,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -757,7 +827,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5LB</t>
@@ -790,7 +859,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -800,7 +868,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0LB</t>
@@ -826,6 +893,9 @@
   </si>
   <si>
     <t>体操</t>
+  </si>
+  <si>
+    <t>滚轮</t>
   </si>
   <si>
     <t>30s</t>
@@ -836,7 +906,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C</t>
@@ -846,7 +915,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ode all</t>
@@ -858,7 +926,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -868,7 +935,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>R</t>
@@ -899,7 +965,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -909,7 +974,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>inux</t>
@@ -921,7 +985,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -931,7 +994,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>hell</t>
@@ -943,159 +1005,18 @@
   <si>
     <t>象棋</t>
   </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.13</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>take-out</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>191.1(am)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚轮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.14</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>194（am)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oodles</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>take-out</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.13</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oodles+milk+egg puncake</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.15</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>194.1(am)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.14</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>take-out</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,7 +1028,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1116,7 +1043,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1126,7 +1052,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1136,30 +1061,164 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="48"/>
-      <color theme="3" tint="0.39976195562608724"/>
+      <color theme="3" tint="0.399761955626087"/>
       <name val="Edwardian Script ITC"/>
-      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1168,18 +1227,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,8 +1279,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1274,12 +1505,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1290,10 +1760,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1305,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1329,19 +1799,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1353,19 +1829,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1374,10 +1850,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1386,41 +1862,75 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.59999389629810485"/>
+          <bgColor theme="8" tint="0.599993896298105"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1429,9 +1939,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1480,7 +1987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1515,7 +2022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1718,14 +2225,13 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <tabColor theme="3" tint="0.39976195562608724"/>
+    <tabColor theme="3" tint="0.399761955626087"/>
   </sheetPr>
   <dimension ref="H12:Q19"/>
   <sheetViews>
@@ -1733,9 +2239,9 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="12" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" customHeight="1" spans="8:17">
       <c r="H12" s="39" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +2255,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
     </row>
-    <row r="13" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="8:17">
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
@@ -1761,7 +2267,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
     </row>
-    <row r="14" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="8:17">
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
@@ -1773,7 +2279,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
     </row>
-    <row r="15" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="8:17">
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
@@ -1785,7 +2291,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
     </row>
-    <row r="16" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="8:17">
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
@@ -1797,7 +2303,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
     </row>
-    <row r="17" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" spans="8:17">
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
@@ -1809,7 +2315,7 @@
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
     </row>
-    <row r="18" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" spans="8:17">
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
@@ -1821,7 +2327,7 @@
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
     </row>
-    <row r="19" spans="8:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" spans="8:17">
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -1837,1492 +2343,1513 @@
   <mergeCells count="1">
     <mergeCell ref="H12:Q19"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="21"/>
-    <col min="2" max="2" width="14.125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="13" style="22" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="22" customWidth="1"/>
-    <col min="8" max="9" width="9" style="22"/>
-    <col min="10" max="10" width="11.125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="21" style="22" customWidth="1"/>
-    <col min="12" max="12" width="28" style="22" customWidth="1"/>
-    <col min="13" max="13" width="24.25" style="22" customWidth="1"/>
-    <col min="14" max="14" width="9" style="22"/>
-    <col min="15" max="15" width="11" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="14.125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="13" style="24" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="24" customWidth="1"/>
+    <col min="8" max="9" width="9" style="24"/>
+    <col min="10" max="10" width="11.125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="21" style="24" customWidth="1"/>
+    <col min="12" max="12" width="28" style="24" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="24" customWidth="1"/>
+    <col min="14" max="14" width="9" style="24"/>
+    <col min="15" max="15" width="11" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
+    <row r="1" ht="27" spans="1:8">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" ht="3" customHeight="1" spans="1:7">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="23">
         <v>6.1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="22">
+    <row r="4" spans="2:7">
+      <c r="B4" s="24">
         <v>8</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="24">
         <v>20</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="24">
         <v>17</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="24">
         <f>SUM(B4:D4)</f>
         <v>45</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="24">
         <f>SUM(F4:F35)</f>
-        <v>1294.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+        <v>1323.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23">
         <v>6.2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="F5" s="22">
+      <c r="D5" s="34"/>
+      <c r="F5" s="24">
         <f t="shared" ref="F5:F57" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B6" s="22">
+    <row r="6" spans="2:6">
+      <c r="B6" s="24">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="24">
         <v>20</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="25">
         <v>194.7</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="F7" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="22">
+      <c r="C7" s="34"/>
+      <c r="F7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="24">
         <v>650</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+    <row r="9" spans="1:6">
+      <c r="A9" s="23">
         <v>6.5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="22">
+      <c r="F9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="24">
         <v>4</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="24">
         <v>16</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="24">
         <v>20</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="25">
         <v>194.3</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="23">
         <v>6.6</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="22">
+      <c r="F11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="24">
         <v>1</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="24">
         <v>15.8</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="24">
         <v>20</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="25">
         <v>194.6</v>
       </c>
-      <c r="F12" s="22">
-        <f t="shared" si="0"/>
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="F12" s="24">
+        <f t="shared" si="0"/>
+        <v>36.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="23">
         <v>6.7</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="22">
+      <c r="F13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="24">
         <v>3.5</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="24">
         <v>12</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="25">
         <v>194.7</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+    <row r="15" spans="1:6">
+      <c r="A15" s="23">
         <v>6.8</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="22">
+      <c r="F15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="24">
         <v>3.5</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="24">
         <v>17</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+    <row r="17" spans="1:6">
+      <c r="A17" s="23">
         <v>6.9</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="22">
+      <c r="F17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="24">
         <v>3.2</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <v>10</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <v>212</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>225.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C20" s="22">
+      <c r="F19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="24">
         <v>15</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="24">
         <v>15</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C22" s="22">
+      <c r="F21" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="24">
         <v>30</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="24">
         <v>50</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="24">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="22">
+      <c r="F23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="24">
         <v>8</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="24">
         <v>10</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="24">
         <v>10.8</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="24">
         <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" s="36" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="22">
+        <v>31</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="24">
         <v>3.5</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="24">
         <v>12.5</v>
       </c>
       <c r="D26" s="37">
         <v>14</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" s="36" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="22">
+        <v>34</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="24">
         <v>3.5</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="24">
         <v>15.28</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="24">
         <v>41</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="22">
+      <c r="E28" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>59.78</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" s="36" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C30" s="22">
+        <v>8</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="24">
         <v>8.5</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="22">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F31" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F32" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F33" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F34" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F35" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F36" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F37" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F38" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="F39" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F40" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="32"/>
-      <c r="F41" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F42" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="32"/>
-      <c r="F43" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F44" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F45" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F46" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F47" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F48" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F49" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="23"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
-      <c r="F51" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F52" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="F53" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F54" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F55" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F56" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F57" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="22"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E59" s="22"/>
-    </row>
-    <row r="60" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25" t="s">
+      <c r="D30" s="24">
+        <v>17</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="C32" s="24">
+        <v>9</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="24">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="F39" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="34"/>
+      <c r="F41" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="34"/>
+      <c r="F43" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="25"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="35"/>
+      <c r="F51" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="35"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="F53" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" ht="27" spans="1:8">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="27"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="21">
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="23">
         <v>4.24</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="22" t="s">
+      <c r="B62" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C63" s="22">
+      <c r="D62" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="24">
         <v>12.2</v>
       </c>
-      <c r="D63" s="22">
+      <c r="D63" s="24">
         <v>12</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="24">
         <f>SUM(B63:D63)</f>
         <v>24.2</v>
       </c>
-      <c r="G63" s="22">
+      <c r="G63" s="24">
         <f>SUM(F63:F94)</f>
-        <v>2574.5000000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="21">
+        <v>2574.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="23">
         <v>4.25</v>
       </c>
-      <c r="B64" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="22" t="s">
+      <c r="B64" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="22">
+      <c r="D64" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="24">
         <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B65" s="22">
+    <row r="65" spans="2:6">
+      <c r="B65" s="24">
         <v>3</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="24">
         <v>10.85</v>
       </c>
-      <c r="D65" s="22">
+      <c r="D65" s="24">
         <v>18</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="24">
         <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="21">
+    <row r="66" spans="1:6">
+      <c r="A66" s="23">
         <v>4.26</v>
       </c>
-      <c r="B66" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F66" s="22">
+      <c r="B66" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="22">
+    <row r="67" spans="2:6">
+      <c r="B67" s="24">
         <v>3</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="24">
         <v>14</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D67" s="24">
         <v>19.7</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="24">
         <f t="shared" si="1"/>
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="21">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="22" t="s">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="23">
+        <v>4.27</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F68" s="22">
+      <c r="D68" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B69" s="22">
+    <row r="69" spans="2:6">
+      <c r="B69" s="24">
         <v>3</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="24">
         <v>16.7</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="24">
         <v>26</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="24">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="21">
+    <row r="70" spans="1:6">
+      <c r="A70" s="23">
         <v>4.28</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="22" t="s">
+      <c r="B70" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="22">
+    <row r="71" spans="2:6">
+      <c r="B71" s="24">
         <v>3</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="24">
         <v>16.2</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="24">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="21">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="22">
+    <row r="72" spans="1:6">
+      <c r="A72" s="23">
+        <v>5.1</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B73" s="22">
+    <row r="73" spans="2:6">
+      <c r="B73" s="24">
         <v>1000</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F73" s="24">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="21">
+    <row r="74" spans="1:6">
+      <c r="A74" s="23">
         <v>5.2</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="22" t="s">
+      <c r="B74" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F74" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B75" s="22">
+    <row r="75" spans="2:6">
+      <c r="B75" s="24">
         <v>3</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="24">
         <v>12</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="24">
         <v>11</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F75" s="24">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="21">
+    <row r="76" spans="1:6">
+      <c r="A76" s="23">
         <v>5.3</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="22" t="s">
+      <c r="B76" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B77" s="22">
+    <row r="77" spans="2:6">
+      <c r="B77" s="24">
         <v>6</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="24">
         <v>9</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="24">
         <v>291</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F77" s="24">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="21">
+    <row r="78" spans="1:6">
+      <c r="A78" s="23">
         <v>5.4</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="22" t="s">
+      <c r="B78" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="22">
+      <c r="F78" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B79" s="22">
+    <row r="79" spans="2:6">
+      <c r="B79" s="24">
         <v>3</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C79" s="24">
         <v>21</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="24">
         <v>95</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F79" s="24">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="21">
+    <row r="80" spans="1:6">
+      <c r="A80" s="23">
         <v>5.5</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" s="22" t="s">
+      <c r="B80" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B81" s="22">
+    <row r="81" spans="2:6">
+      <c r="B81" s="24">
         <v>3</v>
       </c>
-      <c r="C81" s="22">
+      <c r="C81" s="24">
         <v>12.75</v>
       </c>
-      <c r="D81" s="22">
+      <c r="D81" s="24">
         <v>10</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F81" s="24">
         <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F82" s="22">
+    <row r="82" spans="1:6">
+      <c r="A82" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D83" s="22">
+    <row r="83" spans="4:6">
+      <c r="D83" s="24">
         <v>300</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F83" s="24">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="21">
+    <row r="84" spans="1:6">
+      <c r="A84" s="23">
         <v>5.9</v>
       </c>
-      <c r="B84" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="22" t="s">
+      <c r="B84" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B85" s="22">
+    <row r="85" spans="2:6">
+      <c r="B85" s="24">
         <v>3</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C85" s="24">
         <v>9</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D85" s="24">
         <v>18</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F85" s="24">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A86" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F86" s="22">
+    <row r="86" ht="27" spans="1:6">
+      <c r="A86" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D87" s="22">
+    <row r="87" spans="4:6">
+      <c r="D87" s="24">
         <v>200</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F87" s="24">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="21">
+    <row r="88" spans="1:6">
+      <c r="A88" s="23">
         <v>5.16</v>
       </c>
-      <c r="B88" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="22" t="s">
+      <c r="B88" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="22">
+      <c r="F88" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B89" s="22">
+    <row r="89" spans="2:6">
+      <c r="B89" s="24">
         <v>10</v>
       </c>
-      <c r="C89" s="22">
+      <c r="C89" s="24">
         <v>10.9</v>
       </c>
-      <c r="D89" s="22">
+      <c r="D89" s="24">
         <v>10</v>
       </c>
-      <c r="F89" s="22">
+      <c r="F89" s="24">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="21">
+    <row r="90" spans="1:6">
+      <c r="A90" s="23">
         <v>5.17</v>
       </c>
-      <c r="B90" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="22" t="s">
+      <c r="B90" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D90" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="22">
+      <c r="F90" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B91" s="22">
+    <row r="91" spans="2:6">
+      <c r="B91" s="24">
         <v>3</v>
       </c>
-      <c r="C91" s="22">
+      <c r="C91" s="24">
         <v>10.9</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="24">
         <v>19.5</v>
       </c>
-      <c r="F91" s="22">
+      <c r="F91" s="24">
         <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="21">
+    <row r="92" spans="1:6">
+      <c r="A92" s="23">
         <v>5.18</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="22" t="s">
+      <c r="B92" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F92" s="22">
+      <c r="D92" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B93" s="22">
+    <row r="93" spans="2:6">
+      <c r="B93" s="24">
         <v>3</v>
       </c>
-      <c r="C93" s="22">
+      <c r="C93" s="24">
         <v>16</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="24">
         <v>326.8</v>
       </c>
-      <c r="F93" s="22">
+      <c r="F93" s="24">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="21">
+    <row r="94" spans="1:6">
+      <c r="A94" s="23">
         <v>5.19</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="22" t="s">
+      <c r="B94" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B95" s="22">
+    <row r="95" spans="2:6">
+      <c r="B95" s="24">
         <v>24</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="24">
         <v>16</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="24">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F96" s="22">
+    <row r="96" spans="1:6">
+      <c r="A96" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B97" s="22">
+    <row r="97" spans="2:6">
+      <c r="B97" s="24">
         <v>80</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="24">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="21">
+    <row r="98" spans="1:6">
+      <c r="A98" s="23">
         <v>5.22</v>
       </c>
-      <c r="C98" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D98" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" s="22">
+      <c r="C98" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C99" s="22">
+    <row r="99" spans="3:6">
+      <c r="C99" s="24">
         <v>20.5</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="24">
         <v>15</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="24">
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A100" s="21">
+    <row r="100" ht="27" spans="1:6">
+      <c r="A100" s="23">
         <v>5.23</v>
       </c>
-      <c r="B100" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="22" t="s">
+      <c r="B100" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F100" s="22">
+      <c r="D100" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B101" s="22">
+    <row r="101" spans="2:6">
+      <c r="B101" s="24">
         <v>8</v>
       </c>
-      <c r="C101" s="22">
+      <c r="C101" s="24">
         <v>12.5</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="24">
         <v>30</v>
       </c>
-      <c r="F101" s="22">
+      <c r="F101" s="24">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A102" s="21">
+    <row r="102" ht="27" spans="1:6">
+      <c r="A102" s="23">
         <v>5.24</v>
       </c>
-      <c r="B102" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="22" t="s">
+      <c r="B102" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F102" s="22">
+      <c r="D102" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F102" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B103" s="22">
+    <row r="103" spans="2:6">
+      <c r="B103" s="24">
         <v>4</v>
       </c>
-      <c r="C103" s="22">
+      <c r="C103" s="24">
         <v>15</v>
       </c>
-      <c r="D103" s="22">
+      <c r="D103" s="24">
         <v>15</v>
       </c>
-      <c r="F103" s="22">
+      <c r="F103" s="24">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A104" s="21">
+    <row r="104" ht="27" spans="1:6">
+      <c r="A104" s="23">
         <v>5.25</v>
       </c>
-      <c r="B104" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" s="22" t="s">
+      <c r="B104" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F104" s="22">
+      <c r="D104" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B105" s="22">
+    <row r="105" spans="2:6">
+      <c r="B105" s="24">
         <v>3</v>
       </c>
-      <c r="C105" s="22">
+      <c r="C105" s="24">
         <v>14.5</v>
       </c>
-      <c r="D105" s="22">
+      <c r="D105" s="24">
         <v>20</v>
       </c>
-      <c r="F105" s="22">
+      <c r="F105" s="24">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="21">
+    <row r="106" spans="1:6">
+      <c r="A106" s="23">
         <v>5.26</v>
       </c>
-      <c r="B106" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C106" s="22" t="s">
+      <c r="B106" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E106" s="23">
+      <c r="D106" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E106" s="25">
         <v>196.7</v>
       </c>
-      <c r="F106" s="22">
+      <c r="F106" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B107" s="22">
+    <row r="107" spans="2:6">
+      <c r="B107" s="24">
         <v>5</v>
       </c>
-      <c r="C107" s="22">
+      <c r="C107" s="24">
         <v>9</v>
       </c>
-      <c r="D107" s="22">
+      <c r="D107" s="24">
         <v>10</v>
       </c>
-      <c r="F107" s="22">
+      <c r="F107" s="24">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F108" s="22">
+    <row r="108" spans="1:6">
+      <c r="A108" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B109" s="23">
+    <row r="109" spans="2:6">
+      <c r="B109" s="25">
         <v>600</v>
       </c>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22">
+      <c r="E109" s="24"/>
+      <c r="F109" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F110" s="22">
+    <row r="110" spans="1:6">
+      <c r="A110" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D111" s="22">
+    <row r="111" spans="4:6">
+      <c r="D111" s="24">
         <v>49</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="25">
         <v>194.7</v>
       </c>
-      <c r="F111" s="22">
+      <c r="F111" s="24">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B112" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D112" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F112" s="22">
+    <row r="112" spans="1:6">
+      <c r="A112" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F112" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B113" s="22">
+    <row r="113" spans="2:6">
+      <c r="B113" s="24">
         <v>8</v>
       </c>
-      <c r="C113" s="22">
+      <c r="C113" s="24">
         <v>17.5</v>
       </c>
-      <c r="D113" s="22">
+      <c r="D113" s="24">
         <v>88</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="25">
         <v>193</v>
       </c>
-      <c r="F113" s="22">
+      <c r="F113" s="24">
         <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A3:F500">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3331,25 +3858,26 @@
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
@@ -3357,137 +3885,145 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>62</v>
+    <row r="1" ht="27.75" spans="1:5">
+      <c r="A1" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="16">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17">
         <v>4.26</v>
       </c>
       <c r="B2" s="1">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
-        <v>4.2699999999999996</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17">
+        <v>4.27</v>
       </c>
       <c r="B3" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+    <row r="4" spans="1:2">
+      <c r="A4" s="17">
         <v>5.19</v>
       </c>
       <c r="B4" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16">
+    <row r="5" spans="1:2">
+      <c r="A5" s="17">
         <v>5.2</v>
       </c>
       <c r="B5" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+    <row r="6" spans="1:2">
+      <c r="A6" s="17">
         <v>5.21</v>
       </c>
       <c r="B6" s="1">
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
+    <row r="7" spans="1:2">
+      <c r="A7" s="17">
         <v>5.22</v>
       </c>
       <c r="B7" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
+    <row r="8" spans="1:2">
+      <c r="A8" s="17">
         <v>5.23</v>
       </c>
       <c r="B8" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
-        <v>67</v>
+    <row r="9" spans="1:2">
+      <c r="A9" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
-        <v>68</v>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
-        <v>69</v>
+    <row r="11" spans="1:2">
+      <c r="A11" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
-        <v>131</v>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
-        <v>127</v>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
-        <v>133</v>
+    <row r="14" spans="1:2">
+      <c r="A14" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>398</v>
       </c>
     </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <tabColor theme="0" tint="-0.14981536301767021"/>
+    <tabColor theme="0" tint="-0.14981536301767"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -3495,7 +4031,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
@@ -3504,24 +4040,24 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>4.26</v>
       </c>
@@ -3530,36 +4066,36 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="1">
         <v>6.13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>6.14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
@@ -3571,40 +4107,40 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>62</v>
+    <row r="1" ht="27.75" spans="1:10">
+      <c r="A1" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="17">
         <v>5.22</v>
       </c>
       <c r="B2" s="1">
@@ -3613,29 +4149,29 @@
       <c r="E2" s="1">
         <v>0.2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="19">
         <f>SUM(B2:B42)</f>
-        <v>19.8</v>
-      </c>
-      <c r="G2" s="18">
+        <v>21.8</v>
+      </c>
+      <c r="G2" s="19">
         <f>SUM(C2:C42)</f>
-        <v>5.7</v>
-      </c>
-      <c r="H2" s="18">
+        <v>8.7</v>
+      </c>
+      <c r="H2" s="19">
         <f>SUM(D2:D42)</f>
         <v>1.2</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="19">
         <f>SUM(E2:E42)</f>
-        <v>7.1</v>
-      </c>
-      <c r="J2" s="19">
+        <v>8.1</v>
+      </c>
+      <c r="J2" s="21">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.11266666666666665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
+        <v>0.132666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17">
         <v>5.23</v>
       </c>
       <c r="B3" s="1">
@@ -3649,8 +4185,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+    <row r="4" spans="1:10">
+      <c r="A4" s="17">
         <v>5.24</v>
       </c>
       <c r="B4" s="1">
@@ -3661,8 +4197,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="16">
+    <row r="5" spans="1:10">
+      <c r="A5" s="17">
         <v>5.25</v>
       </c>
       <c r="B5" s="1">
@@ -3673,8 +4209,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+    <row r="6" spans="1:10">
+      <c r="A6" s="17">
         <v>5.26</v>
       </c>
       <c r="B6" s="1">
@@ -3685,8 +4221,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
+    <row r="7" spans="1:10">
+      <c r="A7" s="17">
         <v>6.6</v>
       </c>
       <c r="B7" s="1">
@@ -3703,8 +4239,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
+    <row r="8" spans="1:10">
+      <c r="A8" s="17">
         <v>6.8</v>
       </c>
       <c r="B8" s="1">
@@ -3721,8 +4257,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1">
@@ -3736,9 +4272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
-        <v>82</v>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -3754,9 +4290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
-        <v>83</v>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
@@ -3765,16 +4301,16 @@
         <v>0.7</v>
       </c>
       <c r="E11" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
-        <v>123</v>
+    <row r="12" spans="1:10">
+      <c r="A12" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -3790,9 +4326,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
-        <v>135</v>
+    <row r="13" spans="1:10">
+      <c r="A13" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -3811,145 +4347,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
+      <c r="A15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="10:10">
       <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="10:10">
       <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:10">
       <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:10">
       <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="10:10">
       <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="10:10">
       <c r="J21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="10:10">
       <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="10:10">
       <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="10:10">
       <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="10:10">
       <c r="J25" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="10:10">
       <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="10:10">
       <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="10:10">
       <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="10:10">
       <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="10:10">
       <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="10:10">
       <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="10:10">
       <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:10">
       <c r="J33" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
@@ -3964,21 +4518,23 @@
     <col min="14" max="14" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="3.75" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
-    <col min="17" max="21" width="3.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90833333333333" style="1" customWidth="1"/>
+    <col min="20" max="21" width="3.375" style="1" customWidth="1"/>
     <col min="22" max="33" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -4074,19 +4630,19 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="5.25" customHeight="1" spans="1:35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4126,12 +4682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -4140,29 +4696,29 @@
         <v>100</v>
       </c>
       <c r="R4" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="AI4" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="6" spans="35:35">
       <c r="AI6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="3.75" customHeight="1" spans="1:35">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -4202,12 +4758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="1">
         <v>32</v>
@@ -4217,9 +4773,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -4229,9 +4785,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -4241,16 +4797,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="4.5" customHeight="1" spans="1:35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -4290,12 +4846,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="1">
         <v>32</v>
@@ -4305,9 +4861,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -4320,16 +4876,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="3.75" customHeight="1" spans="1:35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -4369,16 +4925,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="3" customHeight="1" spans="1:35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -4418,9 +4974,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35">
       <c r="A19" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -4445,7 +5001,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="3.75" customHeight="1" spans="1:35">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -4485,21 +5041,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -4509,7 +5065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="4.5" customHeight="1" spans="1:35">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -4549,12 +5105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="15.95" customHeight="1" spans="1:35">
       <c r="A24" s="13" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -4593,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="18" customHeight="1" spans="1:35">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="13"/>
@@ -4633,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="5.1" customHeight="1" spans="1:35">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -4673,16 +5229,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="3" customHeight="1" spans="1:35">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -4722,9 +5278,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -4734,7 +5290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="3" customHeight="1" spans="1:35">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -4774,9 +5330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -4793,7 +5349,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="3" customHeight="1" spans="1:35">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -4833,19 +5389,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="P33" s="1">
         <v>25</v>
       </c>
+      <c r="R33" s="1">
+        <v>45</v>
+      </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" ht="4.5" customHeight="1" spans="1:35">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4882,12 +5441,12 @@
       <c r="AH34" s="11"/>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -4896,7 +5455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="4.5" customHeight="1" spans="1:35">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -4933,9 +5492,9 @@
       <c r="AH36" s="10"/>
       <c r="AI36" s="10"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
@@ -4945,10 +5504,10 @@
         <v>30</v>
       </c>
       <c r="R37" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" ht="4.5" customHeight="1" spans="1:35">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -4985,9 +5544,9 @@
       <c r="AH38" s="10"/>
       <c r="AI38" s="10"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A39" s="38" t="s">
-        <v>126</v>
+    <row r="39" spans="1:16">
+      <c r="A39" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="B39" s="4"/>
       <c r="M39" s="1">
@@ -4997,30 +5556,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="35:35">
       <c r="AI40" s="1">
         <f t="shared" ref="AI40:AI41" si="1">SUM(C40:AH40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A41" s="15" t="s">
-        <v>30</v>
+    <row r="41" ht="14.25" spans="1:35">
+      <c r="A41" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="AI41" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" ht="27.75" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D42" s="3">
         <v>22</v>
@@ -5074,18 +5633,18 @@
         <v>31</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -5122,12 +5681,12 @@
       <c r="AH44" s="11"/>
       <c r="AI44" s="11"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1">
         <v>240</v>
@@ -5152,22 +5711,22 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:35">
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AI46" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="35:35">
       <c r="AI47" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -5207,12 +5766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C49" s="1">
         <v>64</v>
@@ -5222,18 +5781,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:35">
       <c r="B51" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1">
         <v>32</v>
@@ -5243,9 +5802,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:35">
       <c r="B52" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1">
         <v>32</v>
@@ -5261,7 +5820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -5301,12 +5860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
@@ -5316,9 +5875,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E55" s="1">
         <v>32</v>
@@ -5328,9 +5887,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:35">
       <c r="B56" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -5340,7 +5899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -5380,19 +5939,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -5432,9 +5991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35">
       <c r="A60" s="12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -5459,7 +6018,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -5499,12 +6058,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -5514,9 +6073,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:35">
       <c r="B63" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -5526,7 +6085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35">
       <c r="A64" s="11"/>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
@@ -5566,12 +6125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35">
       <c r="A65" s="13" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C65" s="13">
         <v>5</v>
@@ -5612,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35">
       <c r="A66" s="13"/>
       <c r="B66" s="14"/>
       <c r="C66" s="13"/>
@@ -5652,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35">
       <c r="A67" s="11"/>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
@@ -5692,9 +6251,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -5707,7 +6266,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -5747,9 +6306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D70" s="1">
         <v>120</v>
@@ -5762,7 +6321,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5802,9 +6361,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
@@ -5814,7 +6373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:35">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -5854,9 +6413,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:35">
       <c r="A74" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -5867,24 +6426,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
@@ -5900,45 +6459,45 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14">
       <c r="B2" s="1">
         <v>4.26</v>
       </c>
@@ -5950,11 +6509,11 @@
       </c>
       <c r="F2" s="5">
         <f>C2/915</f>
-        <v>3.3879781420765025E-2</v>
+        <v>0.033879781420765</v>
       </c>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="B3" s="1">
         <v>4.28</v>
       </c>
@@ -5969,10 +6528,10 @@
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F23" si="0">C3/915</f>
-        <v>6.5573770491803282E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0.0655737704918033</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>5.2</v>
       </c>
@@ -5987,10 +6546,10 @@
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>9.8360655737704916E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>0.0983606557377049</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>5.19</v>
       </c>
@@ -5999,25 +6558,25 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.98469945355191257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>0.984699453551913</v>
+      </c>
+    </row>
+    <row r="8" hidden="1"/>
+    <row r="9" hidden="1"/>
+    <row r="10" hidden="1"/>
+    <row r="11" hidden="1"/>
+    <row r="12" hidden="1"/>
+    <row r="13" hidden="1"/>
+    <row r="14" hidden="1"/>
+    <row r="15" hidden="1"/>
+    <row r="16" hidden="1"/>
+    <row r="17" hidden="1" spans="6:6">
       <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" ht="14.25" spans="2:12">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6035,45 +6594,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="1">
         <v>6.12</v>
       </c>
@@ -6082,7 +6641,7 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>4.3715846994535519E-2</v>
+        <v>0.0437158469945355</v>
       </c>
       <c r="H20" s="1">
         <v>5.22</v>
@@ -6095,10 +6654,10 @@
       </c>
       <c r="L20" s="5">
         <f>SUM(I20:I42)/256</f>
-        <v>3.7890624999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.037890625</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="1">
         <v>6.13</v>
       </c>
@@ -6107,7 +6666,7 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" si="0"/>
-        <v>5.4644808743169397E-2</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="H21" s="1">
         <v>5.23</v>
@@ -6119,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10">
       <c r="B22" s="1">
         <v>6.14</v>
       </c>
@@ -6128,7 +6687,7 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>8.7431693989071038E-2</v>
+        <v>0.087431693989071</v>
       </c>
       <c r="H22" s="1">
         <v>5.25</v>
@@ -6140,10 +6699,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10">
+      <c r="B23" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>97</v>
+      </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.106010928961749</v>
       </c>
       <c r="H23" s="1">
         <v>5.26</v>
@@ -6152,7 +6717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:9">
       <c r="F24" s="5">
         <f t="shared" ref="F24:F38" si="2">C24/915</f>
         <v>0</v>
@@ -6164,7 +6729,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:9">
       <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6176,7 +6741,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:9">
       <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6188,142 +6753,143 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:6">
       <c r="F27" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:6">
       <c r="F28" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:6">
       <c r="F29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="6:6">
       <c r="F30" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="6:6">
       <c r="F31" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:6">
       <c r="F32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:6">
       <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:6">
       <c r="F34" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:6">
       <c r="F35" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:6">
       <c r="F36" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:6">
       <c r="F37" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:6">
       <c r="F38" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -391,6 +391,36 @@
     <t>194.8(am）</t>
   </si>
   <si>
+    <t>6.17~6.18</t>
+  </si>
+  <si>
+    <t>CV update</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>umbrella+dumpling+soup</t>
+  </si>
+  <si>
+    <t>191.2(am)</t>
+  </si>
+  <si>
+    <t>6.20</t>
+  </si>
+  <si>
+    <t>soup+dumpling</t>
+  </si>
+  <si>
+    <t>189.9(am)</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -686,6 +716,9 @@
     <t>6.6</t>
   </si>
   <si>
+    <t>6.18</t>
+  </si>
+  <si>
     <t>Read pages
 （当前阅读页码）</t>
   </si>
@@ -1016,7 +1049,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,13 +1060,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1133,13 +1159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1188,14 +1207,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,9 +1235,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,7 +1256,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,6 +1307,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1299,163 +1469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,10 +1625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1623,137 +1637,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1769,15 +1783,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="3" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,37 +1822,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="34" applyNumberFormat="1" applyAlignment="1">
@@ -1838,7 +1849,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1850,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1862,16 +1873,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2242,102 +2247,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="12" customHeight="1" spans="8:17">
-      <c r="H12" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
+      <c r="H12" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
     </row>
     <row r="13" customHeight="1" spans="8:17">
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" customHeight="1" spans="8:17">
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" customHeight="1" spans="8:17">
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
     </row>
     <row r="16" customHeight="1" spans="8:17">
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
     </row>
     <row r="17" customHeight="1" spans="8:17">
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
     </row>
     <row r="18" customHeight="1" spans="8:17">
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
     </row>
     <row r="19" customHeight="1" spans="8:17">
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2357,1504 +2362,1583 @@
   </sheetPr>
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="C37:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="23"/>
-    <col min="2" max="2" width="14.125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="13" style="24" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="24" customWidth="1"/>
-    <col min="8" max="9" width="9" style="24"/>
-    <col min="10" max="10" width="11.125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="21" style="24" customWidth="1"/>
-    <col min="12" max="12" width="28" style="24" customWidth="1"/>
-    <col min="13" max="13" width="24.25" style="24" customWidth="1"/>
-    <col min="14" max="14" width="9" style="24"/>
-    <col min="15" max="15" width="11" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="10" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="13" style="23" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="23" customWidth="1"/>
+    <col min="8" max="9" width="9" style="23"/>
+    <col min="10" max="10" width="11.125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="21" style="23" customWidth="1"/>
+    <col min="12" max="12" width="28" style="23" customWidth="1"/>
+    <col min="13" max="13" width="24.25" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9" style="23"/>
+    <col min="15" max="15" width="11" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:8">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" ht="3" customHeight="1" spans="1:7">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23">
+      <c r="A3" s="22">
         <v>6.1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>8</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>20</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>17</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <f>SUM(B4:D4)</f>
         <v>45</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f>SUM(F4:F35)</f>
-        <v>1323.58</v>
+        <v>1673.58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>6.2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="F5" s="24">
+      <c r="D5" s="33"/>
+      <c r="F5" s="23">
         <f t="shared" ref="F5:F57" si="0">SUM(B5:D5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>20</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>194.7</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="F7" s="24">
+      <c r="C7" s="33"/>
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>650</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>6.5</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>4</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>16</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>194.3</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>6.6</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>1</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>15.8</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>20</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>194.6</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <f t="shared" si="0"/>
         <v>36.8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>6.7</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>3.5</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>12</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>194.7</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>6.8</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>3.5</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>17</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>6.9</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="24">
+      <c r="B18" s="23">
         <v>3.2</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>10</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>212</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <f t="shared" si="0"/>
         <v>225.2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>15</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>15</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>30</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>50</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>8</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>10</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="23">
         <v>10.8</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>3.5</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>12.5</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="33">
         <v>14</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>3.5</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>15.28</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>41</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <f t="shared" si="0"/>
         <v>59.78</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>8.5</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>17</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <v>3.5</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>9</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="F39" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="33" ht="27" spans="1:6">
+      <c r="A33" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="23">
+        <v>300</v>
+      </c>
+      <c r="C34" s="23">
+        <v>50</v>
+      </c>
+      <c r="E34" s="24">
+        <v>195</v>
+      </c>
+      <c r="F34" s="23">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="23">
+        <v>8</v>
+      </c>
+      <c r="C36" s="23">
+        <v>13</v>
+      </c>
+      <c r="D36" s="23">
+        <v>29</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="23">
+        <v>4</v>
+      </c>
+      <c r="C38" s="23">
+        <v>15</v>
+      </c>
+      <c r="D38" s="23">
+        <v>11</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="F39" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C40" s="23">
+        <v>12</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="23">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="34"/>
-      <c r="F41" s="24">
+      <c r="B41" s="33"/>
+      <c r="F41" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="34"/>
-      <c r="F43" s="24">
+      <c r="B43" s="33"/>
+      <c r="F43" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="24">
+      <c r="F44" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="24">
+      <c r="F45" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="6:6">
-      <c r="F47" s="24">
+      <c r="F47" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="6:6">
-      <c r="F48" s="24">
+      <c r="F48" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="25"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24">
+      <c r="B50" s="24"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="35"/>
-      <c r="F51" s="24">
+      <c r="A51" s="34"/>
+      <c r="F51" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="24">
+      <c r="F52" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="35"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="F53" s="24">
+      <c r="A53" s="34"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="F53" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="6:6">
-      <c r="F54" s="24">
+      <c r="F54" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="6:6">
-      <c r="F55" s="24">
+      <c r="F55" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:6">
-      <c r="F56" s="24">
+      <c r="F56" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="6:6">
-      <c r="F57" s="24">
+      <c r="F57" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="24"/>
+      <c r="A58" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="24"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" ht="27" spans="1:8">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H60" s="29"/>
+      <c r="H60" s="28"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>4.24</v>
       </c>
-      <c r="B62" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="24" t="s">
+      <c r="B62" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="24" t="s">
-        <v>42</v>
+      <c r="D62" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="3:7">
-      <c r="C63" s="24">
+      <c r="C63" s="23">
         <v>12.2</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="23">
         <v>12</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="23">
         <f>SUM(B63:D63)</f>
         <v>24.2</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="23">
         <f>SUM(F63:F94)</f>
         <v>2574.5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>4.25</v>
       </c>
-      <c r="B64" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="24" t="s">
+      <c r="B64" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="24">
+      <c r="D64" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="23">
         <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="24">
+      <c r="B65" s="23">
         <v>3</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="23">
         <v>10.85</v>
       </c>
-      <c r="D65" s="24">
+      <c r="D65" s="23">
         <v>18</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="23">
         <f t="shared" si="1"/>
         <v>31.85</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="23">
+      <c r="A66" s="22">
         <v>4.26</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="24">
+      <c r="B66" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="24">
+      <c r="B67" s="23">
         <v>3</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="23">
         <v>14</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="23">
         <v>19.7</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="23">
         <f t="shared" si="1"/>
         <v>36.7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="23">
+      <c r="A68" s="22">
         <v>4.27</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="24" t="s">
+      <c r="B68" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="24">
+      <c r="D68" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="24">
+      <c r="B69" s="23">
         <v>3</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="23">
         <v>16.7</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="23">
         <v>26</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="23">
         <f t="shared" si="1"/>
         <v>45.7</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="23">
+      <c r="A70" s="22">
         <v>4.28</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="24" t="s">
+      <c r="B70" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="24">
+      <c r="B71" s="23">
         <v>3</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="23">
         <v>16.2</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="23">
         <f t="shared" si="1"/>
         <v>19.2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="23">
+      <c r="A72" s="22">
         <v>5.1</v>
       </c>
-      <c r="B72" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" s="24">
+      <c r="B72" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="24">
+      <c r="B73" s="23">
         <v>1000</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="23">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="23">
+      <c r="A74" s="22">
         <v>5.2</v>
       </c>
-      <c r="B74" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="24" t="s">
+      <c r="B74" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="24">
+      <c r="B75" s="23">
         <v>3</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="23">
         <v>12</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="23">
         <v>11</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="23">
+      <c r="A76" s="22">
         <v>5.3</v>
       </c>
-      <c r="B76" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="24" t="s">
+      <c r="B76" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="24">
+      <c r="F76" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="24">
+      <c r="B77" s="23">
         <v>6</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="23">
         <v>9</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="23">
         <v>291</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="23">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="23">
+      <c r="A78" s="22">
         <v>5.4</v>
       </c>
-      <c r="B78" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="24" t="s">
+      <c r="B78" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="24">
+      <c r="F78" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="24">
+      <c r="B79" s="23">
         <v>3</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="23">
         <v>21</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="23">
         <v>95</v>
       </c>
-      <c r="F79" s="24">
+      <c r="F79" s="23">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="23">
+      <c r="A80" s="22">
         <v>5.5</v>
       </c>
-      <c r="B80" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="24" t="s">
+      <c r="B80" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="24">
+      <c r="F80" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="24">
+      <c r="B81" s="23">
         <v>3</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="23">
         <v>12.75</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="23">
         <v>10</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="23">
         <f t="shared" si="1"/>
         <v>25.75</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="24">
+      <c r="A82" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:6">
-      <c r="D83" s="24">
+      <c r="D83" s="23">
         <v>300</v>
       </c>
-      <c r="F83" s="24">
+      <c r="F83" s="23">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="23">
+      <c r="A84" s="22">
         <v>5.9</v>
       </c>
-      <c r="B84" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="24" t="s">
+      <c r="B84" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="24">
+      <c r="F84" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="24">
+      <c r="B85" s="23">
         <v>3</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="23">
         <v>9</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="23">
         <v>18</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="86" ht="27" spans="1:6">
-      <c r="A86" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86" s="24">
+      <c r="A86" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="4:6">
-      <c r="D87" s="24">
+      <c r="D87" s="23">
         <v>200</v>
       </c>
-      <c r="F87" s="24">
+      <c r="F87" s="23">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="23">
+      <c r="A88" s="22">
         <v>5.16</v>
       </c>
-      <c r="B88" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" s="24" t="s">
+      <c r="B88" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="D88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="24">
+      <c r="F88" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="24">
+      <c r="B89" s="23">
         <v>10</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="23">
         <v>10.9</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="23">
         <v>10</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F89" s="23">
         <f t="shared" si="1"/>
         <v>30.9</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="23">
+      <c r="A90" s="22">
         <v>5.17</v>
       </c>
-      <c r="B90" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" s="24" t="s">
+      <c r="B90" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F90" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="24">
+      <c r="B91" s="23">
         <v>3</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="23">
         <v>10.9</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="23">
         <v>19.5</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="23">
         <f t="shared" si="1"/>
         <v>33.4</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="23">
+      <c r="A92" s="22">
         <v>5.18</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" s="24" t="s">
+      <c r="B92" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F92" s="24">
+      <c r="D92" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="24">
+      <c r="B93" s="23">
         <v>3</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="23">
         <v>16</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="23">
         <v>326.8</v>
       </c>
-      <c r="F93" s="24">
+      <c r="F93" s="23">
         <f t="shared" si="1"/>
         <v>345.8</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="23">
+      <c r="A94" s="22">
         <v>5.19</v>
       </c>
-      <c r="B94" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="24" t="s">
+      <c r="B94" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="24">
+      <c r="F94" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="24">
+      <c r="B95" s="23">
         <v>24</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="23">
         <v>16</v>
       </c>
-      <c r="F95" s="24">
+      <c r="F95" s="23">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96" s="24">
+      <c r="A96" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="24">
+      <c r="B97" s="23">
         <v>80</v>
       </c>
-      <c r="F97" s="24">
+      <c r="F97" s="23">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="23">
+      <c r="A98" s="22">
         <v>5.22</v>
       </c>
-      <c r="C98" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="24">
+      <c r="C98" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F98" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="3:6">
-      <c r="C99" s="24">
+      <c r="C99" s="23">
         <v>20.5</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D99" s="23">
         <v>15</v>
       </c>
-      <c r="F99" s="24">
+      <c r="F99" s="23">
         <f t="shared" si="1"/>
         <v>35.5</v>
       </c>
     </row>
     <row r="100" ht="27" spans="1:6">
-      <c r="A100" s="23">
+      <c r="A100" s="22">
         <v>5.23</v>
       </c>
-      <c r="B100" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="24" t="s">
+      <c r="B100" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F100" s="24">
+      <c r="D100" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:6">
-      <c r="B101" s="24">
+      <c r="B101" s="23">
         <v>8</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="23">
         <v>12.5</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="23">
         <v>30</v>
       </c>
-      <c r="F101" s="24">
+      <c r="F101" s="23">
         <f t="shared" si="1"/>
         <v>50.5</v>
       </c>
     </row>
     <row r="102" ht="27" spans="1:6">
-      <c r="A102" s="23">
+      <c r="A102" s="22">
         <v>5.24</v>
       </c>
-      <c r="B102" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="24" t="s">
+      <c r="B102" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F102" s="24">
+      <c r="D102" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F102" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:6">
-      <c r="B103" s="24">
+      <c r="B103" s="23">
         <v>4</v>
       </c>
-      <c r="C103" s="24">
+      <c r="C103" s="23">
         <v>15</v>
       </c>
-      <c r="D103" s="24">
+      <c r="D103" s="23">
         <v>15</v>
       </c>
-      <c r="F103" s="24">
+      <c r="F103" s="23">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="104" ht="27" spans="1:6">
-      <c r="A104" s="23">
+      <c r="A104" s="22">
         <v>5.25</v>
       </c>
-      <c r="B104" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C104" s="24" t="s">
+      <c r="B104" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104" s="24">
+      <c r="D104" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:6">
-      <c r="B105" s="24">
+      <c r="B105" s="23">
         <v>3</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="23">
         <v>14.5</v>
       </c>
-      <c r="D105" s="24">
+      <c r="D105" s="23">
         <v>20</v>
       </c>
-      <c r="F105" s="24">
+      <c r="F105" s="23">
         <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="23">
+      <c r="A106" s="22">
         <v>5.26</v>
       </c>
-      <c r="B106" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" s="24" t="s">
+      <c r="B106" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E106" s="25">
+      <c r="D106" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="24">
         <v>196.7</v>
       </c>
-      <c r="F106" s="24">
+      <c r="F106" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:6">
-      <c r="B107" s="24">
+      <c r="B107" s="23">
         <v>5</v>
       </c>
-      <c r="C107" s="24">
+      <c r="C107" s="23">
         <v>9</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="23">
         <v>10</v>
       </c>
-      <c r="F107" s="24">
+      <c r="F107" s="23">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F108" s="24">
+      <c r="A108" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F108" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:6">
-      <c r="B109" s="25">
+      <c r="B109" s="24">
         <v>600</v>
       </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24">
+      <c r="E109" s="23"/>
+      <c r="F109" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F110" s="24">
+      <c r="A110" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F110" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:6">
-      <c r="D111" s="24">
+      <c r="D111" s="23">
         <v>49</v>
       </c>
-      <c r="E111" s="25">
+      <c r="E111" s="24">
         <v>194.7</v>
       </c>
-      <c r="F111" s="24">
+      <c r="F111" s="23">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" s="24">
+      <c r="A112" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="24">
+      <c r="B113" s="23">
         <v>8</v>
       </c>
-      <c r="C113" s="24">
+      <c r="C113" s="23">
         <v>17.5</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="23">
         <v>88</v>
       </c>
-      <c r="E113" s="25">
+      <c r="E113" s="24">
         <v>193</v>
       </c>
-      <c r="F113" s="24">
+      <c r="F113" s="23">
         <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:F500">
-    <cfRule type="expression" dxfId="0" priority="35">
+  <conditionalFormatting sqref="C35:D35">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$F35&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:F34 A35:B35 E35:F35 A36:F500">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>$F3&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:F113">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$F5&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3869,15 +3953,15 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
@@ -3886,24 +3970,24 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
-      <c r="A1" s="18" t="s">
-        <v>72</v>
+      <c r="A1" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17">
+      <c r="A2" s="5">
         <v>4.26</v>
       </c>
       <c r="B2" s="1">
@@ -3911,7 +3995,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17">
+      <c r="A3" s="5">
         <v>4.27</v>
       </c>
       <c r="B3" s="1">
@@ -3919,7 +4003,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17">
+      <c r="A4" s="5">
         <v>5.19</v>
       </c>
       <c r="B4" s="1">
@@ -3927,7 +4011,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17">
+      <c r="A5" s="5">
         <v>5.2</v>
       </c>
       <c r="B5" s="1">
@@ -3935,7 +4019,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17">
+      <c r="A6" s="5">
         <v>5.21</v>
       </c>
       <c r="B6" s="1">
@@ -3943,7 +4027,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17">
+      <c r="A7" s="5">
         <v>5.22</v>
       </c>
       <c r="B7" s="1">
@@ -3951,7 +4035,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17">
+      <c r="A8" s="5">
         <v>5.23</v>
       </c>
       <c r="B8" s="1">
@@ -3959,24 +4043,24 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="22" t="s">
-        <v>77</v>
+      <c r="A9" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="22" t="s">
-        <v>78</v>
+      <c r="A10" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="22" t="s">
-        <v>79</v>
+      <c r="A11" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -4007,11 +4091,43 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4042,19 +4158,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4090,12 +4206,12 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
@@ -4103,44 +4219,44 @@
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" spans="1:10">
-      <c r="A1" s="18" t="s">
-        <v>72</v>
+      <c r="A1" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="17">
+      <c r="A2" s="5">
         <v>5.22</v>
       </c>
       <c r="B2" s="1">
@@ -4151,27 +4267,27 @@
       </c>
       <c r="F2" s="19">
         <f>SUM(B2:B42)</f>
-        <v>21.8</v>
+        <v>23.3</v>
       </c>
       <c r="G2" s="19">
         <f>SUM(C2:C42)</f>
-        <v>8.7</v>
+        <v>15.7</v>
       </c>
       <c r="H2" s="19">
         <f>SUM(D2:D42)</f>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I2" s="19">
         <f>SUM(E2:E42)</f>
-        <v>8.1</v>
+        <v>13.1</v>
       </c>
       <c r="J2" s="21">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.132666666666667</v>
+        <v>0.180333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="17">
+      <c r="A3" s="5">
         <v>5.23</v>
       </c>
       <c r="B3" s="1">
@@ -4180,49 +4296,49 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J33" si="0">(F3+G3+H3)/300</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="17">
+      <c r="A4" s="5">
         <v>5.24</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="17">
+      <c r="A5" s="5">
         <v>5.25</v>
       </c>
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="17">
+      <c r="A6" s="5">
         <v>5.26</v>
       </c>
       <c r="B6" s="1">
         <v>1.2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="17">
+      <c r="A7" s="5">
         <v>6.6</v>
       </c>
       <c r="B7" s="1">
@@ -4234,13 +4350,13 @@
       <c r="E7" s="1">
         <v>0.8</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17">
+      <c r="A8" s="5">
         <v>6.8</v>
       </c>
       <c r="B8" s="1">
@@ -4252,13 +4368,13 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1">
@@ -4267,14 +4383,14 @@
       <c r="E9" s="1">
         <v>0.5</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="17" t="s">
-        <v>92</v>
+      <c r="A10" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4285,14 +4401,14 @@
       <c r="E10" s="1">
         <v>1.5</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="17" t="s">
-        <v>93</v>
+      <c r="A11" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
@@ -4303,7 +4419,7 @@
       <c r="E11" s="1">
         <v>1.1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4321,7 +4437,7 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4342,14 +4458,14 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="17" t="s">
-        <v>94</v>
+      <c r="A14" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -4360,127 +4476,157 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="10:10">
-      <c r="J16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="5">
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="10:10">
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="10:10">
-      <c r="J19" s="5">
+      <c r="J19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="10:10">
-      <c r="J20" s="5">
+      <c r="J20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="10:10">
-      <c r="J21" s="5">
+      <c r="J21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="10:10">
-      <c r="J22" s="5">
+      <c r="J22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="10:10">
-      <c r="J23" s="5">
+      <c r="J23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="10:10">
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="10:10">
-      <c r="J25" s="5">
+      <c r="J25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="5">
+      <c r="J26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="10:10">
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="10:10">
-      <c r="J28" s="5">
+      <c r="J28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="10:10">
-      <c r="J29" s="5">
+      <c r="J29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="10:10">
-      <c r="J30" s="5">
+      <c r="J30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="10:10">
-      <c r="J31" s="5">
+      <c r="J31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="10:10">
-      <c r="J32" s="5">
+      <c r="J32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="10:10">
-      <c r="J33" s="5">
+      <c r="J33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4500,7 +4646,7 @@
   <dimension ref="A1:AI74"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="AJ39" sqref="AJ39:AK39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4516,25 +4662,24 @@
     <col min="10" max="12" width="3.375" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="3.875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="3.375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.375" style="1" customWidth="1"/>
-    <col min="18" max="19" width="3.90833333333333" style="1" customWidth="1"/>
-    <col min="20" max="21" width="3.375" style="1" customWidth="1"/>
-    <col min="22" max="33" width="3.375" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="6.5" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="3.75" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="3.90833333333333" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="33" width="3.375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="6.5" style="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -4630,12 +4775,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -4643,51 +4788,51 @@
       </c>
     </row>
     <row r="3" ht="5.25" customHeight="1" spans="1:35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14">
         <f t="shared" ref="AI3:AI33" si="0">SUM(C3:AH3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -4705,7 +4850,7 @@
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -4719,51 +4864,51 @@
       </c>
     </row>
     <row r="7" ht="3.75" customHeight="1" spans="1:35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="1">
         <v>32</v>
@@ -4775,7 +4920,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -4787,7 +4932,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -4799,7 +4944,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -4807,51 +4952,51 @@
       </c>
     </row>
     <row r="12" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="1">
         <v>32</v>
@@ -4863,7 +5008,7 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -4878,7 +5023,7 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -4886,48 +5031,48 @@
       </c>
     </row>
     <row r="16" ht="3.75" customHeight="1" spans="1:35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -4935,48 +5080,48 @@
       </c>
     </row>
     <row r="18" ht="3" customHeight="1" spans="1:35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" s="12" t="s">
-        <v>111</v>
+      <c r="A19" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -4996,57 +5141,60 @@
       <c r="R19" s="1">
         <v>25</v>
       </c>
+      <c r="W19" s="1">
+        <v>30</v>
+      </c>
       <c r="AI19" s="1">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" ht="3.75" customHeight="1" spans="1:35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5055,7 +5203,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -5066,172 +5214,172 @@
       </c>
     </row>
     <row r="23" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.95" customHeight="1" spans="1:35">
-      <c r="A24" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
+      <c r="A24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
       <c r="AI24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
       <c r="AI25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="5.1" customHeight="1" spans="1:35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11">
+      <c r="A26" s="14"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
@@ -5239,48 +5387,48 @@
       </c>
     </row>
     <row r="28" ht="3" customHeight="1" spans="1:35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="11">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -5291,48 +5439,48 @@
       </c>
     </row>
     <row r="30" ht="3" customHeight="1" spans="1:35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -5350,48 +5498,48 @@
       </c>
     </row>
     <row r="32" ht="3" customHeight="1" spans="1:35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="P33" s="1">
         <v>25</v>
@@ -5405,48 +5553,48 @@
       </c>
     </row>
     <row r="34" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="4" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
@@ -5456,45 +5604,45 @@
       </c>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
@@ -5508,45 +5656,45 @@
       </c>
     </row>
     <row r="38" ht="4.5" customHeight="1" spans="1:35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="15" t="s">
-        <v>122</v>
+      <c r="A39" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B39" s="4"/>
       <c r="M39" s="1">
@@ -5563,8 +5711,8 @@
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:35">
-      <c r="A41" s="16" t="s">
-        <v>40</v>
+      <c r="A41" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="AI41" s="1">
         <f t="shared" si="1"/>
@@ -5573,13 +5721,13 @@
     </row>
     <row r="42" ht="27.75" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3">
         <v>22</v>
@@ -5633,60 +5781,60 @@
         <v>31</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
-      <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-      <c r="AI44" s="11"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1">
         <v>240</v>
@@ -5713,7 +5861,7 @@
     </row>
     <row r="46" spans="2:35">
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="AI46" s="1">
         <f t="shared" si="2"/>
@@ -5727,51 +5875,51 @@
       </c>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
+      <c r="AI48" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C49" s="1">
         <v>64</v>
@@ -5783,7 +5931,7 @@
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AI50" s="1">
         <f t="shared" si="2"/>
@@ -5792,7 +5940,7 @@
     </row>
     <row r="51" spans="2:35">
       <c r="B51" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D51" s="1">
         <v>32</v>
@@ -5804,7 +5952,7 @@
     </row>
     <row r="52" spans="2:35">
       <c r="B52" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1">
         <v>32</v>
@@ -5821,51 +5969,51 @@
       </c>
     </row>
     <row r="53" spans="1:35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
@@ -5877,7 +6025,7 @@
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E55" s="1">
         <v>32</v>
@@ -5889,7 +6037,7 @@
     </row>
     <row r="56" spans="2:35">
       <c r="B56" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
@@ -5900,51 +6048,51 @@
       </c>
     </row>
     <row r="57" spans="1:35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11"/>
-      <c r="AI57" s="11">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AI58" s="1">
         <f t="shared" si="2"/>
@@ -5952,48 +6100,48 @@
       </c>
     </row>
     <row r="59" spans="1:35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11"/>
-      <c r="AI59" s="11">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="14"/>
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:35">
-      <c r="A60" s="12" t="s">
-        <v>111</v>
+      <c r="A60" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -6019,51 +6167,51 @@
       </c>
     </row>
     <row r="61" spans="1:35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="11"/>
-      <c r="AA61" s="11"/>
-      <c r="AB61" s="11"/>
-      <c r="AC61" s="11"/>
-      <c r="AD61" s="11"/>
-      <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
-      <c r="AG61" s="11"/>
-      <c r="AH61" s="11"/>
-      <c r="AI61" s="11">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="14"/>
+      <c r="W61" s="14"/>
+      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="14"/>
+      <c r="AD61" s="14"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
@@ -6075,7 +6223,7 @@
     </row>
     <row r="63" spans="2:35">
       <c r="B63" s="4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
@@ -6086,174 +6234,174 @@
       </c>
     </row>
     <row r="64" spans="1:35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
-      <c r="AI64" s="11">
+      <c r="A64" s="14"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="14"/>
+      <c r="W64" s="14"/>
+      <c r="X64" s="14"/>
+      <c r="Y64" s="14"/>
+      <c r="Z64" s="14"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:35">
-      <c r="A65" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="A65" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="16">
         <v>5</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="13"/>
-      <c r="AF65" s="13"/>
-      <c r="AG65" s="13"/>
-      <c r="AH65" s="13"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="16"/>
+      <c r="AF65" s="16"/>
+      <c r="AG65" s="16"/>
+      <c r="AH65" s="16"/>
       <c r="AI65" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:35">
-      <c r="A66" s="13"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="13"/>
-      <c r="AC66" s="13"/>
-      <c r="AD66" s="13"/>
-      <c r="AE66" s="13"/>
-      <c r="AF66" s="13"/>
-      <c r="AG66" s="13"/>
-      <c r="AH66" s="13"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="16"/>
+      <c r="AE66" s="16"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="16"/>
       <c r="AI66" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:35">
-      <c r="A67" s="11"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="11"/>
-      <c r="AH67" s="11"/>
-      <c r="AI67" s="11">
+      <c r="A67" s="14"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="14"/>
+      <c r="X67" s="14"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AC67" s="14"/>
+      <c r="AD67" s="14"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -6267,48 +6415,48 @@
       </c>
     </row>
     <row r="69" spans="1:35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11"/>
-      <c r="AA69" s="11"/>
-      <c r="AB69" s="11"/>
-      <c r="AC69" s="11"/>
-      <c r="AD69" s="11"/>
-      <c r="AE69" s="11"/>
-      <c r="AF69" s="11"/>
-      <c r="AG69" s="11"/>
-      <c r="AH69" s="11"/>
-      <c r="AI69" s="11">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="14"/>
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
+      <c r="AH69" s="14"/>
+      <c r="AI69" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D70" s="1">
         <v>120</v>
@@ -6322,48 +6470,48 @@
       </c>
     </row>
     <row r="71" spans="1:35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="11"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="11"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
-      <c r="AI71" s="11">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="14"/>
+      <c r="W71" s="14"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
+      <c r="AH71" s="14"/>
+      <c r="AI71" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
@@ -6374,48 +6522,48 @@
       </c>
     </row>
     <row r="73" spans="1:35">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
-      <c r="AG73" s="11"/>
-      <c r="AH73" s="11"/>
-      <c r="AI73" s="11">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="14"/>
+      <c r="W73" s="14"/>
+      <c r="X73" s="14"/>
+      <c r="Y73" s="14"/>
+      <c r="Z73" s="14"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AC73" s="14"/>
+      <c r="AD73" s="14"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="14"/>
+      <c r="AI73" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="4" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -6440,65 +6588,66 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="6" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.75" spans="1:12">
-      <c r="A1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
+      <c r="A1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>4.26</v>
       </c>
       <c r="C2" s="1">
@@ -6507,14 +6656,14 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <f>C2/915</f>
         <v>0.033879781420765</v>
       </c>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>4.28</v>
       </c>
       <c r="C3" s="1">
@@ -6526,13 +6675,13 @@
       <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F23" si="0">C3/915</f>
         <v>0.0655737704918033</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>5.2</v>
       </c>
       <c r="C4" s="1">
@@ -6544,19 +6693,19 @@
       <c r="E4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>0.0983606557377049</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>5.19</v>
       </c>
       <c r="C5" s="1">
         <v>901</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>0.984699453551913</v>
       </c>
@@ -6571,75 +6720,75 @@
     <row r="15" hidden="1"/>
     <row r="16" hidden="1"/>
     <row r="17" hidden="1" spans="6:6">
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="2:12">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9">
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12">
         <f t="shared" ref="L18" si="1">I18/915</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="27.75" spans="1:12">
-      <c r="A19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
+      <c r="A19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="I19" s="3" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="1">
+      <c r="B20" s="5">
         <v>6.12</v>
       </c>
       <c r="C20" s="1">
         <v>40</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>0.0437158469945355</v>
       </c>
@@ -6652,19 +6801,19 @@
       <c r="J20" s="1">
         <v>5</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="6">
         <f>SUM(I20:I42)/256</f>
         <v>0.037890625</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="1">
+      <c r="B21" s="5">
         <v>6.13</v>
       </c>
       <c r="C21" s="1">
         <v>50</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>0.0546448087431694</v>
       </c>
@@ -6679,13 +6828,13 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="1">
+      <c r="B22" s="5">
         <v>6.14</v>
       </c>
       <c r="C22" s="1">
         <v>80</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>0.087431693989071</v>
       </c>
@@ -6700,13 +6849,13 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="1">
+      <c r="B23" s="5">
         <v>6.15</v>
       </c>
       <c r="C23" s="1">
         <v>97</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>0.106010928961749</v>
       </c>
@@ -6717,10 +6866,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="6:9">
-      <c r="F24" s="5">
+    <row r="24" spans="2:9">
+      <c r="B24" s="5">
+        <v>6.19</v>
+      </c>
+      <c r="C24" s="1">
+        <v>164</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" ref="F24:F38" si="2">C24/915</f>
-        <v>0</v>
+        <v>0.179234972677596</v>
       </c>
       <c r="H24" s="1">
         <v>5.31</v>
@@ -6729,10 +6884,16 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="6:9">
-      <c r="F25" s="5">
+    <row r="25" spans="2:9">
+      <c r="B25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>250</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.273224043715847</v>
       </c>
       <c r="H25" s="1">
         <v>6.13</v>
@@ -6742,7 +6903,7 @@
       </c>
     </row>
     <row r="26" spans="6:9">
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6754,73 +6915,73 @@
       </c>
     </row>
     <row r="27" spans="6:6">
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="6:6">
-      <c r="F28" s="5">
+      <c r="F28" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="6:6">
-      <c r="F29" s="5">
+      <c r="F29" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="6:6">
-      <c r="F31" s="5">
+      <c r="F31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="6:6">
-      <c r="F32" s="5">
+      <c r="F32" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="5">
+      <c r="F33" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="5">
+      <c r="F34" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="5">
+      <c r="F35" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="5">
+      <c r="F36" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="5">
+      <c r="F37" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="5">
+      <c r="F38" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6837,8 +6998,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -6850,15 +7011,15 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -6866,7 +7027,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -6874,15 +7035,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="7"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="First Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <t>Daily Managements</t>
   </si>
@@ -421,6 +421,15 @@
     <t>6.21</t>
   </si>
   <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>milk+bun+topup</t>
+  </si>
+  <si>
+    <t>190.1(am)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1044,10 +1053,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1105,29 +1114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1159,19 +1145,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1199,32 +1220,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,8 +1243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1307,54 +1316,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1367,13 +1328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,7 +1340,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,31 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,19 +1376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1469,7 +1406,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,6 +1529,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1540,6 +1564,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,41 +1620,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1628,7 +1637,7 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1637,133 +1646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2363,15 +2372,15 @@
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="C37:D40"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" style="22" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
     <col min="3" max="3" width="26.375" style="23" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="23" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="24" customWidth="1"/>
@@ -2888,7 +2897,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="33" ht="27" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33" s="22" t="s">
         <v>40</v>
       </c>
@@ -3012,17 +3021,28 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="33"/>
+    <row r="41" spans="1:6">
+      <c r="A41" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>51</v>
+      </c>
       <c r="F41" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="6:6">
+    <row r="42" spans="2:6">
+      <c r="B42" s="23">
+        <v>208</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="F42" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:6">
@@ -3125,7 +3145,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E58" s="23"/>
     </row>
@@ -3168,13 +3188,13 @@
         <v>4.24</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="3:7">
@@ -3198,13 +3218,13 @@
         <v>4.25</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F64" s="23">
         <f t="shared" ref="F64:F113" si="1">SUM(B64:D64)</f>
@@ -3231,13 +3251,13 @@
         <v>4.26</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F66" s="23">
         <f t="shared" si="1"/>
@@ -3264,13 +3284,13 @@
         <v>4.27</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F68" s="23">
         <f t="shared" si="1"/>
@@ -3297,7 +3317,7 @@
         <v>4.28</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>8</v>
@@ -3324,13 +3344,13 @@
         <v>5.1</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F72" s="23">
         <f t="shared" si="1"/>
@@ -3351,7 +3371,7 @@
         <v>5.2</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>8</v>
@@ -3384,7 +3404,7 @@
         <v>5.3</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>8</v>
@@ -3417,7 +3437,7 @@
         <v>5.4</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C78" s="23" t="s">
         <v>8</v>
@@ -3447,7 +3467,7 @@
         <v>5.5</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>8</v>
@@ -3474,7 +3494,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F82" s="23">
         <f t="shared" si="1"/>
@@ -3495,7 +3515,7 @@
         <v>5.9</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C84" s="23" t="s">
         <v>8</v>
@@ -3523,9 +3543,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" ht="27" spans="1:6">
+    <row r="86" spans="1:6">
       <c r="A86" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F86" s="23">
         <f t="shared" si="1"/>
@@ -3546,7 +3566,7 @@
         <v>5.16</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>8</v>
@@ -3579,7 +3599,7 @@
         <v>5.17</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C90" s="23" t="s">
         <v>8</v>
@@ -3612,13 +3632,13 @@
         <v>5.18</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C92" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F92" s="23">
         <f t="shared" si="1"/>
@@ -3645,7 +3665,7 @@
         <v>5.19</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C94" s="23" t="s">
         <v>8</v>
@@ -3669,10 +3689,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F96" s="23">
         <f t="shared" si="1"/>
@@ -3693,10 +3713,10 @@
         <v>5.22</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F98" s="23">
         <f t="shared" si="1"/>
@@ -3720,13 +3740,13 @@
         <v>5.23</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C100" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F100" s="23">
         <f t="shared" si="1"/>
@@ -3753,13 +3773,13 @@
         <v>5.24</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C102" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F102" s="23">
         <f t="shared" si="1"/>
@@ -3786,13 +3806,13 @@
         <v>5.25</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F104" s="23">
         <f t="shared" si="1"/>
@@ -3819,13 +3839,13 @@
         <v>5.26</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C106" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E106" s="24">
         <v>196.7</v>
@@ -3852,7 +3872,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F108" s="23">
         <f t="shared" si="1"/>
@@ -3871,7 +3891,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="34" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F110" s="23">
         <f t="shared" si="1"/>
@@ -3892,16 +3912,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F112" s="23">
         <f t="shared" si="1"/>
@@ -3971,19 +3991,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4044,7 +4064,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1">
         <v>283</v>
@@ -4052,7 +4072,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>668</v>
@@ -4060,7 +4080,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>40</v>
@@ -4100,7 +4120,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1">
         <v>360</v>
@@ -4158,19 +4178,19 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4206,7 +4226,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4225,34 +4245,34 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4271,19 +4291,19 @@
       </c>
       <c r="G2" s="19">
         <f>SUM(C2:C42)</f>
-        <v>15.7</v>
+        <v>18.7</v>
       </c>
       <c r="H2" s="19">
         <f>SUM(D2:D42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="19">
         <f>SUM(E2:E42)</f>
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="J2" s="21">
         <f>(F2+G2+H2+I2)/300</f>
-        <v>0.180333333333333</v>
+        <v>0.200333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4390,7 +4410,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -4408,7 +4428,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1">
         <v>2.1</v>
@@ -4465,7 +4485,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -4535,7 +4555,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
       <c r="J18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4645,8 +4677,8 @@
   </sheetPr>
   <dimension ref="A1:AI74"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ39" sqref="AJ39:AK39"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4673,13 +4705,13 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:35">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3">
         <v>1</v>
@@ -4775,12 +4807,12 @@
         <v>31</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AI2" s="1">
         <f>SUM(C2:AH2)</f>
@@ -4829,10 +4861,10 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H4" s="1">
         <v>70</v>
@@ -4843,14 +4875,17 @@
       <c r="R4" s="1">
         <v>110</v>
       </c>
+      <c r="X4" s="1">
+        <v>50</v>
+      </c>
       <c r="AI4" s="1">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="2:35">
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" si="0"/>
@@ -4905,10 +4940,10 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="1">
         <v>32</v>
@@ -4920,7 +4955,7 @@
     </row>
     <row r="9" spans="2:35">
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1">
         <v>16</v>
@@ -4932,7 +4967,7 @@
     </row>
     <row r="10" spans="2:35">
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1">
         <v>32</v>
@@ -4944,7 +4979,7 @@
     </row>
     <row r="11" spans="2:35">
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" si="0"/>
@@ -4993,10 +5028,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="1">
         <v>32</v>
@@ -5008,7 +5043,7 @@
     </row>
     <row r="14" spans="2:35">
       <c r="B14" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -5023,7 +5058,7 @@
     </row>
     <row r="15" spans="2:35">
       <c r="B15" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" si="0"/>
@@ -5072,7 +5107,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="0"/>
@@ -5121,7 +5156,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -5191,10 +5226,10 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" si="0"/>
@@ -5203,7 +5238,7 @@
     </row>
     <row r="22" spans="2:35">
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I22" s="1">
         <v>10</v>
@@ -5255,10 +5290,10 @@
     </row>
     <row r="24" ht="15.95" customHeight="1" spans="1:35">
       <c r="A24" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5379,7 +5414,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AI27" s="1">
         <f t="shared" si="0"/>
@@ -5428,7 +5463,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M29" s="1">
         <v>100</v>
@@ -5480,7 +5515,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1">
@@ -5539,7 +5574,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P33" s="1">
         <v>25</v>
@@ -5547,9 +5582,12 @@
       <c r="R33" s="1">
         <v>45</v>
       </c>
+      <c r="X33" s="1">
+        <v>20</v>
+      </c>
       <c r="AI33" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" ht="4.5" customHeight="1" spans="1:35">
@@ -5587,20 +5625,27 @@
       <c r="AF34" s="14"/>
       <c r="AG34" s="14"/>
       <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="AI34" s="14">
+        <f t="shared" ref="AI34:AI39" si="1">SUM(C34:AH34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H35" s="1">
         <v>32</v>
       </c>
       <c r="N35" s="1">
         <v>10</v>
+      </c>
+      <c r="AI35" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
     </row>
     <row r="36" ht="4.5" customHeight="1" spans="1:35">
@@ -5638,11 +5683,14 @@
       <c r="AF36" s="13"/>
       <c r="AG36" s="13"/>
       <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="AI36" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B37" s="4"/>
       <c r="M37" s="1">
@@ -5653,6 +5701,16 @@
       </c>
       <c r="R37" s="1">
         <v>20</v>
+      </c>
+      <c r="X37" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI37" s="1">
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="4.5" customHeight="1" spans="1:35">
@@ -5690,11 +5748,14 @@
       <c r="AF38" s="13"/>
       <c r="AG38" s="13"/>
       <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="AI38" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B39" s="4"/>
       <c r="M39" s="1">
@@ -5703,31 +5764,38 @@
       <c r="P39" s="1">
         <v>21</v>
       </c>
+      <c r="X39" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI39" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="35:35">
       <c r="AI40" s="1">
-        <f t="shared" ref="AI40:AI41" si="1">SUM(C40:AH40)</f>
+        <f t="shared" ref="AI40:AI41" si="2">SUM(C40:AH40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:35">
       <c r="A41" s="18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AI41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" ht="27.75" spans="1:35">
       <c r="A42" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D42" s="3">
         <v>22</v>
@@ -5781,12 +5849,12 @@
         <v>31</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1">
         <v>10</v>
@@ -5831,10 +5899,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1">
         <v>240</v>
@@ -5855,22 +5923,22 @@
         <v>30</v>
       </c>
       <c r="AI45" s="1">
-        <f t="shared" ref="AI45:AI74" si="2">SUM(C45:AH45)</f>
+        <f t="shared" ref="AI45:AI74" si="3">SUM(C45:AH45)</f>
         <v>410</v>
       </c>
     </row>
     <row r="46" spans="2:35">
       <c r="B46" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="35:35">
       <c r="AI47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5910,49 +5978,49 @@
       <c r="AG48" s="14"/>
       <c r="AH48" s="14"/>
       <c r="AI48" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C49" s="1">
         <v>64</v>
       </c>
       <c r="AI49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:35">
       <c r="B50" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AI50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:35">
       <c r="B51" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D51" s="1">
         <v>32</v>
       </c>
       <c r="AI51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:35">
       <c r="B52" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C52" s="1">
         <v>32</v>
@@ -5964,7 +6032,7 @@
         <v>32</v>
       </c>
       <c r="AI52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
     </row>
@@ -6004,46 +6072,46 @@
       <c r="AG53" s="14"/>
       <c r="AH53" s="14"/>
       <c r="AI53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H54" s="1">
         <v>32</v>
       </c>
       <c r="AI54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="2:35">
       <c r="B55" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E55" s="1">
         <v>32</v>
       </c>
       <c r="AI55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:35">
       <c r="B56" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1">
         <v>8</v>
       </c>
       <c r="AI56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -6083,19 +6151,19 @@
       <c r="AG57" s="14"/>
       <c r="AH57" s="14"/>
       <c r="AI57" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AI58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6135,13 +6203,13 @@
       <c r="AG59" s="14"/>
       <c r="AH59" s="14"/>
       <c r="AI59" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -6162,7 +6230,7 @@
         <v>30</v>
       </c>
       <c r="AI60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -6202,34 +6270,34 @@
       <c r="AG61" s="14"/>
       <c r="AH61" s="14"/>
       <c r="AI61" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C62" s="1">
         <v>10</v>
       </c>
       <c r="AI62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="2:35">
       <c r="B63" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1">
         <v>20</v>
       </c>
       <c r="AI63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -6269,16 +6337,16 @@
       <c r="AG64" s="14"/>
       <c r="AH64" s="14"/>
       <c r="AI64" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C65" s="16">
         <v>5</v>
@@ -6315,7 +6383,7 @@
       <c r="AG65" s="16"/>
       <c r="AH65" s="16"/>
       <c r="AI65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -6355,7 +6423,7 @@
       <c r="AG66" s="16"/>
       <c r="AH66" s="16"/>
       <c r="AI66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6395,13 +6463,13 @@
       <c r="AG67" s="14"/>
       <c r="AH67" s="14"/>
       <c r="AI67" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C68" s="1">
         <v>120</v>
@@ -6410,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="AI68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
     </row>
@@ -6450,13 +6518,13 @@
       <c r="AG69" s="14"/>
       <c r="AH69" s="14"/>
       <c r="AI69" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1">
         <v>120</v>
@@ -6465,7 +6533,7 @@
         <v>100</v>
       </c>
       <c r="AI70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -6505,19 +6573,19 @@
       <c r="AG71" s="14"/>
       <c r="AH71" s="14"/>
       <c r="AI71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D72" s="4">
         <v>5</v>
       </c>
       <c r="AI72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -6557,19 +6625,19 @@
       <c r="AG73" s="14"/>
       <c r="AH73" s="14"/>
       <c r="AI73" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
       </c>
       <c r="AI74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -6610,40 +6678,40 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="2:14">
@@ -6725,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" ht="14.25" spans="2:12">
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6745,40 +6813,40 @@
     </row>
     <row r="19" ht="27.75" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -6998,8 +7066,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -7011,15 +7079,15 @@
   <sheetData>
     <row r="1" ht="27.75" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -7027,7 +7095,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -7035,18 +7103,18 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/daily_management.xlsx
+++ b/daily_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
